--- a/public/documents/Importuserselms.xlsx
+++ b/public/documents/Importuserselms.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Music\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14628" windowHeight="8892"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="user sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="user sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -52,9 +60,6 @@
     <t>Marital Status</t>
   </si>
   <si>
-    <t>Deployment Number</t>
-  </si>
-  <si>
     <t>Deployed On</t>
   </si>
   <si>
@@ -91,54 +96,45 @@
     <t>DIVORCED</t>
   </si>
   <si>
-    <t>keza</t>
+    <t>Service Number</t>
   </si>
   <si>
-    <t>Keza</t>
-  </si>
-  <si>
-    <t>Crere</t>
-  </si>
-  <si>
-    <t>crere@gmail.com</t>
-  </si>
-  <si>
-    <t>078834323</t>
-  </si>
-  <si>
-    <t>25464624624</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
+    <t>RDF-123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -147,63 +143,59 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -393,30 +385,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.71"/>
-    <col customWidth="1" min="12" max="12" width="15.29"/>
-    <col customWidth="1" min="13" max="13" width="19.57"/>
-    <col customWidth="1" min="14" max="14" width="23.14"/>
-    <col customWidth="1" min="15" max="15" width="20.43"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="23.109375" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,57 +452,59 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="5">
+        <v>36566</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="5">
-        <v>36566.0</v>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
+      <c r="O2" s="5">
+        <v>36566</v>
       </c>
-      <c r="N2" s="3">
-        <v>123.0</v>
-      </c>
-      <c r="O2" s="5"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -521,53 +518,25 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3">
-      <c r="A3" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="9">
-        <v>36571.0</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="7">
-        <v>123.0</v>
-      </c>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G4" s="8"/>
       <c r="H4" s="10"/>
       <c r="I4" s="8"/>
@@ -578,7 +547,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -607,7 +576,7 @@
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G6" s="12"/>
       <c r="H6" s="10"/>
       <c r="I6" s="12"/>
@@ -618,7 +587,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G7" s="12"/>
       <c r="H7" s="10"/>
       <c r="I7" s="12"/>
@@ -629,7 +598,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G8" s="12"/>
       <c r="H8" s="10"/>
       <c r="I8" s="12"/>
@@ -640,7 +609,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G9" s="12"/>
       <c r="H9" s="10"/>
       <c r="I9" s="12"/>
@@ -651,7 +620,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G10" s="12"/>
       <c r="H10" s="10"/>
       <c r="I10" s="12"/>
@@ -662,7 +631,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G11" s="12"/>
       <c r="H11" s="10"/>
       <c r="I11" s="12"/>
@@ -673,7 +642,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G12" s="12"/>
       <c r="H12" s="10"/>
       <c r="I12" s="12"/>
@@ -684,7 +653,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G13" s="12"/>
       <c r="H13" s="10"/>
       <c r="I13" s="12"/>
@@ -695,7 +664,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G14" s="12"/>
       <c r="H14" s="10"/>
       <c r="I14" s="12"/>
@@ -706,7 +675,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G15" s="12"/>
       <c r="H15" s="10"/>
       <c r="I15" s="12"/>
@@ -717,7 +686,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G16" s="12"/>
       <c r="H16" s="10"/>
       <c r="I16" s="12"/>
@@ -728,7 +697,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17">
+    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G17" s="12"/>
       <c r="H17" s="10"/>
       <c r="I17" s="12"/>
@@ -739,7 +708,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18">
+    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G18" s="12"/>
       <c r="H18" s="10"/>
       <c r="I18" s="12"/>
@@ -750,7 +719,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19">
+    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G19" s="12"/>
       <c r="H19" s="10"/>
       <c r="I19" s="12"/>
@@ -761,7 +730,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20">
+    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G20" s="12"/>
       <c r="H20" s="10"/>
       <c r="I20" s="12"/>
@@ -772,7 +741,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21">
+    <row r="21" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G21" s="12"/>
       <c r="H21" s="10"/>
       <c r="I21" s="12"/>
@@ -783,7 +752,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22">
+    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G22" s="12"/>
       <c r="H22" s="10"/>
       <c r="I22" s="12"/>
@@ -794,7 +763,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23">
+    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G23" s="12"/>
       <c r="H23" s="10"/>
       <c r="I23" s="12"/>
@@ -805,7 +774,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24">
+    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" s="12"/>
       <c r="H24" s="10"/>
       <c r="I24" s="12"/>
@@ -816,7 +785,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25">
+    <row r="25" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G25" s="12"/>
       <c r="H25" s="10"/>
       <c r="I25" s="12"/>
@@ -827,7 +796,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26">
+    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G26" s="12"/>
       <c r="H26" s="10"/>
       <c r="I26" s="12"/>
@@ -838,7 +807,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27">
+    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G27" s="12"/>
       <c r="H27" s="10"/>
       <c r="I27" s="12"/>
@@ -849,7 +818,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28">
+    <row r="28" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G28" s="12"/>
       <c r="H28" s="10"/>
       <c r="I28" s="12"/>
@@ -860,7 +829,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29">
+    <row r="29" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G29" s="12"/>
       <c r="H29" s="10"/>
       <c r="I29" s="12"/>
@@ -871,7 +840,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30">
+    <row r="30" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G30" s="12"/>
       <c r="H30" s="10"/>
       <c r="I30" s="12"/>
@@ -882,7 +851,7 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31">
+    <row r="31" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G31" s="12"/>
       <c r="H31" s="10"/>
       <c r="I31" s="12"/>
@@ -893,7 +862,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32">
+    <row r="32" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G32" s="12"/>
       <c r="H32" s="10"/>
       <c r="I32" s="12"/>
@@ -904,7 +873,7 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33">
+    <row r="33" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G33" s="12"/>
       <c r="H33" s="10"/>
       <c r="I33" s="12"/>
@@ -915,7 +884,7 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34">
+    <row r="34" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G34" s="12"/>
       <c r="H34" s="10"/>
       <c r="I34" s="12"/>
@@ -926,7 +895,7 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35">
+    <row r="35" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G35" s="12"/>
       <c r="H35" s="10"/>
       <c r="I35" s="12"/>
@@ -937,7 +906,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36">
+    <row r="36" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G36" s="12"/>
       <c r="H36" s="10"/>
       <c r="I36" s="12"/>
@@ -948,7 +917,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37">
+    <row r="37" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G37" s="12"/>
       <c r="H37" s="10"/>
       <c r="I37" s="12"/>
@@ -959,7 +928,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38">
+    <row r="38" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G38" s="12"/>
       <c r="H38" s="10"/>
       <c r="I38" s="12"/>
@@ -970,7 +939,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39">
+    <row r="39" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G39" s="12"/>
       <c r="H39" s="10"/>
       <c r="I39" s="12"/>
@@ -981,7 +950,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40">
+    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G40" s="12"/>
       <c r="H40" s="10"/>
       <c r="I40" s="12"/>
@@ -992,7 +961,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41">
+    <row r="41" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G41" s="12"/>
       <c r="H41" s="10"/>
       <c r="I41" s="12"/>
@@ -1003,7 +972,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42">
+    <row r="42" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G42" s="12"/>
       <c r="H42" s="10"/>
       <c r="I42" s="12"/>
@@ -1014,7 +983,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43">
+    <row r="43" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G43" s="12"/>
       <c r="H43" s="10"/>
       <c r="I43" s="12"/>
@@ -1025,7 +994,7 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44">
+    <row r="44" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G44" s="12"/>
       <c r="H44" s="10"/>
       <c r="I44" s="12"/>
@@ -1036,7 +1005,7 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45">
+    <row r="45" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G45" s="12"/>
       <c r="H45" s="10"/>
       <c r="I45" s="12"/>
@@ -1047,7 +1016,7 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46">
+    <row r="46" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G46" s="12"/>
       <c r="H46" s="10"/>
       <c r="I46" s="12"/>
@@ -1058,7 +1027,7 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
     </row>
-    <row r="47">
+    <row r="47" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G47" s="12"/>
       <c r="H47" s="10"/>
       <c r="I47" s="12"/>
@@ -1069,7 +1038,7 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48">
+    <row r="48" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G48" s="12"/>
       <c r="H48" s="10"/>
       <c r="I48" s="12"/>
@@ -1080,7 +1049,7 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49">
+    <row r="49" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G49" s="12"/>
       <c r="H49" s="10"/>
       <c r="I49" s="12"/>
@@ -1091,7 +1060,7 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50">
+    <row r="50" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G50" s="12"/>
       <c r="H50" s="10"/>
       <c r="I50" s="12"/>
@@ -1102,7 +1071,7 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51">
+    <row r="51" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G51" s="12"/>
       <c r="H51" s="10"/>
       <c r="I51" s="12"/>
@@ -1113,7 +1082,7 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52">
+    <row r="52" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G52" s="12"/>
       <c r="H52" s="10"/>
       <c r="I52" s="12"/>
@@ -1124,7 +1093,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53">
+    <row r="53" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G53" s="12"/>
       <c r="H53" s="10"/>
       <c r="I53" s="12"/>
@@ -1135,7 +1104,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54">
+    <row r="54" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G54" s="12"/>
       <c r="H54" s="10"/>
       <c r="I54" s="12"/>
@@ -1146,7 +1115,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55">
+    <row r="55" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G55" s="12"/>
       <c r="H55" s="10"/>
       <c r="I55" s="12"/>
@@ -1157,7 +1126,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56">
+    <row r="56" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G56" s="12"/>
       <c r="H56" s="10"/>
       <c r="I56" s="12"/>
@@ -1168,7 +1137,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57">
+    <row r="57" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G57" s="12"/>
       <c r="H57" s="10"/>
       <c r="I57" s="12"/>
@@ -1179,7 +1148,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58">
+    <row r="58" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G58" s="12"/>
       <c r="H58" s="10"/>
       <c r="I58" s="12"/>
@@ -1190,7 +1159,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59">
+    <row r="59" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G59" s="12"/>
       <c r="H59" s="10"/>
       <c r="I59" s="12"/>
@@ -1201,7 +1170,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60">
+    <row r="60" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G60" s="12"/>
       <c r="H60" s="10"/>
       <c r="I60" s="12"/>
@@ -1212,7 +1181,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61">
+    <row r="61" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G61" s="12"/>
       <c r="H61" s="10"/>
       <c r="I61" s="12"/>
@@ -1223,7 +1192,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62">
+    <row r="62" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G62" s="12"/>
       <c r="H62" s="10"/>
       <c r="I62" s="12"/>
@@ -1234,7 +1203,7 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63">
+    <row r="63" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G63" s="12"/>
       <c r="H63" s="10"/>
       <c r="I63" s="12"/>
@@ -1245,7 +1214,7 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64">
+    <row r="64" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G64" s="12"/>
       <c r="H64" s="10"/>
       <c r="I64" s="12"/>
@@ -1256,7 +1225,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65">
+    <row r="65" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G65" s="12"/>
       <c r="H65" s="10"/>
       <c r="I65" s="12"/>
@@ -1267,7 +1236,7 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66">
+    <row r="66" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G66" s="12"/>
       <c r="H66" s="10"/>
       <c r="I66" s="12"/>
@@ -1278,7 +1247,7 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
-    <row r="67">
+    <row r="67" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G67" s="12"/>
       <c r="H67" s="10"/>
       <c r="I67" s="12"/>
@@ -1289,7 +1258,7 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
-    <row r="68">
+    <row r="68" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G68" s="12"/>
       <c r="H68" s="10"/>
       <c r="I68" s="12"/>
@@ -1300,7 +1269,7 @@
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
     </row>
-    <row r="69">
+    <row r="69" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G69" s="12"/>
       <c r="H69" s="10"/>
       <c r="I69" s="12"/>
@@ -1311,7 +1280,7 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
     </row>
-    <row r="70">
+    <row r="70" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G70" s="12"/>
       <c r="H70" s="10"/>
       <c r="I70" s="12"/>
@@ -1322,7 +1291,7 @@
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
     </row>
-    <row r="71">
+    <row r="71" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G71" s="12"/>
       <c r="H71" s="10"/>
       <c r="I71" s="12"/>
@@ -1333,7 +1302,7 @@
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
     </row>
-    <row r="72">
+    <row r="72" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G72" s="12"/>
       <c r="H72" s="10"/>
       <c r="I72" s="12"/>
@@ -1344,7 +1313,7 @@
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
     </row>
-    <row r="73">
+    <row r="73" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G73" s="12"/>
       <c r="H73" s="10"/>
       <c r="I73" s="12"/>
@@ -1355,7 +1324,7 @@
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
-    <row r="74">
+    <row r="74" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G74" s="12"/>
       <c r="H74" s="10"/>
       <c r="I74" s="12"/>
@@ -1366,7 +1335,7 @@
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
-    <row r="75">
+    <row r="75" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G75" s="12"/>
       <c r="H75" s="10"/>
       <c r="I75" s="12"/>
@@ -1377,7 +1346,7 @@
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
-    <row r="76">
+    <row r="76" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G76" s="12"/>
       <c r="H76" s="10"/>
       <c r="I76" s="12"/>
@@ -1388,7 +1357,7 @@
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
-    <row r="77">
+    <row r="77" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G77" s="12"/>
       <c r="H77" s="10"/>
       <c r="I77" s="12"/>
@@ -1399,7 +1368,7 @@
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
-    <row r="78">
+    <row r="78" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G78" s="12"/>
       <c r="H78" s="10"/>
       <c r="I78" s="12"/>
@@ -1410,7 +1379,7 @@
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
     </row>
-    <row r="79">
+    <row r="79" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G79" s="12"/>
       <c r="H79" s="10"/>
       <c r="I79" s="12"/>
@@ -1421,7 +1390,7 @@
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
-    <row r="80">
+    <row r="80" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G80" s="12"/>
       <c r="H80" s="10"/>
       <c r="I80" s="12"/>
@@ -1432,7 +1401,7 @@
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
-    <row r="81">
+    <row r="81" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G81" s="12"/>
       <c r="H81" s="10"/>
       <c r="I81" s="12"/>
@@ -1443,7 +1412,7 @@
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
     </row>
-    <row r="82">
+    <row r="82" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G82" s="12"/>
       <c r="H82" s="10"/>
       <c r="I82" s="12"/>
@@ -1454,7 +1423,7 @@
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
-    <row r="83">
+    <row r="83" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G83" s="12"/>
       <c r="H83" s="10"/>
       <c r="I83" s="12"/>
@@ -1465,7 +1434,7 @@
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84">
+    <row r="84" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G84" s="12"/>
       <c r="H84" s="10"/>
       <c r="I84" s="12"/>
@@ -1476,7 +1445,7 @@
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85">
+    <row r="85" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G85" s="12"/>
       <c r="H85" s="10"/>
       <c r="I85" s="12"/>
@@ -1487,7 +1456,7 @@
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
     </row>
-    <row r="86">
+    <row r="86" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G86" s="12"/>
       <c r="H86" s="10"/>
       <c r="I86" s="12"/>
@@ -1498,7 +1467,7 @@
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
-    <row r="87">
+    <row r="87" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G87" s="12"/>
       <c r="H87" s="10"/>
       <c r="I87" s="12"/>
@@ -1509,7 +1478,7 @@
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
     </row>
-    <row r="88">
+    <row r="88" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G88" s="12"/>
       <c r="H88" s="10"/>
       <c r="I88" s="12"/>
@@ -1520,7 +1489,7 @@
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
-    <row r="89">
+    <row r="89" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G89" s="12"/>
       <c r="H89" s="10"/>
       <c r="I89" s="12"/>
@@ -1531,7 +1500,7 @@
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
-    <row r="90">
+    <row r="90" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G90" s="12"/>
       <c r="H90" s="10"/>
       <c r="I90" s="12"/>
@@ -1542,7 +1511,7 @@
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
     </row>
-    <row r="91">
+    <row r="91" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G91" s="12"/>
       <c r="H91" s="10"/>
       <c r="I91" s="12"/>
@@ -1553,7 +1522,7 @@
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
     </row>
-    <row r="92">
+    <row r="92" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G92" s="12"/>
       <c r="H92" s="10"/>
       <c r="I92" s="12"/>
@@ -1564,7 +1533,7 @@
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
     </row>
-    <row r="93">
+    <row r="93" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G93" s="12"/>
       <c r="H93" s="10"/>
       <c r="I93" s="12"/>
@@ -1575,7 +1544,7 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
     </row>
-    <row r="94">
+    <row r="94" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G94" s="12"/>
       <c r="H94" s="10"/>
       <c r="I94" s="12"/>
@@ -1586,7 +1555,7 @@
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
-    <row r="95">
+    <row r="95" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G95" s="12"/>
       <c r="H95" s="10"/>
       <c r="I95" s="12"/>
@@ -1597,7 +1566,7 @@
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
     </row>
-    <row r="96">
+    <row r="96" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G96" s="12"/>
       <c r="H96" s="10"/>
       <c r="I96" s="12"/>
@@ -1608,7 +1577,7 @@
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
     </row>
-    <row r="97">
+    <row r="97" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G97" s="12"/>
       <c r="H97" s="10"/>
       <c r="I97" s="12"/>
@@ -1619,7 +1588,7 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
     </row>
-    <row r="98">
+    <row r="98" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G98" s="12"/>
       <c r="H98" s="10"/>
       <c r="I98" s="12"/>
@@ -1630,7 +1599,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
     </row>
-    <row r="99">
+    <row r="99" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G99" s="12"/>
       <c r="H99" s="10"/>
       <c r="I99" s="12"/>
@@ -1641,7 +1610,7 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
-    <row r="100">
+    <row r="100" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G100" s="12"/>
       <c r="H100" s="10"/>
       <c r="I100" s="12"/>
@@ -1652,7 +1621,7 @@
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="101">
+    <row r="101" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G101" s="12"/>
       <c r="H101" s="10"/>
       <c r="I101" s="12"/>
@@ -1663,7 +1632,7 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102">
+    <row r="102" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G102" s="12"/>
       <c r="H102" s="10"/>
       <c r="I102" s="12"/>
@@ -1674,7 +1643,7 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
     </row>
-    <row r="103">
+    <row r="103" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G103" s="12"/>
       <c r="H103" s="10"/>
       <c r="I103" s="12"/>
@@ -1685,7 +1654,7 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
     </row>
-    <row r="104">
+    <row r="104" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G104" s="12"/>
       <c r="H104" s="10"/>
       <c r="I104" s="12"/>
@@ -1696,7 +1665,7 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
     </row>
-    <row r="105">
+    <row r="105" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G105" s="12"/>
       <c r="H105" s="10"/>
       <c r="I105" s="12"/>
@@ -1707,7 +1676,7 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106">
+    <row r="106" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G106" s="12"/>
       <c r="H106" s="10"/>
       <c r="I106" s="12"/>
@@ -1718,7 +1687,7 @@
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
     </row>
-    <row r="107">
+    <row r="107" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G107" s="12"/>
       <c r="H107" s="10"/>
       <c r="I107" s="12"/>
@@ -1729,7 +1698,7 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
     </row>
-    <row r="108">
+    <row r="108" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G108" s="12"/>
       <c r="H108" s="10"/>
       <c r="I108" s="12"/>
@@ -1740,7 +1709,7 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109">
+    <row r="109" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G109" s="12"/>
       <c r="H109" s="10"/>
       <c r="I109" s="12"/>
@@ -1751,7 +1720,7 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
     </row>
-    <row r="110">
+    <row r="110" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G110" s="12"/>
       <c r="H110" s="10"/>
       <c r="I110" s="12"/>
@@ -1762,7 +1731,7 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
     </row>
-    <row r="111">
+    <row r="111" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G111" s="12"/>
       <c r="H111" s="10"/>
       <c r="I111" s="12"/>
@@ -1773,7 +1742,7 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
     </row>
-    <row r="112">
+    <row r="112" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G112" s="12"/>
       <c r="H112" s="10"/>
       <c r="I112" s="12"/>
@@ -1784,7 +1753,7 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
     </row>
-    <row r="113">
+    <row r="113" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G113" s="12"/>
       <c r="H113" s="10"/>
       <c r="I113" s="12"/>
@@ -1795,7 +1764,7 @@
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
     </row>
-    <row r="114">
+    <row r="114" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G114" s="12"/>
       <c r="H114" s="10"/>
       <c r="I114" s="12"/>
@@ -1806,7 +1775,7 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
     </row>
-    <row r="115">
+    <row r="115" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G115" s="12"/>
       <c r="H115" s="10"/>
       <c r="I115" s="12"/>
@@ -1817,7 +1786,7 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
     </row>
-    <row r="116">
+    <row r="116" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G116" s="12"/>
       <c r="H116" s="10"/>
       <c r="I116" s="12"/>
@@ -1828,7 +1797,7 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
     </row>
-    <row r="117">
+    <row r="117" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G117" s="12"/>
       <c r="H117" s="10"/>
       <c r="I117" s="12"/>
@@ -1839,7 +1808,7 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
     </row>
-    <row r="118">
+    <row r="118" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G118" s="12"/>
       <c r="H118" s="10"/>
       <c r="I118" s="12"/>
@@ -1850,7 +1819,7 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
     </row>
-    <row r="119">
+    <row r="119" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G119" s="12"/>
       <c r="H119" s="10"/>
       <c r="I119" s="12"/>
@@ -1861,7 +1830,7 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
     </row>
-    <row r="120">
+    <row r="120" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G120" s="12"/>
       <c r="H120" s="10"/>
       <c r="I120" s="12"/>
@@ -1872,7 +1841,7 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
     </row>
-    <row r="121">
+    <row r="121" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G121" s="12"/>
       <c r="H121" s="10"/>
       <c r="I121" s="12"/>
@@ -1883,7 +1852,7 @@
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
     </row>
-    <row r="122">
+    <row r="122" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G122" s="12"/>
       <c r="H122" s="10"/>
       <c r="I122" s="12"/>
@@ -1894,7 +1863,7 @@
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
     </row>
-    <row r="123">
+    <row r="123" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G123" s="12"/>
       <c r="H123" s="10"/>
       <c r="I123" s="12"/>
@@ -1905,7 +1874,7 @@
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
     </row>
-    <row r="124">
+    <row r="124" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G124" s="12"/>
       <c r="H124" s="10"/>
       <c r="I124" s="12"/>
@@ -1916,7 +1885,7 @@
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
     </row>
-    <row r="125">
+    <row r="125" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G125" s="12"/>
       <c r="H125" s="10"/>
       <c r="I125" s="12"/>
@@ -1927,7 +1896,7 @@
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
     </row>
-    <row r="126">
+    <row r="126" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G126" s="12"/>
       <c r="H126" s="10"/>
       <c r="I126" s="12"/>
@@ -1938,7 +1907,7 @@
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
     </row>
-    <row r="127">
+    <row r="127" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G127" s="12"/>
       <c r="H127" s="10"/>
       <c r="I127" s="12"/>
@@ -1949,7 +1918,7 @@
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
     </row>
-    <row r="128">
+    <row r="128" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G128" s="12"/>
       <c r="H128" s="10"/>
       <c r="I128" s="12"/>
@@ -1960,7 +1929,7 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
     </row>
-    <row r="129">
+    <row r="129" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G129" s="12"/>
       <c r="H129" s="10"/>
       <c r="I129" s="12"/>
@@ -1971,7 +1940,7 @@
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
     </row>
-    <row r="130">
+    <row r="130" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G130" s="12"/>
       <c r="H130" s="10"/>
       <c r="I130" s="12"/>
@@ -1982,7 +1951,7 @@
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
     </row>
-    <row r="131">
+    <row r="131" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G131" s="12"/>
       <c r="H131" s="10"/>
       <c r="I131" s="12"/>
@@ -1993,7 +1962,7 @@
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
     </row>
-    <row r="132">
+    <row r="132" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G132" s="12"/>
       <c r="H132" s="10"/>
       <c r="I132" s="12"/>
@@ -2004,7 +1973,7 @@
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
     </row>
-    <row r="133">
+    <row r="133" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G133" s="12"/>
       <c r="H133" s="10"/>
       <c r="I133" s="12"/>
@@ -2015,7 +1984,7 @@
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
     </row>
-    <row r="134">
+    <row r="134" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G134" s="12"/>
       <c r="H134" s="10"/>
       <c r="I134" s="12"/>
@@ -2026,7 +1995,7 @@
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
     </row>
-    <row r="135">
+    <row r="135" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G135" s="12"/>
       <c r="H135" s="10"/>
       <c r="I135" s="12"/>
@@ -2037,7 +2006,7 @@
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
     </row>
-    <row r="136">
+    <row r="136" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G136" s="12"/>
       <c r="H136" s="10"/>
       <c r="I136" s="12"/>
@@ -2048,7 +2017,7 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
     </row>
-    <row r="137">
+    <row r="137" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G137" s="12"/>
       <c r="H137" s="10"/>
       <c r="I137" s="12"/>
@@ -2059,7 +2028,7 @@
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
     </row>
-    <row r="138">
+    <row r="138" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G138" s="12"/>
       <c r="H138" s="10"/>
       <c r="I138" s="12"/>
@@ -2070,7 +2039,7 @@
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
     </row>
-    <row r="139">
+    <row r="139" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G139" s="12"/>
       <c r="H139" s="10"/>
       <c r="I139" s="12"/>
@@ -2081,7 +2050,7 @@
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
     </row>
-    <row r="140">
+    <row r="140" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G140" s="12"/>
       <c r="H140" s="10"/>
       <c r="I140" s="12"/>
@@ -2092,7 +2061,7 @@
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
     </row>
-    <row r="141">
+    <row r="141" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G141" s="12"/>
       <c r="H141" s="10"/>
       <c r="I141" s="12"/>
@@ -2103,7 +2072,7 @@
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
     </row>
-    <row r="142">
+    <row r="142" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G142" s="12"/>
       <c r="H142" s="10"/>
       <c r="I142" s="12"/>
@@ -2114,7 +2083,7 @@
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
     </row>
-    <row r="143">
+    <row r="143" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G143" s="12"/>
       <c r="H143" s="10"/>
       <c r="I143" s="12"/>
@@ -2125,7 +2094,7 @@
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
     </row>
-    <row r="144">
+    <row r="144" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G144" s="12"/>
       <c r="H144" s="10"/>
       <c r="I144" s="12"/>
@@ -2136,7 +2105,7 @@
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
     </row>
-    <row r="145">
+    <row r="145" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G145" s="12"/>
       <c r="H145" s="10"/>
       <c r="I145" s="12"/>
@@ -2147,7 +2116,7 @@
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
     </row>
-    <row r="146">
+    <row r="146" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G146" s="12"/>
       <c r="H146" s="10"/>
       <c r="I146" s="12"/>
@@ -2158,7 +2127,7 @@
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
     </row>
-    <row r="147">
+    <row r="147" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G147" s="12"/>
       <c r="H147" s="10"/>
       <c r="I147" s="12"/>
@@ -2169,7 +2138,7 @@
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
     </row>
-    <row r="148">
+    <row r="148" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G148" s="12"/>
       <c r="H148" s="10"/>
       <c r="I148" s="12"/>
@@ -2180,7 +2149,7 @@
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
     </row>
-    <row r="149">
+    <row r="149" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G149" s="12"/>
       <c r="H149" s="10"/>
       <c r="I149" s="12"/>
@@ -2191,7 +2160,7 @@
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150">
+    <row r="150" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G150" s="12"/>
       <c r="H150" s="10"/>
       <c r="I150" s="12"/>
@@ -2202,7 +2171,7 @@
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
     </row>
-    <row r="151">
+    <row r="151" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G151" s="12"/>
       <c r="H151" s="10"/>
       <c r="I151" s="12"/>
@@ -2213,7 +2182,7 @@
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
     </row>
-    <row r="152">
+    <row r="152" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G152" s="12"/>
       <c r="H152" s="10"/>
       <c r="I152" s="12"/>
@@ -2224,7 +2193,7 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
     </row>
-    <row r="153">
+    <row r="153" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G153" s="12"/>
       <c r="H153" s="10"/>
       <c r="I153" s="12"/>
@@ -2235,7 +2204,7 @@
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
     </row>
-    <row r="154">
+    <row r="154" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G154" s="12"/>
       <c r="H154" s="10"/>
       <c r="I154" s="12"/>
@@ -2246,7 +2215,7 @@
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
     </row>
-    <row r="155">
+    <row r="155" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G155" s="12"/>
       <c r="H155" s="10"/>
       <c r="I155" s="12"/>
@@ -2257,7 +2226,7 @@
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
     </row>
-    <row r="156">
+    <row r="156" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G156" s="12"/>
       <c r="H156" s="10"/>
       <c r="I156" s="12"/>
@@ -2268,7 +2237,7 @@
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
     </row>
-    <row r="157">
+    <row r="157" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G157" s="12"/>
       <c r="H157" s="10"/>
       <c r="I157" s="12"/>
@@ -2279,7 +2248,7 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
     </row>
-    <row r="158">
+    <row r="158" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G158" s="12"/>
       <c r="H158" s="10"/>
       <c r="I158" s="12"/>
@@ -2290,7 +2259,7 @@
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
     </row>
-    <row r="159">
+    <row r="159" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G159" s="12"/>
       <c r="H159" s="10"/>
       <c r="I159" s="12"/>
@@ -2301,7 +2270,7 @@
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
     </row>
-    <row r="160">
+    <row r="160" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G160" s="12"/>
       <c r="H160" s="10"/>
       <c r="I160" s="12"/>
@@ -2312,7 +2281,7 @@
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
     </row>
-    <row r="161">
+    <row r="161" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G161" s="12"/>
       <c r="H161" s="10"/>
       <c r="I161" s="12"/>
@@ -2323,7 +2292,7 @@
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
     </row>
-    <row r="162">
+    <row r="162" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G162" s="12"/>
       <c r="H162" s="10"/>
       <c r="I162" s="12"/>
@@ -2334,7 +2303,7 @@
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
     </row>
-    <row r="163">
+    <row r="163" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G163" s="12"/>
       <c r="H163" s="10"/>
       <c r="I163" s="12"/>
@@ -2345,7 +2314,7 @@
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
     </row>
-    <row r="164">
+    <row r="164" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G164" s="12"/>
       <c r="H164" s="10"/>
       <c r="I164" s="12"/>
@@ -2356,7 +2325,7 @@
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
     </row>
-    <row r="165">
+    <row r="165" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G165" s="12"/>
       <c r="H165" s="10"/>
       <c r="I165" s="12"/>
@@ -2367,7 +2336,7 @@
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
     </row>
-    <row r="166">
+    <row r="166" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G166" s="12"/>
       <c r="H166" s="10"/>
       <c r="I166" s="12"/>
@@ -2378,7 +2347,7 @@
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
     </row>
-    <row r="167">
+    <row r="167" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G167" s="12"/>
       <c r="H167" s="10"/>
       <c r="I167" s="12"/>
@@ -2389,7 +2358,7 @@
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
     </row>
-    <row r="168">
+    <row r="168" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G168" s="12"/>
       <c r="H168" s="10"/>
       <c r="I168" s="12"/>
@@ -2400,7 +2369,7 @@
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
     </row>
-    <row r="169">
+    <row r="169" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G169" s="12"/>
       <c r="H169" s="10"/>
       <c r="I169" s="12"/>
@@ -2411,7 +2380,7 @@
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
     </row>
-    <row r="170">
+    <row r="170" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G170" s="12"/>
       <c r="H170" s="10"/>
       <c r="I170" s="12"/>
@@ -2422,7 +2391,7 @@
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
     </row>
-    <row r="171">
+    <row r="171" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G171" s="12"/>
       <c r="H171" s="10"/>
       <c r="I171" s="12"/>
@@ -2433,7 +2402,7 @@
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
     </row>
-    <row r="172">
+    <row r="172" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G172" s="12"/>
       <c r="H172" s="10"/>
       <c r="I172" s="12"/>
@@ -2444,7 +2413,7 @@
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
     </row>
-    <row r="173">
+    <row r="173" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G173" s="12"/>
       <c r="H173" s="10"/>
       <c r="I173" s="12"/>
@@ -2455,7 +2424,7 @@
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
     </row>
-    <row r="174">
+    <row r="174" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G174" s="12"/>
       <c r="H174" s="10"/>
       <c r="I174" s="12"/>
@@ -2466,7 +2435,7 @@
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
     </row>
-    <row r="175">
+    <row r="175" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G175" s="12"/>
       <c r="H175" s="10"/>
       <c r="I175" s="12"/>
@@ -2477,7 +2446,7 @@
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
     </row>
-    <row r="176">
+    <row r="176" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G176" s="12"/>
       <c r="H176" s="10"/>
       <c r="I176" s="12"/>
@@ -2488,7 +2457,7 @@
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
     </row>
-    <row r="177">
+    <row r="177" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G177" s="12"/>
       <c r="H177" s="10"/>
       <c r="I177" s="12"/>
@@ -2499,7 +2468,7 @@
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
     </row>
-    <row r="178">
+    <row r="178" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G178" s="12"/>
       <c r="H178" s="10"/>
       <c r="I178" s="12"/>
@@ -2510,7 +2479,7 @@
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
     </row>
-    <row r="179">
+    <row r="179" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G179" s="12"/>
       <c r="H179" s="10"/>
       <c r="I179" s="12"/>
@@ -2521,7 +2490,7 @@
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
     </row>
-    <row r="180">
+    <row r="180" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G180" s="12"/>
       <c r="H180" s="10"/>
       <c r="I180" s="12"/>
@@ -2532,7 +2501,7 @@
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
     </row>
-    <row r="181">
+    <row r="181" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G181" s="12"/>
       <c r="H181" s="10"/>
       <c r="I181" s="12"/>
@@ -2543,7 +2512,7 @@
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
     </row>
-    <row r="182">
+    <row r="182" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G182" s="12"/>
       <c r="H182" s="10"/>
       <c r="I182" s="12"/>
@@ -2554,7 +2523,7 @@
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
     </row>
-    <row r="183">
+    <row r="183" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G183" s="12"/>
       <c r="H183" s="10"/>
       <c r="I183" s="12"/>
@@ -2565,7 +2534,7 @@
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
     </row>
-    <row r="184">
+    <row r="184" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G184" s="12"/>
       <c r="H184" s="10"/>
       <c r="I184" s="12"/>
@@ -2576,7 +2545,7 @@
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
     </row>
-    <row r="185">
+    <row r="185" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G185" s="12"/>
       <c r="H185" s="10"/>
       <c r="I185" s="12"/>
@@ -2587,7 +2556,7 @@
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
     </row>
-    <row r="186">
+    <row r="186" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G186" s="12"/>
       <c r="H186" s="10"/>
       <c r="I186" s="12"/>
@@ -2598,7 +2567,7 @@
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
     </row>
-    <row r="187">
+    <row r="187" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G187" s="12"/>
       <c r="H187" s="10"/>
       <c r="I187" s="12"/>
@@ -2609,7 +2578,7 @@
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
     </row>
-    <row r="188">
+    <row r="188" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G188" s="12"/>
       <c r="H188" s="10"/>
       <c r="I188" s="12"/>
@@ -2620,7 +2589,7 @@
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
     </row>
-    <row r="189">
+    <row r="189" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G189" s="12"/>
       <c r="H189" s="10"/>
       <c r="I189" s="12"/>
@@ -2631,7 +2600,7 @@
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
     </row>
-    <row r="190">
+    <row r="190" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G190" s="12"/>
       <c r="H190" s="10"/>
       <c r="I190" s="12"/>
@@ -2642,7 +2611,7 @@
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
     </row>
-    <row r="191">
+    <row r="191" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G191" s="12"/>
       <c r="H191" s="10"/>
       <c r="I191" s="12"/>
@@ -2653,7 +2622,7 @@
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
     </row>
-    <row r="192">
+    <row r="192" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G192" s="12"/>
       <c r="H192" s="10"/>
       <c r="I192" s="12"/>
@@ -2664,7 +2633,7 @@
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
     </row>
-    <row r="193">
+    <row r="193" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G193" s="12"/>
       <c r="H193" s="10"/>
       <c r="I193" s="12"/>
@@ -2675,7 +2644,7 @@
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
     </row>
-    <row r="194">
+    <row r="194" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G194" s="12"/>
       <c r="H194" s="10"/>
       <c r="I194" s="12"/>
@@ -2686,7 +2655,7 @@
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
     </row>
-    <row r="195">
+    <row r="195" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G195" s="12"/>
       <c r="H195" s="10"/>
       <c r="I195" s="12"/>
@@ -2697,7 +2666,7 @@
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
     </row>
-    <row r="196">
+    <row r="196" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G196" s="12"/>
       <c r="H196" s="10"/>
       <c r="I196" s="12"/>
@@ -2708,7 +2677,7 @@
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
     </row>
-    <row r="197">
+    <row r="197" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G197" s="12"/>
       <c r="H197" s="10"/>
       <c r="I197" s="12"/>
@@ -2719,7 +2688,7 @@
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
     </row>
-    <row r="198">
+    <row r="198" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G198" s="12"/>
       <c r="H198" s="10"/>
       <c r="I198" s="12"/>
@@ -2730,7 +2699,7 @@
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
     </row>
-    <row r="199">
+    <row r="199" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G199" s="12"/>
       <c r="H199" s="10"/>
       <c r="I199" s="12"/>
@@ -2741,7 +2710,7 @@
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
     </row>
-    <row r="200">
+    <row r="200" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G200" s="12"/>
       <c r="H200" s="10"/>
       <c r="I200" s="12"/>
@@ -2752,7 +2721,7 @@
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
     </row>
-    <row r="201">
+    <row r="201" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G201" s="12"/>
       <c r="H201" s="10"/>
       <c r="I201" s="12"/>
@@ -2763,7 +2732,7 @@
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
     </row>
-    <row r="202">
+    <row r="202" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G202" s="12"/>
       <c r="H202" s="10"/>
       <c r="I202" s="12"/>
@@ -2774,7 +2743,7 @@
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
     </row>
-    <row r="203">
+    <row r="203" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G203" s="12"/>
       <c r="H203" s="10"/>
       <c r="I203" s="12"/>
@@ -2785,7 +2754,7 @@
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
     </row>
-    <row r="204">
+    <row r="204" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G204" s="12"/>
       <c r="H204" s="10"/>
       <c r="I204" s="12"/>
@@ -2796,7 +2765,7 @@
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
     </row>
-    <row r="205">
+    <row r="205" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G205" s="12"/>
       <c r="H205" s="10"/>
       <c r="I205" s="12"/>
@@ -2807,7 +2776,7 @@
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
     </row>
-    <row r="206">
+    <row r="206" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G206" s="12"/>
       <c r="H206" s="10"/>
       <c r="I206" s="12"/>
@@ -2818,7 +2787,7 @@
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
     </row>
-    <row r="207">
+    <row r="207" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G207" s="12"/>
       <c r="H207" s="10"/>
       <c r="I207" s="12"/>
@@ -2829,7 +2798,7 @@
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
     </row>
-    <row r="208">
+    <row r="208" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G208" s="12"/>
       <c r="H208" s="10"/>
       <c r="I208" s="12"/>
@@ -2840,7 +2809,7 @@
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
     </row>
-    <row r="209">
+    <row r="209" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G209" s="12"/>
       <c r="H209" s="10"/>
       <c r="I209" s="12"/>
@@ -2851,7 +2820,7 @@
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
     </row>
-    <row r="210">
+    <row r="210" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G210" s="12"/>
       <c r="H210" s="10"/>
       <c r="I210" s="12"/>
@@ -2862,7 +2831,7 @@
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
     </row>
-    <row r="211">
+    <row r="211" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G211" s="12"/>
       <c r="H211" s="10"/>
       <c r="I211" s="12"/>
@@ -2873,7 +2842,7 @@
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
     </row>
-    <row r="212">
+    <row r="212" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G212" s="12"/>
       <c r="H212" s="10"/>
       <c r="I212" s="12"/>
@@ -2884,7 +2853,7 @@
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
     </row>
-    <row r="213">
+    <row r="213" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G213" s="12"/>
       <c r="H213" s="10"/>
       <c r="I213" s="12"/>
@@ -2895,7 +2864,7 @@
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
     </row>
-    <row r="214">
+    <row r="214" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G214" s="12"/>
       <c r="H214" s="10"/>
       <c r="I214" s="12"/>
@@ -2906,7 +2875,7 @@
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
     </row>
-    <row r="215">
+    <row r="215" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G215" s="12"/>
       <c r="H215" s="10"/>
       <c r="I215" s="12"/>
@@ -2917,7 +2886,7 @@
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
     </row>
-    <row r="216">
+    <row r="216" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G216" s="12"/>
       <c r="H216" s="10"/>
       <c r="I216" s="12"/>
@@ -2928,7 +2897,7 @@
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
     </row>
-    <row r="217">
+    <row r="217" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G217" s="12"/>
       <c r="H217" s="10"/>
       <c r="I217" s="12"/>
@@ -2939,7 +2908,7 @@
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
     </row>
-    <row r="218">
+    <row r="218" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G218" s="12"/>
       <c r="H218" s="10"/>
       <c r="I218" s="12"/>
@@ -2950,7 +2919,7 @@
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
     </row>
-    <row r="219">
+    <row r="219" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G219" s="12"/>
       <c r="H219" s="10"/>
       <c r="I219" s="12"/>
@@ -2961,7 +2930,7 @@
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
     </row>
-    <row r="220">
+    <row r="220" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G220" s="12"/>
       <c r="H220" s="10"/>
       <c r="I220" s="12"/>
@@ -2972,7 +2941,7 @@
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
     </row>
-    <row r="221">
+    <row r="221" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G221" s="12"/>
       <c r="H221" s="10"/>
       <c r="I221" s="12"/>
@@ -2983,7 +2952,7 @@
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
     </row>
-    <row r="222">
+    <row r="222" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G222" s="12"/>
       <c r="H222" s="10"/>
       <c r="I222" s="12"/>
@@ -2994,7 +2963,7 @@
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
     </row>
-    <row r="223">
+    <row r="223" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G223" s="12"/>
       <c r="H223" s="10"/>
       <c r="I223" s="12"/>
@@ -3005,7 +2974,7 @@
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
     </row>
-    <row r="224">
+    <row r="224" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G224" s="12"/>
       <c r="H224" s="10"/>
       <c r="I224" s="12"/>
@@ -3016,7 +2985,7 @@
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
     </row>
-    <row r="225">
+    <row r="225" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G225" s="12"/>
       <c r="H225" s="10"/>
       <c r="I225" s="12"/>
@@ -3027,7 +2996,7 @@
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
     </row>
-    <row r="226">
+    <row r="226" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G226" s="12"/>
       <c r="H226" s="10"/>
       <c r="I226" s="12"/>
@@ -3038,7 +3007,7 @@
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
     </row>
-    <row r="227">
+    <row r="227" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G227" s="12"/>
       <c r="H227" s="10"/>
       <c r="I227" s="12"/>
@@ -3049,7 +3018,7 @@
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
     </row>
-    <row r="228">
+    <row r="228" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G228" s="12"/>
       <c r="H228" s="10"/>
       <c r="I228" s="12"/>
@@ -3060,7 +3029,7 @@
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
     </row>
-    <row r="229">
+    <row r="229" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G229" s="12"/>
       <c r="H229" s="10"/>
       <c r="I229" s="12"/>
@@ -3071,7 +3040,7 @@
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
     </row>
-    <row r="230">
+    <row r="230" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G230" s="12"/>
       <c r="H230" s="10"/>
       <c r="I230" s="12"/>
@@ -3082,7 +3051,7 @@
       <c r="O230" s="10"/>
       <c r="P230" s="10"/>
     </row>
-    <row r="231">
+    <row r="231" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G231" s="12"/>
       <c r="H231" s="10"/>
       <c r="I231" s="12"/>
@@ -3093,7 +3062,7 @@
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
     </row>
-    <row r="232">
+    <row r="232" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G232" s="12"/>
       <c r="H232" s="10"/>
       <c r="I232" s="12"/>
@@ -3104,7 +3073,7 @@
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
     </row>
-    <row r="233">
+    <row r="233" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G233" s="12"/>
       <c r="H233" s="10"/>
       <c r="I233" s="12"/>
@@ -3115,7 +3084,7 @@
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
     </row>
-    <row r="234">
+    <row r="234" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G234" s="12"/>
       <c r="H234" s="10"/>
       <c r="I234" s="12"/>
@@ -3126,7 +3095,7 @@
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
     </row>
-    <row r="235">
+    <row r="235" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G235" s="12"/>
       <c r="H235" s="10"/>
       <c r="I235" s="12"/>
@@ -3137,7 +3106,7 @@
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
     </row>
-    <row r="236">
+    <row r="236" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G236" s="12"/>
       <c r="H236" s="10"/>
       <c r="I236" s="12"/>
@@ -3148,7 +3117,7 @@
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
     </row>
-    <row r="237">
+    <row r="237" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G237" s="12"/>
       <c r="H237" s="10"/>
       <c r="I237" s="12"/>
@@ -3159,7 +3128,7 @@
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
     </row>
-    <row r="238">
+    <row r="238" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G238" s="12"/>
       <c r="H238" s="10"/>
       <c r="I238" s="12"/>
@@ -3170,7 +3139,7 @@
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
     </row>
-    <row r="239">
+    <row r="239" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G239" s="12"/>
       <c r="H239" s="10"/>
       <c r="I239" s="12"/>
@@ -3181,7 +3150,7 @@
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
     </row>
-    <row r="240">
+    <row r="240" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G240" s="12"/>
       <c r="H240" s="10"/>
       <c r="I240" s="12"/>
@@ -3192,7 +3161,7 @@
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
     </row>
-    <row r="241">
+    <row r="241" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G241" s="12"/>
       <c r="H241" s="10"/>
       <c r="I241" s="12"/>
@@ -3203,7 +3172,7 @@
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
     </row>
-    <row r="242">
+    <row r="242" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G242" s="12"/>
       <c r="H242" s="10"/>
       <c r="I242" s="12"/>
@@ -3214,7 +3183,7 @@
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
     </row>
-    <row r="243">
+    <row r="243" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G243" s="12"/>
       <c r="H243" s="10"/>
       <c r="I243" s="12"/>
@@ -3225,7 +3194,7 @@
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
     </row>
-    <row r="244">
+    <row r="244" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G244" s="12"/>
       <c r="H244" s="10"/>
       <c r="I244" s="12"/>
@@ -3236,7 +3205,7 @@
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
     </row>
-    <row r="245">
+    <row r="245" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G245" s="12"/>
       <c r="H245" s="10"/>
       <c r="I245" s="12"/>
@@ -3247,7 +3216,7 @@
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
     </row>
-    <row r="246">
+    <row r="246" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G246" s="12"/>
       <c r="H246" s="10"/>
       <c r="I246" s="12"/>
@@ -3258,7 +3227,7 @@
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
     </row>
-    <row r="247">
+    <row r="247" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G247" s="12"/>
       <c r="H247" s="10"/>
       <c r="I247" s="12"/>
@@ -3269,7 +3238,7 @@
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
     </row>
-    <row r="248">
+    <row r="248" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G248" s="12"/>
       <c r="H248" s="10"/>
       <c r="I248" s="12"/>
@@ -3280,7 +3249,7 @@
       <c r="O248" s="10"/>
       <c r="P248" s="10"/>
     </row>
-    <row r="249">
+    <row r="249" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G249" s="12"/>
       <c r="H249" s="10"/>
       <c r="I249" s="12"/>
@@ -3291,7 +3260,7 @@
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
     </row>
-    <row r="250">
+    <row r="250" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G250" s="12"/>
       <c r="H250" s="10"/>
       <c r="I250" s="12"/>
@@ -3302,7 +3271,7 @@
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
     </row>
-    <row r="251">
+    <row r="251" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G251" s="12"/>
       <c r="H251" s="10"/>
       <c r="I251" s="12"/>
@@ -3313,7 +3282,7 @@
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
     </row>
-    <row r="252">
+    <row r="252" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G252" s="12"/>
       <c r="H252" s="10"/>
       <c r="I252" s="12"/>
@@ -3324,7 +3293,7 @@
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
     </row>
-    <row r="253">
+    <row r="253" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G253" s="12"/>
       <c r="H253" s="10"/>
       <c r="I253" s="12"/>
@@ -3335,7 +3304,7 @@
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
     </row>
-    <row r="254">
+    <row r="254" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G254" s="12"/>
       <c r="H254" s="10"/>
       <c r="I254" s="12"/>
@@ -3346,7 +3315,7 @@
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
     </row>
-    <row r="255">
+    <row r="255" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G255" s="12"/>
       <c r="H255" s="10"/>
       <c r="I255" s="12"/>
@@ -3357,7 +3326,7 @@
       <c r="O255" s="10"/>
       <c r="P255" s="10"/>
     </row>
-    <row r="256">
+    <row r="256" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G256" s="12"/>
       <c r="H256" s="10"/>
       <c r="I256" s="12"/>
@@ -3368,7 +3337,7 @@
       <c r="O256" s="10"/>
       <c r="P256" s="10"/>
     </row>
-    <row r="257">
+    <row r="257" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G257" s="12"/>
       <c r="H257" s="10"/>
       <c r="I257" s="12"/>
@@ -3379,7 +3348,7 @@
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
     </row>
-    <row r="258">
+    <row r="258" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G258" s="12"/>
       <c r="H258" s="10"/>
       <c r="I258" s="12"/>
@@ -3390,7 +3359,7 @@
       <c r="O258" s="10"/>
       <c r="P258" s="10"/>
     </row>
-    <row r="259">
+    <row r="259" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G259" s="12"/>
       <c r="H259" s="10"/>
       <c r="I259" s="12"/>
@@ -3401,7 +3370,7 @@
       <c r="O259" s="10"/>
       <c r="P259" s="10"/>
     </row>
-    <row r="260">
+    <row r="260" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G260" s="12"/>
       <c r="H260" s="10"/>
       <c r="I260" s="12"/>
@@ -3412,7 +3381,7 @@
       <c r="O260" s="10"/>
       <c r="P260" s="10"/>
     </row>
-    <row r="261">
+    <row r="261" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G261" s="12"/>
       <c r="H261" s="10"/>
       <c r="I261" s="12"/>
@@ -3423,7 +3392,7 @@
       <c r="O261" s="10"/>
       <c r="P261" s="10"/>
     </row>
-    <row r="262">
+    <row r="262" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G262" s="12"/>
       <c r="H262" s="10"/>
       <c r="I262" s="12"/>
@@ -3434,7 +3403,7 @@
       <c r="O262" s="10"/>
       <c r="P262" s="10"/>
     </row>
-    <row r="263">
+    <row r="263" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G263" s="12"/>
       <c r="H263" s="10"/>
       <c r="I263" s="12"/>
@@ -3445,7 +3414,7 @@
       <c r="O263" s="10"/>
       <c r="P263" s="10"/>
     </row>
-    <row r="264">
+    <row r="264" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G264" s="12"/>
       <c r="H264" s="10"/>
       <c r="I264" s="12"/>
@@ -3456,7 +3425,7 @@
       <c r="O264" s="10"/>
       <c r="P264" s="10"/>
     </row>
-    <row r="265">
+    <row r="265" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G265" s="12"/>
       <c r="H265" s="10"/>
       <c r="I265" s="12"/>
@@ -3467,7 +3436,7 @@
       <c r="O265" s="10"/>
       <c r="P265" s="10"/>
     </row>
-    <row r="266">
+    <row r="266" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G266" s="12"/>
       <c r="H266" s="10"/>
       <c r="I266" s="12"/>
@@ -3478,7 +3447,7 @@
       <c r="O266" s="10"/>
       <c r="P266" s="10"/>
     </row>
-    <row r="267">
+    <row r="267" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G267" s="12"/>
       <c r="H267" s="10"/>
       <c r="I267" s="12"/>
@@ -3489,7 +3458,7 @@
       <c r="O267" s="10"/>
       <c r="P267" s="10"/>
     </row>
-    <row r="268">
+    <row r="268" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G268" s="12"/>
       <c r="H268" s="10"/>
       <c r="I268" s="12"/>
@@ -3500,7 +3469,7 @@
       <c r="O268" s="10"/>
       <c r="P268" s="10"/>
     </row>
-    <row r="269">
+    <row r="269" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G269" s="12"/>
       <c r="H269" s="10"/>
       <c r="I269" s="12"/>
@@ -3511,7 +3480,7 @@
       <c r="O269" s="10"/>
       <c r="P269" s="10"/>
     </row>
-    <row r="270">
+    <row r="270" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G270" s="12"/>
       <c r="H270" s="10"/>
       <c r="I270" s="12"/>
@@ -3522,7 +3491,7 @@
       <c r="O270" s="10"/>
       <c r="P270" s="10"/>
     </row>
-    <row r="271">
+    <row r="271" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G271" s="12"/>
       <c r="H271" s="10"/>
       <c r="I271" s="12"/>
@@ -3533,7 +3502,7 @@
       <c r="O271" s="10"/>
       <c r="P271" s="10"/>
     </row>
-    <row r="272">
+    <row r="272" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G272" s="12"/>
       <c r="H272" s="10"/>
       <c r="I272" s="12"/>
@@ -3544,7 +3513,7 @@
       <c r="O272" s="10"/>
       <c r="P272" s="10"/>
     </row>
-    <row r="273">
+    <row r="273" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G273" s="12"/>
       <c r="H273" s="10"/>
       <c r="I273" s="12"/>
@@ -3555,7 +3524,7 @@
       <c r="O273" s="10"/>
       <c r="P273" s="10"/>
     </row>
-    <row r="274">
+    <row r="274" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G274" s="12"/>
       <c r="H274" s="10"/>
       <c r="I274" s="12"/>
@@ -3566,7 +3535,7 @@
       <c r="O274" s="10"/>
       <c r="P274" s="10"/>
     </row>
-    <row r="275">
+    <row r="275" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G275" s="12"/>
       <c r="H275" s="10"/>
       <c r="I275" s="12"/>
@@ -3577,7 +3546,7 @@
       <c r="O275" s="10"/>
       <c r="P275" s="10"/>
     </row>
-    <row r="276">
+    <row r="276" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G276" s="12"/>
       <c r="H276" s="10"/>
       <c r="I276" s="12"/>
@@ -3588,7 +3557,7 @@
       <c r="O276" s="10"/>
       <c r="P276" s="10"/>
     </row>
-    <row r="277">
+    <row r="277" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G277" s="12"/>
       <c r="H277" s="10"/>
       <c r="I277" s="12"/>
@@ -3599,7 +3568,7 @@
       <c r="O277" s="10"/>
       <c r="P277" s="10"/>
     </row>
-    <row r="278">
+    <row r="278" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G278" s="12"/>
       <c r="H278" s="10"/>
       <c r="I278" s="12"/>
@@ -3610,7 +3579,7 @@
       <c r="O278" s="10"/>
       <c r="P278" s="10"/>
     </row>
-    <row r="279">
+    <row r="279" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G279" s="12"/>
       <c r="H279" s="10"/>
       <c r="I279" s="12"/>
@@ -3621,7 +3590,7 @@
       <c r="O279" s="10"/>
       <c r="P279" s="10"/>
     </row>
-    <row r="280">
+    <row r="280" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G280" s="12"/>
       <c r="H280" s="10"/>
       <c r="I280" s="12"/>
@@ -3632,7 +3601,7 @@
       <c r="O280" s="10"/>
       <c r="P280" s="10"/>
     </row>
-    <row r="281">
+    <row r="281" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G281" s="12"/>
       <c r="H281" s="10"/>
       <c r="I281" s="12"/>
@@ -3643,7 +3612,7 @@
       <c r="O281" s="10"/>
       <c r="P281" s="10"/>
     </row>
-    <row r="282">
+    <row r="282" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G282" s="12"/>
       <c r="H282" s="10"/>
       <c r="I282" s="12"/>
@@ -3654,7 +3623,7 @@
       <c r="O282" s="10"/>
       <c r="P282" s="10"/>
     </row>
-    <row r="283">
+    <row r="283" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G283" s="12"/>
       <c r="H283" s="10"/>
       <c r="I283" s="12"/>
@@ -3665,7 +3634,7 @@
       <c r="O283" s="10"/>
       <c r="P283" s="10"/>
     </row>
-    <row r="284">
+    <row r="284" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G284" s="12"/>
       <c r="H284" s="10"/>
       <c r="I284" s="12"/>
@@ -3676,7 +3645,7 @@
       <c r="O284" s="10"/>
       <c r="P284" s="10"/>
     </row>
-    <row r="285">
+    <row r="285" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G285" s="12"/>
       <c r="H285" s="10"/>
       <c r="I285" s="12"/>
@@ -3687,7 +3656,7 @@
       <c r="O285" s="10"/>
       <c r="P285" s="10"/>
     </row>
-    <row r="286">
+    <row r="286" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G286" s="12"/>
       <c r="H286" s="10"/>
       <c r="I286" s="12"/>
@@ -3698,7 +3667,7 @@
       <c r="O286" s="10"/>
       <c r="P286" s="10"/>
     </row>
-    <row r="287">
+    <row r="287" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G287" s="12"/>
       <c r="H287" s="10"/>
       <c r="I287" s="12"/>
@@ -3709,7 +3678,7 @@
       <c r="O287" s="10"/>
       <c r="P287" s="10"/>
     </row>
-    <row r="288">
+    <row r="288" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G288" s="12"/>
       <c r="H288" s="10"/>
       <c r="I288" s="12"/>
@@ -3720,7 +3689,7 @@
       <c r="O288" s="10"/>
       <c r="P288" s="10"/>
     </row>
-    <row r="289">
+    <row r="289" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G289" s="12"/>
       <c r="H289" s="10"/>
       <c r="I289" s="12"/>
@@ -3731,7 +3700,7 @@
       <c r="O289" s="10"/>
       <c r="P289" s="10"/>
     </row>
-    <row r="290">
+    <row r="290" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G290" s="12"/>
       <c r="H290" s="10"/>
       <c r="I290" s="12"/>
@@ -3742,7 +3711,7 @@
       <c r="O290" s="10"/>
       <c r="P290" s="10"/>
     </row>
-    <row r="291">
+    <row r="291" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G291" s="12"/>
       <c r="H291" s="10"/>
       <c r="I291" s="12"/>
@@ -3753,7 +3722,7 @@
       <c r="O291" s="10"/>
       <c r="P291" s="10"/>
     </row>
-    <row r="292">
+    <row r="292" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G292" s="12"/>
       <c r="H292" s="10"/>
       <c r="I292" s="12"/>
@@ -3764,7 +3733,7 @@
       <c r="O292" s="10"/>
       <c r="P292" s="10"/>
     </row>
-    <row r="293">
+    <row r="293" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G293" s="12"/>
       <c r="H293" s="10"/>
       <c r="I293" s="12"/>
@@ -3775,7 +3744,7 @@
       <c r="O293" s="10"/>
       <c r="P293" s="10"/>
     </row>
-    <row r="294">
+    <row r="294" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G294" s="12"/>
       <c r="H294" s="10"/>
       <c r="I294" s="12"/>
@@ -3786,7 +3755,7 @@
       <c r="O294" s="10"/>
       <c r="P294" s="10"/>
     </row>
-    <row r="295">
+    <row r="295" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G295" s="12"/>
       <c r="H295" s="10"/>
       <c r="I295" s="12"/>
@@ -3797,7 +3766,7 @@
       <c r="O295" s="10"/>
       <c r="P295" s="10"/>
     </row>
-    <row r="296">
+    <row r="296" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G296" s="12"/>
       <c r="H296" s="10"/>
       <c r="I296" s="12"/>
@@ -3808,7 +3777,7 @@
       <c r="O296" s="10"/>
       <c r="P296" s="10"/>
     </row>
-    <row r="297">
+    <row r="297" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G297" s="12"/>
       <c r="H297" s="10"/>
       <c r="I297" s="12"/>
@@ -3819,7 +3788,7 @@
       <c r="O297" s="10"/>
       <c r="P297" s="10"/>
     </row>
-    <row r="298">
+    <row r="298" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G298" s="12"/>
       <c r="H298" s="10"/>
       <c r="I298" s="12"/>
@@ -3830,7 +3799,7 @@
       <c r="O298" s="10"/>
       <c r="P298" s="10"/>
     </row>
-    <row r="299">
+    <row r="299" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G299" s="12"/>
       <c r="H299" s="10"/>
       <c r="I299" s="12"/>
@@ -3841,7 +3810,7 @@
       <c r="O299" s="10"/>
       <c r="P299" s="10"/>
     </row>
-    <row r="300">
+    <row r="300" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G300" s="12"/>
       <c r="H300" s="10"/>
       <c r="I300" s="12"/>
@@ -3852,7 +3821,7 @@
       <c r="O300" s="10"/>
       <c r="P300" s="10"/>
     </row>
-    <row r="301">
+    <row r="301" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G301" s="12"/>
       <c r="H301" s="10"/>
       <c r="I301" s="12"/>
@@ -3863,7 +3832,7 @@
       <c r="O301" s="10"/>
       <c r="P301" s="10"/>
     </row>
-    <row r="302">
+    <row r="302" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G302" s="12"/>
       <c r="H302" s="10"/>
       <c r="I302" s="12"/>
@@ -3874,7 +3843,7 @@
       <c r="O302" s="10"/>
       <c r="P302" s="10"/>
     </row>
-    <row r="303">
+    <row r="303" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G303" s="12"/>
       <c r="H303" s="10"/>
       <c r="I303" s="12"/>
@@ -3885,7 +3854,7 @@
       <c r="O303" s="10"/>
       <c r="P303" s="10"/>
     </row>
-    <row r="304">
+    <row r="304" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G304" s="12"/>
       <c r="H304" s="10"/>
       <c r="I304" s="12"/>
@@ -3896,7 +3865,7 @@
       <c r="O304" s="10"/>
       <c r="P304" s="10"/>
     </row>
-    <row r="305">
+    <row r="305" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G305" s="12"/>
       <c r="H305" s="10"/>
       <c r="I305" s="12"/>
@@ -3907,7 +3876,7 @@
       <c r="O305" s="10"/>
       <c r="P305" s="10"/>
     </row>
-    <row r="306">
+    <row r="306" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G306" s="12"/>
       <c r="H306" s="10"/>
       <c r="I306" s="12"/>
@@ -3918,7 +3887,7 @@
       <c r="O306" s="10"/>
       <c r="P306" s="10"/>
     </row>
-    <row r="307">
+    <row r="307" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G307" s="12"/>
       <c r="H307" s="10"/>
       <c r="I307" s="12"/>
@@ -3929,7 +3898,7 @@
       <c r="O307" s="10"/>
       <c r="P307" s="10"/>
     </row>
-    <row r="308">
+    <row r="308" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G308" s="12"/>
       <c r="H308" s="10"/>
       <c r="I308" s="12"/>
@@ -3940,7 +3909,7 @@
       <c r="O308" s="10"/>
       <c r="P308" s="10"/>
     </row>
-    <row r="309">
+    <row r="309" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G309" s="12"/>
       <c r="H309" s="10"/>
       <c r="I309" s="12"/>
@@ -3951,7 +3920,7 @@
       <c r="O309" s="10"/>
       <c r="P309" s="10"/>
     </row>
-    <row r="310">
+    <row r="310" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G310" s="12"/>
       <c r="H310" s="10"/>
       <c r="I310" s="12"/>
@@ -3962,7 +3931,7 @@
       <c r="O310" s="10"/>
       <c r="P310" s="10"/>
     </row>
-    <row r="311">
+    <row r="311" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G311" s="12"/>
       <c r="H311" s="10"/>
       <c r="I311" s="12"/>
@@ -3973,7 +3942,7 @@
       <c r="O311" s="10"/>
       <c r="P311" s="10"/>
     </row>
-    <row r="312">
+    <row r="312" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G312" s="12"/>
       <c r="H312" s="10"/>
       <c r="I312" s="12"/>
@@ -3984,7 +3953,7 @@
       <c r="O312" s="10"/>
       <c r="P312" s="10"/>
     </row>
-    <row r="313">
+    <row r="313" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G313" s="12"/>
       <c r="H313" s="10"/>
       <c r="I313" s="12"/>
@@ -3995,7 +3964,7 @@
       <c r="O313" s="10"/>
       <c r="P313" s="10"/>
     </row>
-    <row r="314">
+    <row r="314" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G314" s="12"/>
       <c r="H314" s="10"/>
       <c r="I314" s="12"/>
@@ -4006,7 +3975,7 @@
       <c r="O314" s="10"/>
       <c r="P314" s="10"/>
     </row>
-    <row r="315">
+    <row r="315" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G315" s="12"/>
       <c r="H315" s="10"/>
       <c r="I315" s="12"/>
@@ -4017,7 +3986,7 @@
       <c r="O315" s="10"/>
       <c r="P315" s="10"/>
     </row>
-    <row r="316">
+    <row r="316" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G316" s="12"/>
       <c r="H316" s="10"/>
       <c r="I316" s="12"/>
@@ -4028,7 +3997,7 @@
       <c r="O316" s="10"/>
       <c r="P316" s="10"/>
     </row>
-    <row r="317">
+    <row r="317" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G317" s="12"/>
       <c r="H317" s="10"/>
       <c r="I317" s="12"/>
@@ -4039,7 +4008,7 @@
       <c r="O317" s="10"/>
       <c r="P317" s="10"/>
     </row>
-    <row r="318">
+    <row r="318" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G318" s="12"/>
       <c r="H318" s="10"/>
       <c r="I318" s="12"/>
@@ -4050,7 +4019,7 @@
       <c r="O318" s="10"/>
       <c r="P318" s="10"/>
     </row>
-    <row r="319">
+    <row r="319" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G319" s="12"/>
       <c r="H319" s="10"/>
       <c r="I319" s="12"/>
@@ -4061,7 +4030,7 @@
       <c r="O319" s="10"/>
       <c r="P319" s="10"/>
     </row>
-    <row r="320">
+    <row r="320" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G320" s="12"/>
       <c r="H320" s="10"/>
       <c r="I320" s="12"/>
@@ -4072,7 +4041,7 @@
       <c r="O320" s="10"/>
       <c r="P320" s="10"/>
     </row>
-    <row r="321">
+    <row r="321" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G321" s="12"/>
       <c r="H321" s="10"/>
       <c r="I321" s="12"/>
@@ -4083,7 +4052,7 @@
       <c r="O321" s="10"/>
       <c r="P321" s="10"/>
     </row>
-    <row r="322">
+    <row r="322" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G322" s="12"/>
       <c r="H322" s="10"/>
       <c r="I322" s="12"/>
@@ -4094,7 +4063,7 @@
       <c r="O322" s="10"/>
       <c r="P322" s="10"/>
     </row>
-    <row r="323">
+    <row r="323" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G323" s="12"/>
       <c r="H323" s="10"/>
       <c r="I323" s="12"/>
@@ -4105,7 +4074,7 @@
       <c r="O323" s="10"/>
       <c r="P323" s="10"/>
     </row>
-    <row r="324">
+    <row r="324" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G324" s="12"/>
       <c r="H324" s="10"/>
       <c r="I324" s="12"/>
@@ -4116,7 +4085,7 @@
       <c r="O324" s="10"/>
       <c r="P324" s="10"/>
     </row>
-    <row r="325">
+    <row r="325" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G325" s="12"/>
       <c r="H325" s="10"/>
       <c r="I325" s="12"/>
@@ -4127,7 +4096,7 @@
       <c r="O325" s="10"/>
       <c r="P325" s="10"/>
     </row>
-    <row r="326">
+    <row r="326" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G326" s="12"/>
       <c r="H326" s="10"/>
       <c r="I326" s="12"/>
@@ -4138,7 +4107,7 @@
       <c r="O326" s="10"/>
       <c r="P326" s="10"/>
     </row>
-    <row r="327">
+    <row r="327" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G327" s="12"/>
       <c r="H327" s="10"/>
       <c r="I327" s="12"/>
@@ -4149,7 +4118,7 @@
       <c r="O327" s="10"/>
       <c r="P327" s="10"/>
     </row>
-    <row r="328">
+    <row r="328" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G328" s="12"/>
       <c r="H328" s="10"/>
       <c r="I328" s="12"/>
@@ -4160,7 +4129,7 @@
       <c r="O328" s="10"/>
       <c r="P328" s="10"/>
     </row>
-    <row r="329">
+    <row r="329" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G329" s="12"/>
       <c r="H329" s="10"/>
       <c r="I329" s="12"/>
@@ -4171,7 +4140,7 @@
       <c r="O329" s="10"/>
       <c r="P329" s="10"/>
     </row>
-    <row r="330">
+    <row r="330" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G330" s="12"/>
       <c r="H330" s="10"/>
       <c r="I330" s="12"/>
@@ -4182,7 +4151,7 @@
       <c r="O330" s="10"/>
       <c r="P330" s="10"/>
     </row>
-    <row r="331">
+    <row r="331" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G331" s="12"/>
       <c r="H331" s="10"/>
       <c r="I331" s="12"/>
@@ -4193,7 +4162,7 @@
       <c r="O331" s="10"/>
       <c r="P331" s="10"/>
     </row>
-    <row r="332">
+    <row r="332" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G332" s="12"/>
       <c r="H332" s="10"/>
       <c r="I332" s="12"/>
@@ -4204,7 +4173,7 @@
       <c r="O332" s="10"/>
       <c r="P332" s="10"/>
     </row>
-    <row r="333">
+    <row r="333" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G333" s="12"/>
       <c r="H333" s="10"/>
       <c r="I333" s="12"/>
@@ -4215,7 +4184,7 @@
       <c r="O333" s="10"/>
       <c r="P333" s="10"/>
     </row>
-    <row r="334">
+    <row r="334" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G334" s="12"/>
       <c r="H334" s="10"/>
       <c r="I334" s="12"/>
@@ -4226,7 +4195,7 @@
       <c r="O334" s="10"/>
       <c r="P334" s="10"/>
     </row>
-    <row r="335">
+    <row r="335" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G335" s="12"/>
       <c r="H335" s="10"/>
       <c r="I335" s="12"/>
@@ -4237,7 +4206,7 @@
       <c r="O335" s="10"/>
       <c r="P335" s="10"/>
     </row>
-    <row r="336">
+    <row r="336" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G336" s="12"/>
       <c r="H336" s="10"/>
       <c r="I336" s="12"/>
@@ -4248,7 +4217,7 @@
       <c r="O336" s="10"/>
       <c r="P336" s="10"/>
     </row>
-    <row r="337">
+    <row r="337" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G337" s="12"/>
       <c r="H337" s="10"/>
       <c r="I337" s="12"/>
@@ -4259,7 +4228,7 @@
       <c r="O337" s="10"/>
       <c r="P337" s="10"/>
     </row>
-    <row r="338">
+    <row r="338" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G338" s="12"/>
       <c r="H338" s="10"/>
       <c r="I338" s="12"/>
@@ -4270,7 +4239,7 @@
       <c r="O338" s="10"/>
       <c r="P338" s="10"/>
     </row>
-    <row r="339">
+    <row r="339" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G339" s="12"/>
       <c r="H339" s="10"/>
       <c r="I339" s="12"/>
@@ -4281,7 +4250,7 @@
       <c r="O339" s="10"/>
       <c r="P339" s="10"/>
     </row>
-    <row r="340">
+    <row r="340" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G340" s="12"/>
       <c r="H340" s="10"/>
       <c r="I340" s="12"/>
@@ -4292,7 +4261,7 @@
       <c r="O340" s="10"/>
       <c r="P340" s="10"/>
     </row>
-    <row r="341">
+    <row r="341" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G341" s="12"/>
       <c r="H341" s="10"/>
       <c r="I341" s="12"/>
@@ -4303,7 +4272,7 @@
       <c r="O341" s="10"/>
       <c r="P341" s="10"/>
     </row>
-    <row r="342">
+    <row r="342" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G342" s="12"/>
       <c r="H342" s="10"/>
       <c r="I342" s="12"/>
@@ -4314,7 +4283,7 @@
       <c r="O342" s="10"/>
       <c r="P342" s="10"/>
     </row>
-    <row r="343">
+    <row r="343" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G343" s="12"/>
       <c r="H343" s="10"/>
       <c r="I343" s="12"/>
@@ -4325,7 +4294,7 @@
       <c r="O343" s="10"/>
       <c r="P343" s="10"/>
     </row>
-    <row r="344">
+    <row r="344" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G344" s="12"/>
       <c r="H344" s="10"/>
       <c r="I344" s="12"/>
@@ -4336,7 +4305,7 @@
       <c r="O344" s="10"/>
       <c r="P344" s="10"/>
     </row>
-    <row r="345">
+    <row r="345" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G345" s="12"/>
       <c r="H345" s="10"/>
       <c r="I345" s="12"/>
@@ -4347,7 +4316,7 @@
       <c r="O345" s="10"/>
       <c r="P345" s="10"/>
     </row>
-    <row r="346">
+    <row r="346" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G346" s="12"/>
       <c r="H346" s="10"/>
       <c r="I346" s="12"/>
@@ -4358,7 +4327,7 @@
       <c r="O346" s="10"/>
       <c r="P346" s="10"/>
     </row>
-    <row r="347">
+    <row r="347" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G347" s="12"/>
       <c r="H347" s="10"/>
       <c r="I347" s="12"/>
@@ -4369,7 +4338,7 @@
       <c r="O347" s="10"/>
       <c r="P347" s="10"/>
     </row>
-    <row r="348">
+    <row r="348" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G348" s="12"/>
       <c r="H348" s="10"/>
       <c r="I348" s="12"/>
@@ -4380,7 +4349,7 @@
       <c r="O348" s="10"/>
       <c r="P348" s="10"/>
     </row>
-    <row r="349">
+    <row r="349" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G349" s="12"/>
       <c r="H349" s="10"/>
       <c r="I349" s="12"/>
@@ -4391,7 +4360,7 @@
       <c r="O349" s="10"/>
       <c r="P349" s="10"/>
     </row>
-    <row r="350">
+    <row r="350" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G350" s="12"/>
       <c r="H350" s="10"/>
       <c r="I350" s="12"/>
@@ -4402,7 +4371,7 @@
       <c r="O350" s="10"/>
       <c r="P350" s="10"/>
     </row>
-    <row r="351">
+    <row r="351" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G351" s="12"/>
       <c r="H351" s="10"/>
       <c r="I351" s="12"/>
@@ -4413,7 +4382,7 @@
       <c r="O351" s="10"/>
       <c r="P351" s="10"/>
     </row>
-    <row r="352">
+    <row r="352" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G352" s="12"/>
       <c r="H352" s="10"/>
       <c r="I352" s="12"/>
@@ -4424,7 +4393,7 @@
       <c r="O352" s="10"/>
       <c r="P352" s="10"/>
     </row>
-    <row r="353">
+    <row r="353" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G353" s="12"/>
       <c r="H353" s="10"/>
       <c r="I353" s="12"/>
@@ -4435,7 +4404,7 @@
       <c r="O353" s="10"/>
       <c r="P353" s="10"/>
     </row>
-    <row r="354">
+    <row r="354" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G354" s="12"/>
       <c r="H354" s="10"/>
       <c r="I354" s="12"/>
@@ -4446,7 +4415,7 @@
       <c r="O354" s="10"/>
       <c r="P354" s="10"/>
     </row>
-    <row r="355">
+    <row r="355" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G355" s="12"/>
       <c r="H355" s="10"/>
       <c r="I355" s="12"/>
@@ -4457,7 +4426,7 @@
       <c r="O355" s="10"/>
       <c r="P355" s="10"/>
     </row>
-    <row r="356">
+    <row r="356" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G356" s="12"/>
       <c r="H356" s="10"/>
       <c r="I356" s="12"/>
@@ -4468,7 +4437,7 @@
       <c r="O356" s="10"/>
       <c r="P356" s="10"/>
     </row>
-    <row r="357">
+    <row r="357" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G357" s="12"/>
       <c r="H357" s="10"/>
       <c r="I357" s="12"/>
@@ -4479,7 +4448,7 @@
       <c r="O357" s="10"/>
       <c r="P357" s="10"/>
     </row>
-    <row r="358">
+    <row r="358" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G358" s="12"/>
       <c r="H358" s="10"/>
       <c r="I358" s="12"/>
@@ -4490,7 +4459,7 @@
       <c r="O358" s="10"/>
       <c r="P358" s="10"/>
     </row>
-    <row r="359">
+    <row r="359" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G359" s="12"/>
       <c r="H359" s="10"/>
       <c r="I359" s="12"/>
@@ -4501,7 +4470,7 @@
       <c r="O359" s="10"/>
       <c r="P359" s="10"/>
     </row>
-    <row r="360">
+    <row r="360" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G360" s="12"/>
       <c r="H360" s="10"/>
       <c r="I360" s="12"/>
@@ -4512,7 +4481,7 @@
       <c r="O360" s="10"/>
       <c r="P360" s="10"/>
     </row>
-    <row r="361">
+    <row r="361" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G361" s="12"/>
       <c r="H361" s="10"/>
       <c r="I361" s="12"/>
@@ -4523,7 +4492,7 @@
       <c r="O361" s="10"/>
       <c r="P361" s="10"/>
     </row>
-    <row r="362">
+    <row r="362" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G362" s="12"/>
       <c r="H362" s="10"/>
       <c r="I362" s="12"/>
@@ -4534,7 +4503,7 @@
       <c r="O362" s="10"/>
       <c r="P362" s="10"/>
     </row>
-    <row r="363">
+    <row r="363" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G363" s="12"/>
       <c r="H363" s="10"/>
       <c r="I363" s="12"/>
@@ -4545,7 +4514,7 @@
       <c r="O363" s="10"/>
       <c r="P363" s="10"/>
     </row>
-    <row r="364">
+    <row r="364" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G364" s="12"/>
       <c r="H364" s="10"/>
       <c r="I364" s="12"/>
@@ -4556,7 +4525,7 @@
       <c r="O364" s="10"/>
       <c r="P364" s="10"/>
     </row>
-    <row r="365">
+    <row r="365" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G365" s="12"/>
       <c r="H365" s="10"/>
       <c r="I365" s="12"/>
@@ -4567,7 +4536,7 @@
       <c r="O365" s="10"/>
       <c r="P365" s="10"/>
     </row>
-    <row r="366">
+    <row r="366" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G366" s="12"/>
       <c r="H366" s="10"/>
       <c r="I366" s="12"/>
@@ -4578,7 +4547,7 @@
       <c r="O366" s="10"/>
       <c r="P366" s="10"/>
     </row>
-    <row r="367">
+    <row r="367" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G367" s="12"/>
       <c r="H367" s="10"/>
       <c r="I367" s="12"/>
@@ -4589,7 +4558,7 @@
       <c r="O367" s="10"/>
       <c r="P367" s="10"/>
     </row>
-    <row r="368">
+    <row r="368" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G368" s="12"/>
       <c r="H368" s="10"/>
       <c r="I368" s="12"/>
@@ -4600,7 +4569,7 @@
       <c r="O368" s="10"/>
       <c r="P368" s="10"/>
     </row>
-    <row r="369">
+    <row r="369" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G369" s="12"/>
       <c r="H369" s="10"/>
       <c r="I369" s="12"/>
@@ -4611,7 +4580,7 @@
       <c r="O369" s="10"/>
       <c r="P369" s="10"/>
     </row>
-    <row r="370">
+    <row r="370" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G370" s="12"/>
       <c r="H370" s="10"/>
       <c r="I370" s="12"/>
@@ -4622,7 +4591,7 @@
       <c r="O370" s="10"/>
       <c r="P370" s="10"/>
     </row>
-    <row r="371">
+    <row r="371" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G371" s="12"/>
       <c r="H371" s="10"/>
       <c r="I371" s="12"/>
@@ -4633,7 +4602,7 @@
       <c r="O371" s="10"/>
       <c r="P371" s="10"/>
     </row>
-    <row r="372">
+    <row r="372" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G372" s="12"/>
       <c r="H372" s="10"/>
       <c r="I372" s="12"/>
@@ -4644,7 +4613,7 @@
       <c r="O372" s="10"/>
       <c r="P372" s="10"/>
     </row>
-    <row r="373">
+    <row r="373" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G373" s="12"/>
       <c r="H373" s="10"/>
       <c r="I373" s="12"/>
@@ -4655,7 +4624,7 @@
       <c r="O373" s="10"/>
       <c r="P373" s="10"/>
     </row>
-    <row r="374">
+    <row r="374" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G374" s="12"/>
       <c r="H374" s="10"/>
       <c r="I374" s="12"/>
@@ -4666,7 +4635,7 @@
       <c r="O374" s="10"/>
       <c r="P374" s="10"/>
     </row>
-    <row r="375">
+    <row r="375" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G375" s="12"/>
       <c r="H375" s="10"/>
       <c r="I375" s="12"/>
@@ -4677,7 +4646,7 @@
       <c r="O375" s="10"/>
       <c r="P375" s="10"/>
     </row>
-    <row r="376">
+    <row r="376" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G376" s="12"/>
       <c r="H376" s="10"/>
       <c r="I376" s="12"/>
@@ -4688,7 +4657,7 @@
       <c r="O376" s="10"/>
       <c r="P376" s="10"/>
     </row>
-    <row r="377">
+    <row r="377" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G377" s="12"/>
       <c r="H377" s="10"/>
       <c r="I377" s="12"/>
@@ -4699,7 +4668,7 @@
       <c r="O377" s="10"/>
       <c r="P377" s="10"/>
     </row>
-    <row r="378">
+    <row r="378" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G378" s="12"/>
       <c r="H378" s="10"/>
       <c r="I378" s="12"/>
@@ -4710,7 +4679,7 @@
       <c r="O378" s="10"/>
       <c r="P378" s="10"/>
     </row>
-    <row r="379">
+    <row r="379" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G379" s="12"/>
       <c r="H379" s="10"/>
       <c r="I379" s="12"/>
@@ -4721,7 +4690,7 @@
       <c r="O379" s="10"/>
       <c r="P379" s="10"/>
     </row>
-    <row r="380">
+    <row r="380" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G380" s="12"/>
       <c r="H380" s="10"/>
       <c r="I380" s="12"/>
@@ -4732,7 +4701,7 @@
       <c r="O380" s="10"/>
       <c r="P380" s="10"/>
     </row>
-    <row r="381">
+    <row r="381" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G381" s="12"/>
       <c r="H381" s="10"/>
       <c r="I381" s="12"/>
@@ -4743,7 +4712,7 @@
       <c r="O381" s="10"/>
       <c r="P381" s="10"/>
     </row>
-    <row r="382">
+    <row r="382" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G382" s="12"/>
       <c r="H382" s="10"/>
       <c r="I382" s="12"/>
@@ -4754,7 +4723,7 @@
       <c r="O382" s="10"/>
       <c r="P382" s="10"/>
     </row>
-    <row r="383">
+    <row r="383" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G383" s="12"/>
       <c r="H383" s="10"/>
       <c r="I383" s="12"/>
@@ -4765,7 +4734,7 @@
       <c r="O383" s="10"/>
       <c r="P383" s="10"/>
     </row>
-    <row r="384">
+    <row r="384" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G384" s="12"/>
       <c r="H384" s="10"/>
       <c r="I384" s="12"/>
@@ -4776,7 +4745,7 @@
       <c r="O384" s="10"/>
       <c r="P384" s="10"/>
     </row>
-    <row r="385">
+    <row r="385" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G385" s="12"/>
       <c r="H385" s="10"/>
       <c r="I385" s="12"/>
@@ -4787,7 +4756,7 @@
       <c r="O385" s="10"/>
       <c r="P385" s="10"/>
     </row>
-    <row r="386">
+    <row r="386" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G386" s="12"/>
       <c r="H386" s="10"/>
       <c r="I386" s="12"/>
@@ -4798,7 +4767,7 @@
       <c r="O386" s="10"/>
       <c r="P386" s="10"/>
     </row>
-    <row r="387">
+    <row r="387" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G387" s="12"/>
       <c r="H387" s="10"/>
       <c r="I387" s="12"/>
@@ -4809,7 +4778,7 @@
       <c r="O387" s="10"/>
       <c r="P387" s="10"/>
     </row>
-    <row r="388">
+    <row r="388" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G388" s="12"/>
       <c r="H388" s="10"/>
       <c r="I388" s="12"/>
@@ -4820,7 +4789,7 @@
       <c r="O388" s="10"/>
       <c r="P388" s="10"/>
     </row>
-    <row r="389">
+    <row r="389" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G389" s="12"/>
       <c r="H389" s="10"/>
       <c r="I389" s="12"/>
@@ -4831,7 +4800,7 @@
       <c r="O389" s="10"/>
       <c r="P389" s="10"/>
     </row>
-    <row r="390">
+    <row r="390" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G390" s="12"/>
       <c r="H390" s="10"/>
       <c r="I390" s="12"/>
@@ -4842,7 +4811,7 @@
       <c r="O390" s="10"/>
       <c r="P390" s="10"/>
     </row>
-    <row r="391">
+    <row r="391" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G391" s="12"/>
       <c r="H391" s="10"/>
       <c r="I391" s="12"/>
@@ -4853,7 +4822,7 @@
       <c r="O391" s="10"/>
       <c r="P391" s="10"/>
     </row>
-    <row r="392">
+    <row r="392" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G392" s="12"/>
       <c r="H392" s="10"/>
       <c r="I392" s="12"/>
@@ -4864,7 +4833,7 @@
       <c r="O392" s="10"/>
       <c r="P392" s="10"/>
     </row>
-    <row r="393">
+    <row r="393" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G393" s="12"/>
       <c r="H393" s="10"/>
       <c r="I393" s="12"/>
@@ -4875,7 +4844,7 @@
       <c r="O393" s="10"/>
       <c r="P393" s="10"/>
     </row>
-    <row r="394">
+    <row r="394" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G394" s="12"/>
       <c r="H394" s="10"/>
       <c r="I394" s="12"/>
@@ -4886,7 +4855,7 @@
       <c r="O394" s="10"/>
       <c r="P394" s="10"/>
     </row>
-    <row r="395">
+    <row r="395" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G395" s="12"/>
       <c r="H395" s="10"/>
       <c r="I395" s="12"/>
@@ -4897,7 +4866,7 @@
       <c r="O395" s="10"/>
       <c r="P395" s="10"/>
     </row>
-    <row r="396">
+    <row r="396" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G396" s="12"/>
       <c r="H396" s="10"/>
       <c r="I396" s="12"/>
@@ -4908,7 +4877,7 @@
       <c r="O396" s="10"/>
       <c r="P396" s="10"/>
     </row>
-    <row r="397">
+    <row r="397" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G397" s="12"/>
       <c r="H397" s="10"/>
       <c r="I397" s="12"/>
@@ -4919,7 +4888,7 @@
       <c r="O397" s="10"/>
       <c r="P397" s="10"/>
     </row>
-    <row r="398">
+    <row r="398" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G398" s="12"/>
       <c r="H398" s="10"/>
       <c r="I398" s="12"/>
@@ -4930,7 +4899,7 @@
       <c r="O398" s="10"/>
       <c r="P398" s="10"/>
     </row>
-    <row r="399">
+    <row r="399" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G399" s="12"/>
       <c r="H399" s="10"/>
       <c r="I399" s="12"/>
@@ -4941,7 +4910,7 @@
       <c r="O399" s="10"/>
       <c r="P399" s="10"/>
     </row>
-    <row r="400">
+    <row r="400" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G400" s="12"/>
       <c r="H400" s="10"/>
       <c r="I400" s="12"/>
@@ -4952,7 +4921,7 @@
       <c r="O400" s="10"/>
       <c r="P400" s="10"/>
     </row>
-    <row r="401">
+    <row r="401" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G401" s="12"/>
       <c r="H401" s="10"/>
       <c r="I401" s="12"/>
@@ -4963,7 +4932,7 @@
       <c r="O401" s="10"/>
       <c r="P401" s="10"/>
     </row>
-    <row r="402">
+    <row r="402" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G402" s="12"/>
       <c r="H402" s="10"/>
       <c r="I402" s="12"/>
@@ -4974,7 +4943,7 @@
       <c r="O402" s="10"/>
       <c r="P402" s="10"/>
     </row>
-    <row r="403">
+    <row r="403" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G403" s="12"/>
       <c r="H403" s="10"/>
       <c r="I403" s="12"/>
@@ -4985,7 +4954,7 @@
       <c r="O403" s="10"/>
       <c r="P403" s="10"/>
     </row>
-    <row r="404">
+    <row r="404" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G404" s="12"/>
       <c r="H404" s="10"/>
       <c r="I404" s="12"/>
@@ -4996,7 +4965,7 @@
       <c r="O404" s="10"/>
       <c r="P404" s="10"/>
     </row>
-    <row r="405">
+    <row r="405" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G405" s="12"/>
       <c r="H405" s="10"/>
       <c r="I405" s="12"/>
@@ -5007,7 +4976,7 @@
       <c r="O405" s="10"/>
       <c r="P405" s="10"/>
     </row>
-    <row r="406">
+    <row r="406" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G406" s="12"/>
       <c r="H406" s="10"/>
       <c r="I406" s="12"/>
@@ -5018,7 +4987,7 @@
       <c r="O406" s="10"/>
       <c r="P406" s="10"/>
     </row>
-    <row r="407">
+    <row r="407" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G407" s="12"/>
       <c r="H407" s="10"/>
       <c r="I407" s="12"/>
@@ -5029,7 +4998,7 @@
       <c r="O407" s="10"/>
       <c r="P407" s="10"/>
     </row>
-    <row r="408">
+    <row r="408" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G408" s="12"/>
       <c r="H408" s="10"/>
       <c r="I408" s="12"/>
@@ -5040,7 +5009,7 @@
       <c r="O408" s="10"/>
       <c r="P408" s="10"/>
     </row>
-    <row r="409">
+    <row r="409" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G409" s="12"/>
       <c r="H409" s="10"/>
       <c r="I409" s="12"/>
@@ -5051,7 +5020,7 @@
       <c r="O409" s="10"/>
       <c r="P409" s="10"/>
     </row>
-    <row r="410">
+    <row r="410" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G410" s="12"/>
       <c r="H410" s="10"/>
       <c r="I410" s="12"/>
@@ -5062,7 +5031,7 @@
       <c r="O410" s="10"/>
       <c r="P410" s="10"/>
     </row>
-    <row r="411">
+    <row r="411" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G411" s="12"/>
       <c r="H411" s="10"/>
       <c r="I411" s="12"/>
@@ -5073,7 +5042,7 @@
       <c r="O411" s="10"/>
       <c r="P411" s="10"/>
     </row>
-    <row r="412">
+    <row r="412" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G412" s="12"/>
       <c r="H412" s="10"/>
       <c r="I412" s="12"/>
@@ -5084,7 +5053,7 @@
       <c r="O412" s="10"/>
       <c r="P412" s="10"/>
     </row>
-    <row r="413">
+    <row r="413" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G413" s="12"/>
       <c r="H413" s="10"/>
       <c r="I413" s="12"/>
@@ -5095,7 +5064,7 @@
       <c r="O413" s="10"/>
       <c r="P413" s="10"/>
     </row>
-    <row r="414">
+    <row r="414" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G414" s="12"/>
       <c r="H414" s="10"/>
       <c r="I414" s="12"/>
@@ -5106,7 +5075,7 @@
       <c r="O414" s="10"/>
       <c r="P414" s="10"/>
     </row>
-    <row r="415">
+    <row r="415" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G415" s="12"/>
       <c r="H415" s="10"/>
       <c r="I415" s="12"/>
@@ -5117,7 +5086,7 @@
       <c r="O415" s="10"/>
       <c r="P415" s="10"/>
     </row>
-    <row r="416">
+    <row r="416" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G416" s="12"/>
       <c r="H416" s="10"/>
       <c r="I416" s="12"/>
@@ -5128,7 +5097,7 @@
       <c r="O416" s="10"/>
       <c r="P416" s="10"/>
     </row>
-    <row r="417">
+    <row r="417" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G417" s="12"/>
       <c r="H417" s="10"/>
       <c r="I417" s="12"/>
@@ -5139,7 +5108,7 @@
       <c r="O417" s="10"/>
       <c r="P417" s="10"/>
     </row>
-    <row r="418">
+    <row r="418" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G418" s="12"/>
       <c r="H418" s="10"/>
       <c r="I418" s="12"/>
@@ -5150,7 +5119,7 @@
       <c r="O418" s="10"/>
       <c r="P418" s="10"/>
     </row>
-    <row r="419">
+    <row r="419" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G419" s="12"/>
       <c r="H419" s="10"/>
       <c r="I419" s="12"/>
@@ -5161,7 +5130,7 @@
       <c r="O419" s="10"/>
       <c r="P419" s="10"/>
     </row>
-    <row r="420">
+    <row r="420" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G420" s="12"/>
       <c r="H420" s="10"/>
       <c r="I420" s="12"/>
@@ -5172,7 +5141,7 @@
       <c r="O420" s="10"/>
       <c r="P420" s="10"/>
     </row>
-    <row r="421">
+    <row r="421" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G421" s="12"/>
       <c r="H421" s="10"/>
       <c r="I421" s="12"/>
@@ -5183,7 +5152,7 @@
       <c r="O421" s="10"/>
       <c r="P421" s="10"/>
     </row>
-    <row r="422">
+    <row r="422" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G422" s="12"/>
       <c r="H422" s="10"/>
       <c r="I422" s="12"/>
@@ -5194,7 +5163,7 @@
       <c r="O422" s="10"/>
       <c r="P422" s="10"/>
     </row>
-    <row r="423">
+    <row r="423" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G423" s="12"/>
       <c r="H423" s="10"/>
       <c r="I423" s="12"/>
@@ -5205,7 +5174,7 @@
       <c r="O423" s="10"/>
       <c r="P423" s="10"/>
     </row>
-    <row r="424">
+    <row r="424" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G424" s="12"/>
       <c r="H424" s="10"/>
       <c r="I424" s="12"/>
@@ -5216,7 +5185,7 @@
       <c r="O424" s="10"/>
       <c r="P424" s="10"/>
     </row>
-    <row r="425">
+    <row r="425" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G425" s="12"/>
       <c r="H425" s="10"/>
       <c r="I425" s="12"/>
@@ -5227,7 +5196,7 @@
       <c r="O425" s="10"/>
       <c r="P425" s="10"/>
     </row>
-    <row r="426">
+    <row r="426" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G426" s="12"/>
       <c r="H426" s="10"/>
       <c r="I426" s="12"/>
@@ -5238,7 +5207,7 @@
       <c r="O426" s="10"/>
       <c r="P426" s="10"/>
     </row>
-    <row r="427">
+    <row r="427" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G427" s="12"/>
       <c r="H427" s="10"/>
       <c r="I427" s="12"/>
@@ -5249,7 +5218,7 @@
       <c r="O427" s="10"/>
       <c r="P427" s="10"/>
     </row>
-    <row r="428">
+    <row r="428" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G428" s="12"/>
       <c r="H428" s="10"/>
       <c r="I428" s="12"/>
@@ -5260,7 +5229,7 @@
       <c r="O428" s="10"/>
       <c r="P428" s="10"/>
     </row>
-    <row r="429">
+    <row r="429" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G429" s="12"/>
       <c r="H429" s="10"/>
       <c r="I429" s="12"/>
@@ -5271,7 +5240,7 @@
       <c r="O429" s="10"/>
       <c r="P429" s="10"/>
     </row>
-    <row r="430">
+    <row r="430" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G430" s="12"/>
       <c r="H430" s="10"/>
       <c r="I430" s="12"/>
@@ -5282,7 +5251,7 @@
       <c r="O430" s="10"/>
       <c r="P430" s="10"/>
     </row>
-    <row r="431">
+    <row r="431" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G431" s="12"/>
       <c r="H431" s="10"/>
       <c r="I431" s="12"/>
@@ -5293,7 +5262,7 @@
       <c r="O431" s="10"/>
       <c r="P431" s="10"/>
     </row>
-    <row r="432">
+    <row r="432" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G432" s="12"/>
       <c r="H432" s="10"/>
       <c r="I432" s="12"/>
@@ -5304,7 +5273,7 @@
       <c r="O432" s="10"/>
       <c r="P432" s="10"/>
     </row>
-    <row r="433">
+    <row r="433" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G433" s="12"/>
       <c r="H433" s="10"/>
       <c r="I433" s="12"/>
@@ -5315,7 +5284,7 @@
       <c r="O433" s="10"/>
       <c r="P433" s="10"/>
     </row>
-    <row r="434">
+    <row r="434" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G434" s="12"/>
       <c r="H434" s="10"/>
       <c r="I434" s="12"/>
@@ -5326,7 +5295,7 @@
       <c r="O434" s="10"/>
       <c r="P434" s="10"/>
     </row>
-    <row r="435">
+    <row r="435" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G435" s="12"/>
       <c r="H435" s="10"/>
       <c r="I435" s="12"/>
@@ -5337,7 +5306,7 @@
       <c r="O435" s="10"/>
       <c r="P435" s="10"/>
     </row>
-    <row r="436">
+    <row r="436" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G436" s="12"/>
       <c r="H436" s="10"/>
       <c r="I436" s="12"/>
@@ -5348,7 +5317,7 @@
       <c r="O436" s="10"/>
       <c r="P436" s="10"/>
     </row>
-    <row r="437">
+    <row r="437" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G437" s="12"/>
       <c r="H437" s="10"/>
       <c r="I437" s="12"/>
@@ -5359,7 +5328,7 @@
       <c r="O437" s="10"/>
       <c r="P437" s="10"/>
     </row>
-    <row r="438">
+    <row r="438" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G438" s="12"/>
       <c r="H438" s="10"/>
       <c r="I438" s="12"/>
@@ -5370,7 +5339,7 @@
       <c r="O438" s="10"/>
       <c r="P438" s="10"/>
     </row>
-    <row r="439">
+    <row r="439" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G439" s="12"/>
       <c r="H439" s="10"/>
       <c r="I439" s="12"/>
@@ -5381,7 +5350,7 @@
       <c r="O439" s="10"/>
       <c r="P439" s="10"/>
     </row>
-    <row r="440">
+    <row r="440" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G440" s="12"/>
       <c r="H440" s="10"/>
       <c r="I440" s="12"/>
@@ -5392,7 +5361,7 @@
       <c r="O440" s="10"/>
       <c r="P440" s="10"/>
     </row>
-    <row r="441">
+    <row r="441" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G441" s="12"/>
       <c r="H441" s="10"/>
       <c r="I441" s="12"/>
@@ -5403,7 +5372,7 @@
       <c r="O441" s="10"/>
       <c r="P441" s="10"/>
     </row>
-    <row r="442">
+    <row r="442" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G442" s="12"/>
       <c r="H442" s="10"/>
       <c r="I442" s="12"/>
@@ -5414,7 +5383,7 @@
       <c r="O442" s="10"/>
       <c r="P442" s="10"/>
     </row>
-    <row r="443">
+    <row r="443" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G443" s="12"/>
       <c r="H443" s="10"/>
       <c r="I443" s="12"/>
@@ -5425,7 +5394,7 @@
       <c r="O443" s="10"/>
       <c r="P443" s="10"/>
     </row>
-    <row r="444">
+    <row r="444" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G444" s="12"/>
       <c r="H444" s="10"/>
       <c r="I444" s="12"/>
@@ -5436,7 +5405,7 @@
       <c r="O444" s="10"/>
       <c r="P444" s="10"/>
     </row>
-    <row r="445">
+    <row r="445" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G445" s="12"/>
       <c r="H445" s="10"/>
       <c r="I445" s="12"/>
@@ -5447,7 +5416,7 @@
       <c r="O445" s="10"/>
       <c r="P445" s="10"/>
     </row>
-    <row r="446">
+    <row r="446" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G446" s="12"/>
       <c r="H446" s="10"/>
       <c r="I446" s="12"/>
@@ -5458,7 +5427,7 @@
       <c r="O446" s="10"/>
       <c r="P446" s="10"/>
     </row>
-    <row r="447">
+    <row r="447" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G447" s="12"/>
       <c r="H447" s="10"/>
       <c r="I447" s="12"/>
@@ -5469,7 +5438,7 @@
       <c r="O447" s="10"/>
       <c r="P447" s="10"/>
     </row>
-    <row r="448">
+    <row r="448" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G448" s="12"/>
       <c r="H448" s="10"/>
       <c r="I448" s="12"/>
@@ -5480,7 +5449,7 @@
       <c r="O448" s="10"/>
       <c r="P448" s="10"/>
     </row>
-    <row r="449">
+    <row r="449" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G449" s="12"/>
       <c r="H449" s="10"/>
       <c r="I449" s="12"/>
@@ -5491,7 +5460,7 @@
       <c r="O449" s="10"/>
       <c r="P449" s="10"/>
     </row>
-    <row r="450">
+    <row r="450" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G450" s="12"/>
       <c r="H450" s="10"/>
       <c r="I450" s="12"/>
@@ -5502,7 +5471,7 @@
       <c r="O450" s="10"/>
       <c r="P450" s="10"/>
     </row>
-    <row r="451">
+    <row r="451" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G451" s="12"/>
       <c r="H451" s="10"/>
       <c r="I451" s="12"/>
@@ -5513,7 +5482,7 @@
       <c r="O451" s="10"/>
       <c r="P451" s="10"/>
     </row>
-    <row r="452">
+    <row r="452" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G452" s="12"/>
       <c r="H452" s="10"/>
       <c r="I452" s="12"/>
@@ -5524,7 +5493,7 @@
       <c r="O452" s="10"/>
       <c r="P452" s="10"/>
     </row>
-    <row r="453">
+    <row r="453" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G453" s="12"/>
       <c r="H453" s="10"/>
       <c r="I453" s="12"/>
@@ -5535,7 +5504,7 @@
       <c r="O453" s="10"/>
       <c r="P453" s="10"/>
     </row>
-    <row r="454">
+    <row r="454" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G454" s="12"/>
       <c r="H454" s="10"/>
       <c r="I454" s="12"/>
@@ -5546,7 +5515,7 @@
       <c r="O454" s="10"/>
       <c r="P454" s="10"/>
     </row>
-    <row r="455">
+    <row r="455" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G455" s="12"/>
       <c r="H455" s="10"/>
       <c r="I455" s="12"/>
@@ -5557,7 +5526,7 @@
       <c r="O455" s="10"/>
       <c r="P455" s="10"/>
     </row>
-    <row r="456">
+    <row r="456" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G456" s="12"/>
       <c r="H456" s="10"/>
       <c r="I456" s="12"/>
@@ -5568,7 +5537,7 @@
       <c r="O456" s="10"/>
       <c r="P456" s="10"/>
     </row>
-    <row r="457">
+    <row r="457" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G457" s="12"/>
       <c r="H457" s="10"/>
       <c r="I457" s="12"/>
@@ -5579,7 +5548,7 @@
       <c r="O457" s="10"/>
       <c r="P457" s="10"/>
     </row>
-    <row r="458">
+    <row r="458" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G458" s="12"/>
       <c r="H458" s="10"/>
       <c r="I458" s="12"/>
@@ -5590,7 +5559,7 @@
       <c r="O458" s="10"/>
       <c r="P458" s="10"/>
     </row>
-    <row r="459">
+    <row r="459" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G459" s="12"/>
       <c r="H459" s="10"/>
       <c r="I459" s="12"/>
@@ -5601,7 +5570,7 @@
       <c r="O459" s="10"/>
       <c r="P459" s="10"/>
     </row>
-    <row r="460">
+    <row r="460" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G460" s="12"/>
       <c r="H460" s="10"/>
       <c r="I460" s="12"/>
@@ -5612,7 +5581,7 @@
       <c r="O460" s="10"/>
       <c r="P460" s="10"/>
     </row>
-    <row r="461">
+    <row r="461" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G461" s="12"/>
       <c r="H461" s="10"/>
       <c r="I461" s="12"/>
@@ -5623,7 +5592,7 @@
       <c r="O461" s="10"/>
       <c r="P461" s="10"/>
     </row>
-    <row r="462">
+    <row r="462" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G462" s="12"/>
       <c r="H462" s="10"/>
       <c r="I462" s="12"/>
@@ -5634,7 +5603,7 @@
       <c r="O462" s="10"/>
       <c r="P462" s="10"/>
     </row>
-    <row r="463">
+    <row r="463" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G463" s="12"/>
       <c r="H463" s="10"/>
       <c r="I463" s="12"/>
@@ -5645,7 +5614,7 @@
       <c r="O463" s="10"/>
       <c r="P463" s="10"/>
     </row>
-    <row r="464">
+    <row r="464" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G464" s="12"/>
       <c r="H464" s="10"/>
       <c r="I464" s="12"/>
@@ -5656,7 +5625,7 @@
       <c r="O464" s="10"/>
       <c r="P464" s="10"/>
     </row>
-    <row r="465">
+    <row r="465" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G465" s="12"/>
       <c r="H465" s="10"/>
       <c r="I465" s="12"/>
@@ -5667,7 +5636,7 @@
       <c r="O465" s="10"/>
       <c r="P465" s="10"/>
     </row>
-    <row r="466">
+    <row r="466" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G466" s="12"/>
       <c r="H466" s="10"/>
       <c r="I466" s="12"/>
@@ -5678,7 +5647,7 @@
       <c r="O466" s="10"/>
       <c r="P466" s="10"/>
     </row>
-    <row r="467">
+    <row r="467" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G467" s="12"/>
       <c r="H467" s="10"/>
       <c r="I467" s="12"/>
@@ -5689,7 +5658,7 @@
       <c r="O467" s="10"/>
       <c r="P467" s="10"/>
     </row>
-    <row r="468">
+    <row r="468" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G468" s="12"/>
       <c r="H468" s="10"/>
       <c r="I468" s="12"/>
@@ -5700,7 +5669,7 @@
       <c r="O468" s="10"/>
       <c r="P468" s="10"/>
     </row>
-    <row r="469">
+    <row r="469" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G469" s="12"/>
       <c r="H469" s="10"/>
       <c r="I469" s="12"/>
@@ -5711,7 +5680,7 @@
       <c r="O469" s="10"/>
       <c r="P469" s="10"/>
     </row>
-    <row r="470">
+    <row r="470" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G470" s="12"/>
       <c r="H470" s="10"/>
       <c r="I470" s="12"/>
@@ -5722,7 +5691,7 @@
       <c r="O470" s="10"/>
       <c r="P470" s="10"/>
     </row>
-    <row r="471">
+    <row r="471" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G471" s="12"/>
       <c r="H471" s="10"/>
       <c r="I471" s="12"/>
@@ -5733,7 +5702,7 @@
       <c r="O471" s="10"/>
       <c r="P471" s="10"/>
     </row>
-    <row r="472">
+    <row r="472" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G472" s="12"/>
       <c r="H472" s="10"/>
       <c r="I472" s="12"/>
@@ -5744,7 +5713,7 @@
       <c r="O472" s="10"/>
       <c r="P472" s="10"/>
     </row>
-    <row r="473">
+    <row r="473" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G473" s="12"/>
       <c r="H473" s="10"/>
       <c r="I473" s="12"/>
@@ -5755,7 +5724,7 @@
       <c r="O473" s="10"/>
       <c r="P473" s="10"/>
     </row>
-    <row r="474">
+    <row r="474" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G474" s="12"/>
       <c r="H474" s="10"/>
       <c r="I474" s="12"/>
@@ -5766,7 +5735,7 @@
       <c r="O474" s="10"/>
       <c r="P474" s="10"/>
     </row>
-    <row r="475">
+    <row r="475" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G475" s="12"/>
       <c r="H475" s="10"/>
       <c r="I475" s="12"/>
@@ -5777,7 +5746,7 @@
       <c r="O475" s="10"/>
       <c r="P475" s="10"/>
     </row>
-    <row r="476">
+    <row r="476" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G476" s="12"/>
       <c r="H476" s="10"/>
       <c r="I476" s="12"/>
@@ -5788,7 +5757,7 @@
       <c r="O476" s="10"/>
       <c r="P476" s="10"/>
     </row>
-    <row r="477">
+    <row r="477" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G477" s="12"/>
       <c r="H477" s="10"/>
       <c r="I477" s="12"/>
@@ -5799,7 +5768,7 @@
       <c r="O477" s="10"/>
       <c r="P477" s="10"/>
     </row>
-    <row r="478">
+    <row r="478" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G478" s="12"/>
       <c r="H478" s="10"/>
       <c r="I478" s="12"/>
@@ -5810,7 +5779,7 @@
       <c r="O478" s="10"/>
       <c r="P478" s="10"/>
     </row>
-    <row r="479">
+    <row r="479" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G479" s="12"/>
       <c r="H479" s="10"/>
       <c r="I479" s="12"/>
@@ -5821,7 +5790,7 @@
       <c r="O479" s="10"/>
       <c r="P479" s="10"/>
     </row>
-    <row r="480">
+    <row r="480" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G480" s="12"/>
       <c r="H480" s="10"/>
       <c r="I480" s="12"/>
@@ -5832,7 +5801,7 @@
       <c r="O480" s="10"/>
       <c r="P480" s="10"/>
     </row>
-    <row r="481">
+    <row r="481" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G481" s="12"/>
       <c r="H481" s="10"/>
       <c r="I481" s="12"/>
@@ -5843,7 +5812,7 @@
       <c r="O481" s="10"/>
       <c r="P481" s="10"/>
     </row>
-    <row r="482">
+    <row r="482" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G482" s="12"/>
       <c r="H482" s="10"/>
       <c r="I482" s="12"/>
@@ -5854,7 +5823,7 @@
       <c r="O482" s="10"/>
       <c r="P482" s="10"/>
     </row>
-    <row r="483">
+    <row r="483" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G483" s="12"/>
       <c r="H483" s="10"/>
       <c r="I483" s="12"/>
@@ -5865,7 +5834,7 @@
       <c r="O483" s="10"/>
       <c r="P483" s="10"/>
     </row>
-    <row r="484">
+    <row r="484" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G484" s="12"/>
       <c r="H484" s="10"/>
       <c r="I484" s="12"/>
@@ -5876,7 +5845,7 @@
       <c r="O484" s="10"/>
       <c r="P484" s="10"/>
     </row>
-    <row r="485">
+    <row r="485" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G485" s="12"/>
       <c r="H485" s="10"/>
       <c r="I485" s="12"/>
@@ -5887,7 +5856,7 @@
       <c r="O485" s="10"/>
       <c r="P485" s="10"/>
     </row>
-    <row r="486">
+    <row r="486" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G486" s="12"/>
       <c r="H486" s="10"/>
       <c r="I486" s="12"/>
@@ -5898,7 +5867,7 @@
       <c r="O486" s="10"/>
       <c r="P486" s="10"/>
     </row>
-    <row r="487">
+    <row r="487" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G487" s="12"/>
       <c r="H487" s="10"/>
       <c r="I487" s="12"/>
@@ -5909,7 +5878,7 @@
       <c r="O487" s="10"/>
       <c r="P487" s="10"/>
     </row>
-    <row r="488">
+    <row r="488" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G488" s="12"/>
       <c r="H488" s="10"/>
       <c r="I488" s="12"/>
@@ -5920,7 +5889,7 @@
       <c r="O488" s="10"/>
       <c r="P488" s="10"/>
     </row>
-    <row r="489">
+    <row r="489" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G489" s="12"/>
       <c r="H489" s="10"/>
       <c r="I489" s="12"/>
@@ -5931,7 +5900,7 @@
       <c r="O489" s="10"/>
       <c r="P489" s="10"/>
     </row>
-    <row r="490">
+    <row r="490" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G490" s="12"/>
       <c r="H490" s="10"/>
       <c r="I490" s="12"/>
@@ -5942,7 +5911,7 @@
       <c r="O490" s="10"/>
       <c r="P490" s="10"/>
     </row>
-    <row r="491">
+    <row r="491" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G491" s="12"/>
       <c r="H491" s="10"/>
       <c r="I491" s="12"/>
@@ -5953,7 +5922,7 @@
       <c r="O491" s="10"/>
       <c r="P491" s="10"/>
     </row>
-    <row r="492">
+    <row r="492" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G492" s="12"/>
       <c r="H492" s="10"/>
       <c r="I492" s="12"/>
@@ -5964,7 +5933,7 @@
       <c r="O492" s="10"/>
       <c r="P492" s="10"/>
     </row>
-    <row r="493">
+    <row r="493" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G493" s="12"/>
       <c r="H493" s="10"/>
       <c r="I493" s="12"/>
@@ -5975,7 +5944,7 @@
       <c r="O493" s="10"/>
       <c r="P493" s="10"/>
     </row>
-    <row r="494">
+    <row r="494" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G494" s="12"/>
       <c r="H494" s="10"/>
       <c r="I494" s="12"/>
@@ -5986,7 +5955,7 @@
       <c r="O494" s="10"/>
       <c r="P494" s="10"/>
     </row>
-    <row r="495">
+    <row r="495" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G495" s="12"/>
       <c r="H495" s="10"/>
       <c r="I495" s="12"/>
@@ -5997,7 +5966,7 @@
       <c r="O495" s="10"/>
       <c r="P495" s="10"/>
     </row>
-    <row r="496">
+    <row r="496" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G496" s="12"/>
       <c r="H496" s="10"/>
       <c r="I496" s="12"/>
@@ -6008,7 +5977,7 @@
       <c r="O496" s="10"/>
       <c r="P496" s="10"/>
     </row>
-    <row r="497">
+    <row r="497" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G497" s="12"/>
       <c r="H497" s="10"/>
       <c r="I497" s="12"/>
@@ -6019,7 +5988,7 @@
       <c r="O497" s="10"/>
       <c r="P497" s="10"/>
     </row>
-    <row r="498">
+    <row r="498" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G498" s="12"/>
       <c r="H498" s="10"/>
       <c r="I498" s="12"/>
@@ -6030,7 +5999,7 @@
       <c r="O498" s="10"/>
       <c r="P498" s="10"/>
     </row>
-    <row r="499">
+    <row r="499" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G499" s="12"/>
       <c r="H499" s="10"/>
       <c r="I499" s="12"/>
@@ -6041,7 +6010,7 @@
       <c r="O499" s="10"/>
       <c r="P499" s="10"/>
     </row>
-    <row r="500">
+    <row r="500" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G500" s="12"/>
       <c r="H500" s="10"/>
       <c r="I500" s="12"/>
@@ -6052,7 +6021,7 @@
       <c r="O500" s="10"/>
       <c r="P500" s="10"/>
     </row>
-    <row r="501">
+    <row r="501" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G501" s="12"/>
       <c r="H501" s="10"/>
       <c r="I501" s="12"/>
@@ -6063,7 +6032,7 @@
       <c r="O501" s="10"/>
       <c r="P501" s="10"/>
     </row>
-    <row r="502">
+    <row r="502" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G502" s="12"/>
       <c r="H502" s="10"/>
       <c r="I502" s="12"/>
@@ -6074,7 +6043,7 @@
       <c r="O502" s="10"/>
       <c r="P502" s="10"/>
     </row>
-    <row r="503">
+    <row r="503" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G503" s="12"/>
       <c r="H503" s="10"/>
       <c r="I503" s="12"/>
@@ -6085,7 +6054,7 @@
       <c r="O503" s="10"/>
       <c r="P503" s="10"/>
     </row>
-    <row r="504">
+    <row r="504" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G504" s="12"/>
       <c r="H504" s="10"/>
       <c r="I504" s="12"/>
@@ -6096,7 +6065,7 @@
       <c r="O504" s="10"/>
       <c r="P504" s="10"/>
     </row>
-    <row r="505">
+    <row r="505" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G505" s="12"/>
       <c r="H505" s="10"/>
       <c r="I505" s="12"/>
@@ -6107,7 +6076,7 @@
       <c r="O505" s="10"/>
       <c r="P505" s="10"/>
     </row>
-    <row r="506">
+    <row r="506" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G506" s="12"/>
       <c r="H506" s="10"/>
       <c r="I506" s="12"/>
@@ -6118,7 +6087,7 @@
       <c r="O506" s="10"/>
       <c r="P506" s="10"/>
     </row>
-    <row r="507">
+    <row r="507" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G507" s="12"/>
       <c r="H507" s="10"/>
       <c r="I507" s="12"/>
@@ -6129,7 +6098,7 @@
       <c r="O507" s="10"/>
       <c r="P507" s="10"/>
     </row>
-    <row r="508">
+    <row r="508" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G508" s="12"/>
       <c r="H508" s="10"/>
       <c r="I508" s="12"/>
@@ -6140,7 +6109,7 @@
       <c r="O508" s="10"/>
       <c r="P508" s="10"/>
     </row>
-    <row r="509">
+    <row r="509" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G509" s="12"/>
       <c r="H509" s="10"/>
       <c r="I509" s="12"/>
@@ -6151,7 +6120,7 @@
       <c r="O509" s="10"/>
       <c r="P509" s="10"/>
     </row>
-    <row r="510">
+    <row r="510" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G510" s="12"/>
       <c r="H510" s="10"/>
       <c r="I510" s="12"/>
@@ -6162,7 +6131,7 @@
       <c r="O510" s="10"/>
       <c r="P510" s="10"/>
     </row>
-    <row r="511">
+    <row r="511" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G511" s="12"/>
       <c r="H511" s="10"/>
       <c r="I511" s="12"/>
@@ -6173,7 +6142,7 @@
       <c r="O511" s="10"/>
       <c r="P511" s="10"/>
     </row>
-    <row r="512">
+    <row r="512" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G512" s="12"/>
       <c r="H512" s="10"/>
       <c r="I512" s="12"/>
@@ -6184,7 +6153,7 @@
       <c r="O512" s="10"/>
       <c r="P512" s="10"/>
     </row>
-    <row r="513">
+    <row r="513" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G513" s="12"/>
       <c r="H513" s="10"/>
       <c r="I513" s="12"/>
@@ -6195,7 +6164,7 @@
       <c r="O513" s="10"/>
       <c r="P513" s="10"/>
     </row>
-    <row r="514">
+    <row r="514" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G514" s="12"/>
       <c r="H514" s="10"/>
       <c r="I514" s="12"/>
@@ -6206,7 +6175,7 @@
       <c r="O514" s="10"/>
       <c r="P514" s="10"/>
     </row>
-    <row r="515">
+    <row r="515" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G515" s="12"/>
       <c r="H515" s="10"/>
       <c r="I515" s="12"/>
@@ -6217,7 +6186,7 @@
       <c r="O515" s="10"/>
       <c r="P515" s="10"/>
     </row>
-    <row r="516">
+    <row r="516" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G516" s="12"/>
       <c r="H516" s="10"/>
       <c r="I516" s="12"/>
@@ -6228,7 +6197,7 @@
       <c r="O516" s="10"/>
       <c r="P516" s="10"/>
     </row>
-    <row r="517">
+    <row r="517" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G517" s="12"/>
       <c r="H517" s="10"/>
       <c r="I517" s="12"/>
@@ -6239,7 +6208,7 @@
       <c r="O517" s="10"/>
       <c r="P517" s="10"/>
     </row>
-    <row r="518">
+    <row r="518" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G518" s="12"/>
       <c r="H518" s="10"/>
       <c r="I518" s="12"/>
@@ -6250,7 +6219,7 @@
       <c r="O518" s="10"/>
       <c r="P518" s="10"/>
     </row>
-    <row r="519">
+    <row r="519" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G519" s="12"/>
       <c r="H519" s="10"/>
       <c r="I519" s="12"/>
@@ -6261,7 +6230,7 @@
       <c r="O519" s="10"/>
       <c r="P519" s="10"/>
     </row>
-    <row r="520">
+    <row r="520" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G520" s="12"/>
       <c r="H520" s="10"/>
       <c r="I520" s="12"/>
@@ -6272,7 +6241,7 @@
       <c r="O520" s="10"/>
       <c r="P520" s="10"/>
     </row>
-    <row r="521">
+    <row r="521" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G521" s="12"/>
       <c r="H521" s="10"/>
       <c r="I521" s="12"/>
@@ -6283,7 +6252,7 @@
       <c r="O521" s="10"/>
       <c r="P521" s="10"/>
     </row>
-    <row r="522">
+    <row r="522" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G522" s="12"/>
       <c r="H522" s="10"/>
       <c r="I522" s="12"/>
@@ -6294,7 +6263,7 @@
       <c r="O522" s="10"/>
       <c r="P522" s="10"/>
     </row>
-    <row r="523">
+    <row r="523" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G523" s="12"/>
       <c r="H523" s="10"/>
       <c r="I523" s="12"/>
@@ -6305,7 +6274,7 @@
       <c r="O523" s="10"/>
       <c r="P523" s="10"/>
     </row>
-    <row r="524">
+    <row r="524" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G524" s="12"/>
       <c r="H524" s="10"/>
       <c r="I524" s="12"/>
@@ -6316,7 +6285,7 @@
       <c r="O524" s="10"/>
       <c r="P524" s="10"/>
     </row>
-    <row r="525">
+    <row r="525" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G525" s="12"/>
       <c r="H525" s="10"/>
       <c r="I525" s="12"/>
@@ -6327,7 +6296,7 @@
       <c r="O525" s="10"/>
       <c r="P525" s="10"/>
     </row>
-    <row r="526">
+    <row r="526" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G526" s="12"/>
       <c r="H526" s="10"/>
       <c r="I526" s="12"/>
@@ -6338,7 +6307,7 @@
       <c r="O526" s="10"/>
       <c r="P526" s="10"/>
     </row>
-    <row r="527">
+    <row r="527" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G527" s="12"/>
       <c r="H527" s="10"/>
       <c r="I527" s="12"/>
@@ -6349,7 +6318,7 @@
       <c r="O527" s="10"/>
       <c r="P527" s="10"/>
     </row>
-    <row r="528">
+    <row r="528" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G528" s="12"/>
       <c r="H528" s="10"/>
       <c r="I528" s="12"/>
@@ -6360,7 +6329,7 @@
       <c r="O528" s="10"/>
       <c r="P528" s="10"/>
     </row>
-    <row r="529">
+    <row r="529" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G529" s="12"/>
       <c r="H529" s="10"/>
       <c r="I529" s="12"/>
@@ -6371,7 +6340,7 @@
       <c r="O529" s="10"/>
       <c r="P529" s="10"/>
     </row>
-    <row r="530">
+    <row r="530" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G530" s="12"/>
       <c r="H530" s="10"/>
       <c r="I530" s="12"/>
@@ -6382,7 +6351,7 @@
       <c r="O530" s="10"/>
       <c r="P530" s="10"/>
     </row>
-    <row r="531">
+    <row r="531" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G531" s="12"/>
       <c r="H531" s="10"/>
       <c r="I531" s="12"/>
@@ -6393,7 +6362,7 @@
       <c r="O531" s="10"/>
       <c r="P531" s="10"/>
     </row>
-    <row r="532">
+    <row r="532" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G532" s="12"/>
       <c r="H532" s="10"/>
       <c r="I532" s="12"/>
@@ -6404,7 +6373,7 @@
       <c r="O532" s="10"/>
       <c r="P532" s="10"/>
     </row>
-    <row r="533">
+    <row r="533" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G533" s="12"/>
       <c r="H533" s="10"/>
       <c r="I533" s="12"/>
@@ -6415,7 +6384,7 @@
       <c r="O533" s="10"/>
       <c r="P533" s="10"/>
     </row>
-    <row r="534">
+    <row r="534" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G534" s="12"/>
       <c r="H534" s="10"/>
       <c r="I534" s="12"/>
@@ -6426,7 +6395,7 @@
       <c r="O534" s="10"/>
       <c r="P534" s="10"/>
     </row>
-    <row r="535">
+    <row r="535" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G535" s="12"/>
       <c r="H535" s="10"/>
       <c r="I535" s="12"/>
@@ -6437,7 +6406,7 @@
       <c r="O535" s="10"/>
       <c r="P535" s="10"/>
     </row>
-    <row r="536">
+    <row r="536" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G536" s="12"/>
       <c r="H536" s="10"/>
       <c r="I536" s="12"/>
@@ -6448,7 +6417,7 @@
       <c r="O536" s="10"/>
       <c r="P536" s="10"/>
     </row>
-    <row r="537">
+    <row r="537" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G537" s="12"/>
       <c r="H537" s="10"/>
       <c r="I537" s="12"/>
@@ -6459,7 +6428,7 @@
       <c r="O537" s="10"/>
       <c r="P537" s="10"/>
     </row>
-    <row r="538">
+    <row r="538" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G538" s="12"/>
       <c r="H538" s="10"/>
       <c r="I538" s="12"/>
@@ -6470,7 +6439,7 @@
       <c r="O538" s="10"/>
       <c r="P538" s="10"/>
     </row>
-    <row r="539">
+    <row r="539" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G539" s="12"/>
       <c r="H539" s="10"/>
       <c r="I539" s="12"/>
@@ -6481,7 +6450,7 @@
       <c r="O539" s="10"/>
       <c r="P539" s="10"/>
     </row>
-    <row r="540">
+    <row r="540" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G540" s="12"/>
       <c r="H540" s="10"/>
       <c r="I540" s="12"/>
@@ -6492,7 +6461,7 @@
       <c r="O540" s="10"/>
       <c r="P540" s="10"/>
     </row>
-    <row r="541">
+    <row r="541" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G541" s="12"/>
       <c r="H541" s="10"/>
       <c r="I541" s="12"/>
@@ -6503,7 +6472,7 @@
       <c r="O541" s="10"/>
       <c r="P541" s="10"/>
     </row>
-    <row r="542">
+    <row r="542" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G542" s="12"/>
       <c r="H542" s="10"/>
       <c r="I542" s="12"/>
@@ -6514,7 +6483,7 @@
       <c r="O542" s="10"/>
       <c r="P542" s="10"/>
     </row>
-    <row r="543">
+    <row r="543" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G543" s="12"/>
       <c r="H543" s="10"/>
       <c r="I543" s="12"/>
@@ -6525,7 +6494,7 @@
       <c r="O543" s="10"/>
       <c r="P543" s="10"/>
     </row>
-    <row r="544">
+    <row r="544" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G544" s="12"/>
       <c r="H544" s="10"/>
       <c r="I544" s="12"/>
@@ -6536,7 +6505,7 @@
       <c r="O544" s="10"/>
       <c r="P544" s="10"/>
     </row>
-    <row r="545">
+    <row r="545" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G545" s="12"/>
       <c r="H545" s="10"/>
       <c r="I545" s="12"/>
@@ -6547,7 +6516,7 @@
       <c r="O545" s="10"/>
       <c r="P545" s="10"/>
     </row>
-    <row r="546">
+    <row r="546" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G546" s="12"/>
       <c r="H546" s="10"/>
       <c r="I546" s="12"/>
@@ -6558,7 +6527,7 @@
       <c r="O546" s="10"/>
       <c r="P546" s="10"/>
     </row>
-    <row r="547">
+    <row r="547" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G547" s="12"/>
       <c r="H547" s="10"/>
       <c r="I547" s="12"/>
@@ -6569,7 +6538,7 @@
       <c r="O547" s="10"/>
       <c r="P547" s="10"/>
     </row>
-    <row r="548">
+    <row r="548" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G548" s="12"/>
       <c r="H548" s="10"/>
       <c r="I548" s="12"/>
@@ -6580,7 +6549,7 @@
       <c r="O548" s="10"/>
       <c r="P548" s="10"/>
     </row>
-    <row r="549">
+    <row r="549" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G549" s="12"/>
       <c r="H549" s="10"/>
       <c r="I549" s="12"/>
@@ -6591,7 +6560,7 @@
       <c r="O549" s="10"/>
       <c r="P549" s="10"/>
     </row>
-    <row r="550">
+    <row r="550" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G550" s="12"/>
       <c r="H550" s="10"/>
       <c r="I550" s="12"/>
@@ -6602,7 +6571,7 @@
       <c r="O550" s="10"/>
       <c r="P550" s="10"/>
     </row>
-    <row r="551">
+    <row r="551" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G551" s="12"/>
       <c r="H551" s="10"/>
       <c r="I551" s="12"/>
@@ -6613,7 +6582,7 @@
       <c r="O551" s="10"/>
       <c r="P551" s="10"/>
     </row>
-    <row r="552">
+    <row r="552" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G552" s="12"/>
       <c r="H552" s="10"/>
       <c r="I552" s="12"/>
@@ -6624,7 +6593,7 @@
       <c r="O552" s="10"/>
       <c r="P552" s="10"/>
     </row>
-    <row r="553">
+    <row r="553" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G553" s="12"/>
       <c r="H553" s="10"/>
       <c r="I553" s="12"/>
@@ -6635,7 +6604,7 @@
       <c r="O553" s="10"/>
       <c r="P553" s="10"/>
     </row>
-    <row r="554">
+    <row r="554" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G554" s="12"/>
       <c r="H554" s="10"/>
       <c r="I554" s="12"/>
@@ -6646,7 +6615,7 @@
       <c r="O554" s="10"/>
       <c r="P554" s="10"/>
     </row>
-    <row r="555">
+    <row r="555" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G555" s="12"/>
       <c r="H555" s="10"/>
       <c r="I555" s="12"/>
@@ -6657,7 +6626,7 @@
       <c r="O555" s="10"/>
       <c r="P555" s="10"/>
     </row>
-    <row r="556">
+    <row r="556" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G556" s="12"/>
       <c r="H556" s="10"/>
       <c r="I556" s="12"/>
@@ -6668,7 +6637,7 @@
       <c r="O556" s="10"/>
       <c r="P556" s="10"/>
     </row>
-    <row r="557">
+    <row r="557" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G557" s="12"/>
       <c r="H557" s="10"/>
       <c r="I557" s="12"/>
@@ -6679,7 +6648,7 @@
       <c r="O557" s="10"/>
       <c r="P557" s="10"/>
     </row>
-    <row r="558">
+    <row r="558" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G558" s="12"/>
       <c r="H558" s="10"/>
       <c r="I558" s="12"/>
@@ -6690,7 +6659,7 @@
       <c r="O558" s="10"/>
       <c r="P558" s="10"/>
     </row>
-    <row r="559">
+    <row r="559" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G559" s="12"/>
       <c r="H559" s="10"/>
       <c r="I559" s="12"/>
@@ -6701,7 +6670,7 @@
       <c r="O559" s="10"/>
       <c r="P559" s="10"/>
     </row>
-    <row r="560">
+    <row r="560" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G560" s="12"/>
       <c r="H560" s="10"/>
       <c r="I560" s="12"/>
@@ -6712,7 +6681,7 @@
       <c r="O560" s="10"/>
       <c r="P560" s="10"/>
     </row>
-    <row r="561">
+    <row r="561" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G561" s="12"/>
       <c r="H561" s="10"/>
       <c r="I561" s="12"/>
@@ -6723,7 +6692,7 @@
       <c r="O561" s="10"/>
       <c r="P561" s="10"/>
     </row>
-    <row r="562">
+    <row r="562" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G562" s="12"/>
       <c r="H562" s="10"/>
       <c r="I562" s="12"/>
@@ -6734,7 +6703,7 @@
       <c r="O562" s="10"/>
       <c r="P562" s="10"/>
     </row>
-    <row r="563">
+    <row r="563" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G563" s="12"/>
       <c r="H563" s="10"/>
       <c r="I563" s="12"/>
@@ -6745,7 +6714,7 @@
       <c r="O563" s="10"/>
       <c r="P563" s="10"/>
     </row>
-    <row r="564">
+    <row r="564" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G564" s="12"/>
       <c r="H564" s="10"/>
       <c r="I564" s="12"/>
@@ -6756,7 +6725,7 @@
       <c r="O564" s="10"/>
       <c r="P564" s="10"/>
     </row>
-    <row r="565">
+    <row r="565" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G565" s="12"/>
       <c r="H565" s="10"/>
       <c r="I565" s="12"/>
@@ -6767,7 +6736,7 @@
       <c r="O565" s="10"/>
       <c r="P565" s="10"/>
     </row>
-    <row r="566">
+    <row r="566" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G566" s="12"/>
       <c r="H566" s="10"/>
       <c r="I566" s="12"/>
@@ -6778,7 +6747,7 @@
       <c r="O566" s="10"/>
       <c r="P566" s="10"/>
     </row>
-    <row r="567">
+    <row r="567" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G567" s="12"/>
       <c r="H567" s="10"/>
       <c r="I567" s="12"/>
@@ -6789,7 +6758,7 @@
       <c r="O567" s="10"/>
       <c r="P567" s="10"/>
     </row>
-    <row r="568">
+    <row r="568" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G568" s="12"/>
       <c r="H568" s="10"/>
       <c r="I568" s="12"/>
@@ -6800,7 +6769,7 @@
       <c r="O568" s="10"/>
       <c r="P568" s="10"/>
     </row>
-    <row r="569">
+    <row r="569" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G569" s="12"/>
       <c r="H569" s="10"/>
       <c r="I569" s="12"/>
@@ -6811,7 +6780,7 @@
       <c r="O569" s="10"/>
       <c r="P569" s="10"/>
     </row>
-    <row r="570">
+    <row r="570" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G570" s="12"/>
       <c r="H570" s="10"/>
       <c r="I570" s="12"/>
@@ -6822,7 +6791,7 @@
       <c r="O570" s="10"/>
       <c r="P570" s="10"/>
     </row>
-    <row r="571">
+    <row r="571" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G571" s="12"/>
       <c r="H571" s="10"/>
       <c r="I571" s="12"/>
@@ -6833,7 +6802,7 @@
       <c r="O571" s="10"/>
       <c r="P571" s="10"/>
     </row>
-    <row r="572">
+    <row r="572" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G572" s="12"/>
       <c r="H572" s="10"/>
       <c r="I572" s="12"/>
@@ -6844,7 +6813,7 @@
       <c r="O572" s="10"/>
       <c r="P572" s="10"/>
     </row>
-    <row r="573">
+    <row r="573" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G573" s="12"/>
       <c r="H573" s="10"/>
       <c r="I573" s="12"/>
@@ -6855,7 +6824,7 @@
       <c r="O573" s="10"/>
       <c r="P573" s="10"/>
     </row>
-    <row r="574">
+    <row r="574" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G574" s="12"/>
       <c r="H574" s="10"/>
       <c r="I574" s="12"/>
@@ -6866,7 +6835,7 @@
       <c r="O574" s="10"/>
       <c r="P574" s="10"/>
     </row>
-    <row r="575">
+    <row r="575" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G575" s="12"/>
       <c r="H575" s="10"/>
       <c r="I575" s="12"/>
@@ -6877,7 +6846,7 @@
       <c r="O575" s="10"/>
       <c r="P575" s="10"/>
     </row>
-    <row r="576">
+    <row r="576" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G576" s="12"/>
       <c r="H576" s="10"/>
       <c r="I576" s="12"/>
@@ -6888,7 +6857,7 @@
       <c r="O576" s="10"/>
       <c r="P576" s="10"/>
     </row>
-    <row r="577">
+    <row r="577" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G577" s="12"/>
       <c r="H577" s="10"/>
       <c r="I577" s="12"/>
@@ -6899,7 +6868,7 @@
       <c r="O577" s="10"/>
       <c r="P577" s="10"/>
     </row>
-    <row r="578">
+    <row r="578" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G578" s="12"/>
       <c r="H578" s="10"/>
       <c r="I578" s="12"/>
@@ -6910,7 +6879,7 @@
       <c r="O578" s="10"/>
       <c r="P578" s="10"/>
     </row>
-    <row r="579">
+    <row r="579" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G579" s="12"/>
       <c r="H579" s="10"/>
       <c r="I579" s="12"/>
@@ -6921,7 +6890,7 @@
       <c r="O579" s="10"/>
       <c r="P579" s="10"/>
     </row>
-    <row r="580">
+    <row r="580" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G580" s="12"/>
       <c r="H580" s="10"/>
       <c r="I580" s="12"/>
@@ -6932,7 +6901,7 @@
       <c r="O580" s="10"/>
       <c r="P580" s="10"/>
     </row>
-    <row r="581">
+    <row r="581" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G581" s="12"/>
       <c r="H581" s="10"/>
       <c r="I581" s="12"/>
@@ -6943,7 +6912,7 @@
       <c r="O581" s="10"/>
       <c r="P581" s="10"/>
     </row>
-    <row r="582">
+    <row r="582" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G582" s="12"/>
       <c r="H582" s="10"/>
       <c r="I582" s="12"/>
@@ -6954,7 +6923,7 @@
       <c r="O582" s="10"/>
       <c r="P582" s="10"/>
     </row>
-    <row r="583">
+    <row r="583" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G583" s="12"/>
       <c r="H583" s="10"/>
       <c r="I583" s="12"/>
@@ -6965,7 +6934,7 @@
       <c r="O583" s="10"/>
       <c r="P583" s="10"/>
     </row>
-    <row r="584">
+    <row r="584" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G584" s="12"/>
       <c r="H584" s="10"/>
       <c r="I584" s="12"/>
@@ -6976,7 +6945,7 @@
       <c r="O584" s="10"/>
       <c r="P584" s="10"/>
     </row>
-    <row r="585">
+    <row r="585" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G585" s="12"/>
       <c r="H585" s="10"/>
       <c r="I585" s="12"/>
@@ -6987,7 +6956,7 @@
       <c r="O585" s="10"/>
       <c r="P585" s="10"/>
     </row>
-    <row r="586">
+    <row r="586" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G586" s="12"/>
       <c r="H586" s="10"/>
       <c r="I586" s="12"/>
@@ -6998,7 +6967,7 @@
       <c r="O586" s="10"/>
       <c r="P586" s="10"/>
     </row>
-    <row r="587">
+    <row r="587" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G587" s="12"/>
       <c r="H587" s="10"/>
       <c r="I587" s="12"/>
@@ -7009,7 +6978,7 @@
       <c r="O587" s="10"/>
       <c r="P587" s="10"/>
     </row>
-    <row r="588">
+    <row r="588" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G588" s="12"/>
       <c r="H588" s="10"/>
       <c r="I588" s="12"/>
@@ -7020,7 +6989,7 @@
       <c r="O588" s="10"/>
       <c r="P588" s="10"/>
     </row>
-    <row r="589">
+    <row r="589" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G589" s="12"/>
       <c r="H589" s="10"/>
       <c r="I589" s="12"/>
@@ -7031,7 +7000,7 @@
       <c r="O589" s="10"/>
       <c r="P589" s="10"/>
     </row>
-    <row r="590">
+    <row r="590" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G590" s="12"/>
       <c r="H590" s="10"/>
       <c r="I590" s="12"/>
@@ -7042,7 +7011,7 @@
       <c r="O590" s="10"/>
       <c r="P590" s="10"/>
     </row>
-    <row r="591">
+    <row r="591" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G591" s="12"/>
       <c r="H591" s="10"/>
       <c r="I591" s="12"/>
@@ -7053,7 +7022,7 @@
       <c r="O591" s="10"/>
       <c r="P591" s="10"/>
     </row>
-    <row r="592">
+    <row r="592" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G592" s="12"/>
       <c r="H592" s="10"/>
       <c r="I592" s="12"/>
@@ -7064,7 +7033,7 @@
       <c r="O592" s="10"/>
       <c r="P592" s="10"/>
     </row>
-    <row r="593">
+    <row r="593" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G593" s="12"/>
       <c r="H593" s="10"/>
       <c r="I593" s="12"/>
@@ -7075,7 +7044,7 @@
       <c r="O593" s="10"/>
       <c r="P593" s="10"/>
     </row>
-    <row r="594">
+    <row r="594" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G594" s="12"/>
       <c r="H594" s="10"/>
       <c r="I594" s="12"/>
@@ -7086,7 +7055,7 @@
       <c r="O594" s="10"/>
       <c r="P594" s="10"/>
     </row>
-    <row r="595">
+    <row r="595" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G595" s="12"/>
       <c r="H595" s="10"/>
       <c r="I595" s="12"/>
@@ -7097,7 +7066,7 @@
       <c r="O595" s="10"/>
       <c r="P595" s="10"/>
     </row>
-    <row r="596">
+    <row r="596" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G596" s="12"/>
       <c r="H596" s="10"/>
       <c r="I596" s="12"/>
@@ -7108,7 +7077,7 @@
       <c r="O596" s="10"/>
       <c r="P596" s="10"/>
     </row>
-    <row r="597">
+    <row r="597" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G597" s="12"/>
       <c r="H597" s="10"/>
       <c r="I597" s="12"/>
@@ -7119,7 +7088,7 @@
       <c r="O597" s="10"/>
       <c r="P597" s="10"/>
     </row>
-    <row r="598">
+    <row r="598" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G598" s="12"/>
       <c r="H598" s="10"/>
       <c r="I598" s="12"/>
@@ -7130,7 +7099,7 @@
       <c r="O598" s="10"/>
       <c r="P598" s="10"/>
     </row>
-    <row r="599">
+    <row r="599" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G599" s="12"/>
       <c r="H599" s="10"/>
       <c r="I599" s="12"/>
@@ -7141,7 +7110,7 @@
       <c r="O599" s="10"/>
       <c r="P599" s="10"/>
     </row>
-    <row r="600">
+    <row r="600" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G600" s="12"/>
       <c r="H600" s="10"/>
       <c r="I600" s="12"/>
@@ -7152,7 +7121,7 @@
       <c r="O600" s="10"/>
       <c r="P600" s="10"/>
     </row>
-    <row r="601">
+    <row r="601" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G601" s="12"/>
       <c r="H601" s="10"/>
       <c r="I601" s="12"/>
@@ -7163,7 +7132,7 @@
       <c r="O601" s="10"/>
       <c r="P601" s="10"/>
     </row>
-    <row r="602">
+    <row r="602" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G602" s="12"/>
       <c r="H602" s="10"/>
       <c r="I602" s="12"/>
@@ -7174,7 +7143,7 @@
       <c r="O602" s="10"/>
       <c r="P602" s="10"/>
     </row>
-    <row r="603">
+    <row r="603" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G603" s="12"/>
       <c r="H603" s="10"/>
       <c r="I603" s="12"/>
@@ -7185,7 +7154,7 @@
       <c r="O603" s="10"/>
       <c r="P603" s="10"/>
     </row>
-    <row r="604">
+    <row r="604" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G604" s="12"/>
       <c r="H604" s="10"/>
       <c r="I604" s="12"/>
@@ -7196,7 +7165,7 @@
       <c r="O604" s="10"/>
       <c r="P604" s="10"/>
     </row>
-    <row r="605">
+    <row r="605" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G605" s="12"/>
       <c r="H605" s="10"/>
       <c r="I605" s="12"/>
@@ -7207,7 +7176,7 @@
       <c r="O605" s="10"/>
       <c r="P605" s="10"/>
     </row>
-    <row r="606">
+    <row r="606" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G606" s="12"/>
       <c r="H606" s="10"/>
       <c r="I606" s="12"/>
@@ -7218,7 +7187,7 @@
       <c r="O606" s="10"/>
       <c r="P606" s="10"/>
     </row>
-    <row r="607">
+    <row r="607" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G607" s="12"/>
       <c r="H607" s="10"/>
       <c r="I607" s="12"/>
@@ -7229,7 +7198,7 @@
       <c r="O607" s="10"/>
       <c r="P607" s="10"/>
     </row>
-    <row r="608">
+    <row r="608" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G608" s="12"/>
       <c r="H608" s="10"/>
       <c r="I608" s="12"/>
@@ -7240,7 +7209,7 @@
       <c r="O608" s="10"/>
       <c r="P608" s="10"/>
     </row>
-    <row r="609">
+    <row r="609" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G609" s="12"/>
       <c r="H609" s="10"/>
       <c r="I609" s="12"/>
@@ -7251,7 +7220,7 @@
       <c r="O609" s="10"/>
       <c r="P609" s="10"/>
     </row>
-    <row r="610">
+    <row r="610" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G610" s="12"/>
       <c r="H610" s="10"/>
       <c r="I610" s="12"/>
@@ -7262,7 +7231,7 @@
       <c r="O610" s="10"/>
       <c r="P610" s="10"/>
     </row>
-    <row r="611">
+    <row r="611" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G611" s="12"/>
       <c r="H611" s="10"/>
       <c r="I611" s="12"/>
@@ -7273,7 +7242,7 @@
       <c r="O611" s="10"/>
       <c r="P611" s="10"/>
     </row>
-    <row r="612">
+    <row r="612" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G612" s="12"/>
       <c r="H612" s="10"/>
       <c r="I612" s="12"/>
@@ -7284,7 +7253,7 @@
       <c r="O612" s="10"/>
       <c r="P612" s="10"/>
     </row>
-    <row r="613">
+    <row r="613" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G613" s="12"/>
       <c r="H613" s="10"/>
       <c r="I613" s="12"/>
@@ -7295,7 +7264,7 @@
       <c r="O613" s="10"/>
       <c r="P613" s="10"/>
     </row>
-    <row r="614">
+    <row r="614" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G614" s="12"/>
       <c r="H614" s="10"/>
       <c r="I614" s="12"/>
@@ -7306,7 +7275,7 @@
       <c r="O614" s="10"/>
       <c r="P614" s="10"/>
     </row>
-    <row r="615">
+    <row r="615" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G615" s="12"/>
       <c r="H615" s="10"/>
       <c r="I615" s="12"/>
@@ -7317,7 +7286,7 @@
       <c r="O615" s="10"/>
       <c r="P615" s="10"/>
     </row>
-    <row r="616">
+    <row r="616" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G616" s="12"/>
       <c r="H616" s="10"/>
       <c r="I616" s="12"/>
@@ -7328,7 +7297,7 @@
       <c r="O616" s="10"/>
       <c r="P616" s="10"/>
     </row>
-    <row r="617">
+    <row r="617" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G617" s="12"/>
       <c r="H617" s="10"/>
       <c r="I617" s="12"/>
@@ -7339,7 +7308,7 @@
       <c r="O617" s="10"/>
       <c r="P617" s="10"/>
     </row>
-    <row r="618">
+    <row r="618" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G618" s="12"/>
       <c r="H618" s="10"/>
       <c r="I618" s="12"/>
@@ -7350,7 +7319,7 @@
       <c r="O618" s="10"/>
       <c r="P618" s="10"/>
     </row>
-    <row r="619">
+    <row r="619" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G619" s="12"/>
       <c r="H619" s="10"/>
       <c r="I619" s="12"/>
@@ -7361,7 +7330,7 @@
       <c r="O619" s="10"/>
       <c r="P619" s="10"/>
     </row>
-    <row r="620">
+    <row r="620" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G620" s="12"/>
       <c r="H620" s="10"/>
       <c r="I620" s="12"/>
@@ -7372,7 +7341,7 @@
       <c r="O620" s="10"/>
       <c r="P620" s="10"/>
     </row>
-    <row r="621">
+    <row r="621" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G621" s="12"/>
       <c r="H621" s="10"/>
       <c r="I621" s="12"/>
@@ -7383,7 +7352,7 @@
       <c r="O621" s="10"/>
       <c r="P621" s="10"/>
     </row>
-    <row r="622">
+    <row r="622" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G622" s="12"/>
       <c r="H622" s="10"/>
       <c r="I622" s="12"/>
@@ -7394,7 +7363,7 @@
       <c r="O622" s="10"/>
       <c r="P622" s="10"/>
     </row>
-    <row r="623">
+    <row r="623" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G623" s="12"/>
       <c r="H623" s="10"/>
       <c r="I623" s="12"/>
@@ -7405,7 +7374,7 @@
       <c r="O623" s="10"/>
       <c r="P623" s="10"/>
     </row>
-    <row r="624">
+    <row r="624" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G624" s="12"/>
       <c r="H624" s="10"/>
       <c r="I624" s="12"/>
@@ -7416,7 +7385,7 @@
       <c r="O624" s="10"/>
       <c r="P624" s="10"/>
     </row>
-    <row r="625">
+    <row r="625" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G625" s="12"/>
       <c r="H625" s="10"/>
       <c r="I625" s="12"/>
@@ -7427,7 +7396,7 @@
       <c r="O625" s="10"/>
       <c r="P625" s="10"/>
     </row>
-    <row r="626">
+    <row r="626" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G626" s="12"/>
       <c r="H626" s="10"/>
       <c r="I626" s="12"/>
@@ -7438,7 +7407,7 @@
       <c r="O626" s="10"/>
       <c r="P626" s="10"/>
     </row>
-    <row r="627">
+    <row r="627" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G627" s="12"/>
       <c r="H627" s="10"/>
       <c r="I627" s="12"/>
@@ -7449,7 +7418,7 @@
       <c r="O627" s="10"/>
       <c r="P627" s="10"/>
     </row>
-    <row r="628">
+    <row r="628" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G628" s="12"/>
       <c r="H628" s="10"/>
       <c r="I628" s="12"/>
@@ -7460,7 +7429,7 @@
       <c r="O628" s="10"/>
       <c r="P628" s="10"/>
     </row>
-    <row r="629">
+    <row r="629" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G629" s="12"/>
       <c r="H629" s="10"/>
       <c r="I629" s="12"/>
@@ -7471,7 +7440,7 @@
       <c r="O629" s="10"/>
       <c r="P629" s="10"/>
     </row>
-    <row r="630">
+    <row r="630" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G630" s="12"/>
       <c r="H630" s="10"/>
       <c r="I630" s="12"/>
@@ -7482,7 +7451,7 @@
       <c r="O630" s="10"/>
       <c r="P630" s="10"/>
     </row>
-    <row r="631">
+    <row r="631" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G631" s="12"/>
       <c r="H631" s="10"/>
       <c r="I631" s="12"/>
@@ -7493,7 +7462,7 @@
       <c r="O631" s="10"/>
       <c r="P631" s="10"/>
     </row>
-    <row r="632">
+    <row r="632" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G632" s="12"/>
       <c r="H632" s="10"/>
       <c r="I632" s="12"/>
@@ -7504,7 +7473,7 @@
       <c r="O632" s="10"/>
       <c r="P632" s="10"/>
     </row>
-    <row r="633">
+    <row r="633" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G633" s="12"/>
       <c r="H633" s="10"/>
       <c r="I633" s="12"/>
@@ -7515,7 +7484,7 @@
       <c r="O633" s="10"/>
       <c r="P633" s="10"/>
     </row>
-    <row r="634">
+    <row r="634" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G634" s="12"/>
       <c r="H634" s="10"/>
       <c r="I634" s="12"/>
@@ -7526,7 +7495,7 @@
       <c r="O634" s="10"/>
       <c r="P634" s="10"/>
     </row>
-    <row r="635">
+    <row r="635" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G635" s="12"/>
       <c r="H635" s="10"/>
       <c r="I635" s="12"/>
@@ -7537,7 +7506,7 @@
       <c r="O635" s="10"/>
       <c r="P635" s="10"/>
     </row>
-    <row r="636">
+    <row r="636" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G636" s="12"/>
       <c r="H636" s="10"/>
       <c r="I636" s="12"/>
@@ -7548,7 +7517,7 @@
       <c r="O636" s="10"/>
       <c r="P636" s="10"/>
     </row>
-    <row r="637">
+    <row r="637" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G637" s="12"/>
       <c r="H637" s="10"/>
       <c r="I637" s="12"/>
@@ -7559,7 +7528,7 @@
       <c r="O637" s="10"/>
       <c r="P637" s="10"/>
     </row>
-    <row r="638">
+    <row r="638" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G638" s="12"/>
       <c r="H638" s="10"/>
       <c r="I638" s="12"/>
@@ -7570,7 +7539,7 @@
       <c r="O638" s="10"/>
       <c r="P638" s="10"/>
     </row>
-    <row r="639">
+    <row r="639" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G639" s="12"/>
       <c r="H639" s="10"/>
       <c r="I639" s="12"/>
@@ -7581,7 +7550,7 @@
       <c r="O639" s="10"/>
       <c r="P639" s="10"/>
     </row>
-    <row r="640">
+    <row r="640" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G640" s="12"/>
       <c r="H640" s="10"/>
       <c r="I640" s="12"/>
@@ -7592,7 +7561,7 @@
       <c r="O640" s="10"/>
       <c r="P640" s="10"/>
     </row>
-    <row r="641">
+    <row r="641" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G641" s="12"/>
       <c r="H641" s="10"/>
       <c r="I641" s="12"/>
@@ -7603,7 +7572,7 @@
       <c r="O641" s="10"/>
       <c r="P641" s="10"/>
     </row>
-    <row r="642">
+    <row r="642" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G642" s="12"/>
       <c r="H642" s="10"/>
       <c r="I642" s="12"/>
@@ -7614,7 +7583,7 @@
       <c r="O642" s="10"/>
       <c r="P642" s="10"/>
     </row>
-    <row r="643">
+    <row r="643" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G643" s="12"/>
       <c r="H643" s="10"/>
       <c r="I643" s="12"/>
@@ -7625,7 +7594,7 @@
       <c r="O643" s="10"/>
       <c r="P643" s="10"/>
     </row>
-    <row r="644">
+    <row r="644" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G644" s="12"/>
       <c r="H644" s="10"/>
       <c r="I644" s="12"/>
@@ -7636,7 +7605,7 @@
       <c r="O644" s="10"/>
       <c r="P644" s="10"/>
     </row>
-    <row r="645">
+    <row r="645" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G645" s="12"/>
       <c r="H645" s="10"/>
       <c r="I645" s="12"/>
@@ -7647,7 +7616,7 @@
       <c r="O645" s="10"/>
       <c r="P645" s="10"/>
     </row>
-    <row r="646">
+    <row r="646" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G646" s="12"/>
       <c r="H646" s="10"/>
       <c r="I646" s="12"/>
@@ -7658,7 +7627,7 @@
       <c r="O646" s="10"/>
       <c r="P646" s="10"/>
     </row>
-    <row r="647">
+    <row r="647" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G647" s="12"/>
       <c r="H647" s="10"/>
       <c r="I647" s="12"/>
@@ -7669,7 +7638,7 @@
       <c r="O647" s="10"/>
       <c r="P647" s="10"/>
     </row>
-    <row r="648">
+    <row r="648" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G648" s="12"/>
       <c r="H648" s="10"/>
       <c r="I648" s="12"/>
@@ -7680,7 +7649,7 @@
       <c r="O648" s="10"/>
       <c r="P648" s="10"/>
     </row>
-    <row r="649">
+    <row r="649" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G649" s="12"/>
       <c r="H649" s="10"/>
       <c r="I649" s="12"/>
@@ -7691,7 +7660,7 @@
       <c r="O649" s="10"/>
       <c r="P649" s="10"/>
     </row>
-    <row r="650">
+    <row r="650" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G650" s="12"/>
       <c r="H650" s="10"/>
       <c r="I650" s="12"/>
@@ -7702,7 +7671,7 @@
       <c r="O650" s="10"/>
       <c r="P650" s="10"/>
     </row>
-    <row r="651">
+    <row r="651" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G651" s="12"/>
       <c r="H651" s="10"/>
       <c r="I651" s="12"/>
@@ -7713,7 +7682,7 @@
       <c r="O651" s="10"/>
       <c r="P651" s="10"/>
     </row>
-    <row r="652">
+    <row r="652" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G652" s="12"/>
       <c r="H652" s="10"/>
       <c r="I652" s="12"/>
@@ -7724,7 +7693,7 @@
       <c r="O652" s="10"/>
       <c r="P652" s="10"/>
     </row>
-    <row r="653">
+    <row r="653" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G653" s="12"/>
       <c r="H653" s="10"/>
       <c r="I653" s="12"/>
@@ -7735,7 +7704,7 @@
       <c r="O653" s="10"/>
       <c r="P653" s="10"/>
     </row>
-    <row r="654">
+    <row r="654" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G654" s="12"/>
       <c r="H654" s="10"/>
       <c r="I654" s="12"/>
@@ -7746,7 +7715,7 @@
       <c r="O654" s="10"/>
       <c r="P654" s="10"/>
     </row>
-    <row r="655">
+    <row r="655" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G655" s="12"/>
       <c r="H655" s="10"/>
       <c r="I655" s="12"/>
@@ -7757,7 +7726,7 @@
       <c r="O655" s="10"/>
       <c r="P655" s="10"/>
     </row>
-    <row r="656">
+    <row r="656" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G656" s="12"/>
       <c r="H656" s="10"/>
       <c r="I656" s="12"/>
@@ -7768,7 +7737,7 @@
       <c r="O656" s="10"/>
       <c r="P656" s="10"/>
     </row>
-    <row r="657">
+    <row r="657" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G657" s="12"/>
       <c r="H657" s="10"/>
       <c r="I657" s="12"/>
@@ -7779,7 +7748,7 @@
       <c r="O657" s="10"/>
       <c r="P657" s="10"/>
     </row>
-    <row r="658">
+    <row r="658" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G658" s="12"/>
       <c r="H658" s="10"/>
       <c r="I658" s="12"/>
@@ -7790,7 +7759,7 @@
       <c r="O658" s="10"/>
       <c r="P658" s="10"/>
     </row>
-    <row r="659">
+    <row r="659" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G659" s="12"/>
       <c r="H659" s="10"/>
       <c r="I659" s="12"/>
@@ -7801,7 +7770,7 @@
       <c r="O659" s="10"/>
       <c r="P659" s="10"/>
     </row>
-    <row r="660">
+    <row r="660" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G660" s="12"/>
       <c r="H660" s="10"/>
       <c r="I660" s="12"/>
@@ -7812,7 +7781,7 @@
       <c r="O660" s="10"/>
       <c r="P660" s="10"/>
     </row>
-    <row r="661">
+    <row r="661" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G661" s="12"/>
       <c r="H661" s="10"/>
       <c r="I661" s="12"/>
@@ -7823,7 +7792,7 @@
       <c r="O661" s="10"/>
       <c r="P661" s="10"/>
     </row>
-    <row r="662">
+    <row r="662" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G662" s="12"/>
       <c r="H662" s="10"/>
       <c r="I662" s="12"/>
@@ -7834,7 +7803,7 @@
       <c r="O662" s="10"/>
       <c r="P662" s="10"/>
     </row>
-    <row r="663">
+    <row r="663" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G663" s="12"/>
       <c r="H663" s="10"/>
       <c r="I663" s="12"/>
@@ -7845,7 +7814,7 @@
       <c r="O663" s="10"/>
       <c r="P663" s="10"/>
     </row>
-    <row r="664">
+    <row r="664" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G664" s="12"/>
       <c r="H664" s="10"/>
       <c r="I664" s="12"/>
@@ -7856,7 +7825,7 @@
       <c r="O664" s="10"/>
       <c r="P664" s="10"/>
     </row>
-    <row r="665">
+    <row r="665" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G665" s="12"/>
       <c r="H665" s="10"/>
       <c r="I665" s="12"/>
@@ -7867,7 +7836,7 @@
       <c r="O665" s="10"/>
       <c r="P665" s="10"/>
     </row>
-    <row r="666">
+    <row r="666" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G666" s="12"/>
       <c r="H666" s="10"/>
       <c r="I666" s="12"/>
@@ -7878,7 +7847,7 @@
       <c r="O666" s="10"/>
       <c r="P666" s="10"/>
     </row>
-    <row r="667">
+    <row r="667" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G667" s="12"/>
       <c r="H667" s="10"/>
       <c r="I667" s="12"/>
@@ -7889,7 +7858,7 @@
       <c r="O667" s="10"/>
       <c r="P667" s="10"/>
     </row>
-    <row r="668">
+    <row r="668" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G668" s="12"/>
       <c r="H668" s="10"/>
       <c r="I668" s="12"/>
@@ -7900,7 +7869,7 @@
       <c r="O668" s="10"/>
       <c r="P668" s="10"/>
     </row>
-    <row r="669">
+    <row r="669" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G669" s="12"/>
       <c r="H669" s="10"/>
       <c r="I669" s="12"/>
@@ -7911,7 +7880,7 @@
       <c r="O669" s="10"/>
       <c r="P669" s="10"/>
     </row>
-    <row r="670">
+    <row r="670" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G670" s="12"/>
       <c r="H670" s="10"/>
       <c r="I670" s="12"/>
@@ -7922,7 +7891,7 @@
       <c r="O670" s="10"/>
       <c r="P670" s="10"/>
     </row>
-    <row r="671">
+    <row r="671" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G671" s="12"/>
       <c r="H671" s="10"/>
       <c r="I671" s="12"/>
@@ -7933,7 +7902,7 @@
       <c r="O671" s="10"/>
       <c r="P671" s="10"/>
     </row>
-    <row r="672">
+    <row r="672" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G672" s="12"/>
       <c r="H672" s="10"/>
       <c r="I672" s="12"/>
@@ -7944,7 +7913,7 @@
       <c r="O672" s="10"/>
       <c r="P672" s="10"/>
     </row>
-    <row r="673">
+    <row r="673" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G673" s="12"/>
       <c r="H673" s="10"/>
       <c r="I673" s="12"/>
@@ -7955,7 +7924,7 @@
       <c r="O673" s="10"/>
       <c r="P673" s="10"/>
     </row>
-    <row r="674">
+    <row r="674" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G674" s="12"/>
       <c r="H674" s="10"/>
       <c r="I674" s="12"/>
@@ -7966,7 +7935,7 @@
       <c r="O674" s="10"/>
       <c r="P674" s="10"/>
     </row>
-    <row r="675">
+    <row r="675" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G675" s="12"/>
       <c r="H675" s="10"/>
       <c r="I675" s="12"/>
@@ -7977,7 +7946,7 @@
       <c r="O675" s="10"/>
       <c r="P675" s="10"/>
     </row>
-    <row r="676">
+    <row r="676" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G676" s="12"/>
       <c r="H676" s="10"/>
       <c r="I676" s="12"/>
@@ -7988,7 +7957,7 @@
       <c r="O676" s="10"/>
       <c r="P676" s="10"/>
     </row>
-    <row r="677">
+    <row r="677" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G677" s="12"/>
       <c r="H677" s="10"/>
       <c r="I677" s="12"/>
@@ -7999,7 +7968,7 @@
       <c r="O677" s="10"/>
       <c r="P677" s="10"/>
     </row>
-    <row r="678">
+    <row r="678" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G678" s="12"/>
       <c r="H678" s="10"/>
       <c r="I678" s="12"/>
@@ -8010,7 +7979,7 @@
       <c r="O678" s="10"/>
       <c r="P678" s="10"/>
     </row>
-    <row r="679">
+    <row r="679" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G679" s="12"/>
       <c r="H679" s="10"/>
       <c r="I679" s="12"/>
@@ -8021,7 +7990,7 @@
       <c r="O679" s="10"/>
       <c r="P679" s="10"/>
     </row>
-    <row r="680">
+    <row r="680" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G680" s="12"/>
       <c r="H680" s="10"/>
       <c r="I680" s="12"/>
@@ -8032,7 +8001,7 @@
       <c r="O680" s="10"/>
       <c r="P680" s="10"/>
     </row>
-    <row r="681">
+    <row r="681" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G681" s="12"/>
       <c r="H681" s="10"/>
       <c r="I681" s="12"/>
@@ -8043,7 +8012,7 @@
       <c r="O681" s="10"/>
       <c r="P681" s="10"/>
     </row>
-    <row r="682">
+    <row r="682" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G682" s="12"/>
       <c r="H682" s="10"/>
       <c r="I682" s="12"/>
@@ -8054,7 +8023,7 @@
       <c r="O682" s="10"/>
       <c r="P682" s="10"/>
     </row>
-    <row r="683">
+    <row r="683" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G683" s="12"/>
       <c r="H683" s="10"/>
       <c r="I683" s="12"/>
@@ -8065,7 +8034,7 @@
       <c r="O683" s="10"/>
       <c r="P683" s="10"/>
     </row>
-    <row r="684">
+    <row r="684" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G684" s="12"/>
       <c r="H684" s="10"/>
       <c r="I684" s="12"/>
@@ -8076,7 +8045,7 @@
       <c r="O684" s="10"/>
       <c r="P684" s="10"/>
     </row>
-    <row r="685">
+    <row r="685" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G685" s="12"/>
       <c r="H685" s="10"/>
       <c r="I685" s="12"/>
@@ -8087,7 +8056,7 @@
       <c r="O685" s="10"/>
       <c r="P685" s="10"/>
     </row>
-    <row r="686">
+    <row r="686" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G686" s="12"/>
       <c r="H686" s="10"/>
       <c r="I686" s="12"/>
@@ -8098,7 +8067,7 @@
       <c r="O686" s="10"/>
       <c r="P686" s="10"/>
     </row>
-    <row r="687">
+    <row r="687" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G687" s="12"/>
       <c r="H687" s="10"/>
       <c r="I687" s="12"/>
@@ -8109,7 +8078,7 @@
       <c r="O687" s="10"/>
       <c r="P687" s="10"/>
     </row>
-    <row r="688">
+    <row r="688" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G688" s="12"/>
       <c r="H688" s="10"/>
       <c r="I688" s="12"/>
@@ -8120,7 +8089,7 @@
       <c r="O688" s="10"/>
       <c r="P688" s="10"/>
     </row>
-    <row r="689">
+    <row r="689" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G689" s="12"/>
       <c r="H689" s="10"/>
       <c r="I689" s="12"/>
@@ -8131,7 +8100,7 @@
       <c r="O689" s="10"/>
       <c r="P689" s="10"/>
     </row>
-    <row r="690">
+    <row r="690" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G690" s="12"/>
       <c r="H690" s="10"/>
       <c r="I690" s="12"/>
@@ -8142,7 +8111,7 @@
       <c r="O690" s="10"/>
       <c r="P690" s="10"/>
     </row>
-    <row r="691">
+    <row r="691" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G691" s="12"/>
       <c r="H691" s="10"/>
       <c r="I691" s="12"/>
@@ -8153,7 +8122,7 @@
       <c r="O691" s="10"/>
       <c r="P691" s="10"/>
     </row>
-    <row r="692">
+    <row r="692" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G692" s="12"/>
       <c r="H692" s="10"/>
       <c r="I692" s="12"/>
@@ -8164,7 +8133,7 @@
       <c r="O692" s="10"/>
       <c r="P692" s="10"/>
     </row>
-    <row r="693">
+    <row r="693" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G693" s="12"/>
       <c r="H693" s="10"/>
       <c r="I693" s="12"/>
@@ -8175,7 +8144,7 @@
       <c r="O693" s="10"/>
       <c r="P693" s="10"/>
     </row>
-    <row r="694">
+    <row r="694" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G694" s="12"/>
       <c r="H694" s="10"/>
       <c r="I694" s="12"/>
@@ -8186,7 +8155,7 @@
       <c r="O694" s="10"/>
       <c r="P694" s="10"/>
     </row>
-    <row r="695">
+    <row r="695" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G695" s="12"/>
       <c r="H695" s="10"/>
       <c r="I695" s="12"/>
@@ -8197,7 +8166,7 @@
       <c r="O695" s="10"/>
       <c r="P695" s="10"/>
     </row>
-    <row r="696">
+    <row r="696" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G696" s="12"/>
       <c r="H696" s="10"/>
       <c r="I696" s="12"/>
@@ -8208,7 +8177,7 @@
       <c r="O696" s="10"/>
       <c r="P696" s="10"/>
     </row>
-    <row r="697">
+    <row r="697" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G697" s="12"/>
       <c r="H697" s="10"/>
       <c r="I697" s="12"/>
@@ -8219,7 +8188,7 @@
       <c r="O697" s="10"/>
       <c r="P697" s="10"/>
     </row>
-    <row r="698">
+    <row r="698" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G698" s="12"/>
       <c r="H698" s="10"/>
       <c r="I698" s="12"/>
@@ -8230,7 +8199,7 @@
       <c r="O698" s="10"/>
       <c r="P698" s="10"/>
     </row>
-    <row r="699">
+    <row r="699" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G699" s="12"/>
       <c r="H699" s="10"/>
       <c r="I699" s="12"/>
@@ -8241,7 +8210,7 @@
       <c r="O699" s="10"/>
       <c r="P699" s="10"/>
     </row>
-    <row r="700">
+    <row r="700" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G700" s="12"/>
       <c r="H700" s="10"/>
       <c r="I700" s="12"/>
@@ -8252,7 +8221,7 @@
       <c r="O700" s="10"/>
       <c r="P700" s="10"/>
     </row>
-    <row r="701">
+    <row r="701" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G701" s="12"/>
       <c r="H701" s="10"/>
       <c r="I701" s="12"/>
@@ -8263,7 +8232,7 @@
       <c r="O701" s="10"/>
       <c r="P701" s="10"/>
     </row>
-    <row r="702">
+    <row r="702" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G702" s="12"/>
       <c r="H702" s="10"/>
       <c r="I702" s="12"/>
@@ -8274,7 +8243,7 @@
       <c r="O702" s="10"/>
       <c r="P702" s="10"/>
     </row>
-    <row r="703">
+    <row r="703" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G703" s="12"/>
       <c r="H703" s="10"/>
       <c r="I703" s="12"/>
@@ -8285,7 +8254,7 @@
       <c r="O703" s="10"/>
       <c r="P703" s="10"/>
     </row>
-    <row r="704">
+    <row r="704" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G704" s="12"/>
       <c r="H704" s="10"/>
       <c r="I704" s="12"/>
@@ -8296,7 +8265,7 @@
       <c r="O704" s="10"/>
       <c r="P704" s="10"/>
     </row>
-    <row r="705">
+    <row r="705" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G705" s="12"/>
       <c r="H705" s="10"/>
       <c r="I705" s="12"/>
@@ -8307,7 +8276,7 @@
       <c r="O705" s="10"/>
       <c r="P705" s="10"/>
     </row>
-    <row r="706">
+    <row r="706" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G706" s="12"/>
       <c r="H706" s="10"/>
       <c r="I706" s="12"/>
@@ -8318,7 +8287,7 @@
       <c r="O706" s="10"/>
       <c r="P706" s="10"/>
     </row>
-    <row r="707">
+    <row r="707" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G707" s="12"/>
       <c r="H707" s="10"/>
       <c r="I707" s="12"/>
@@ -8329,7 +8298,7 @@
       <c r="O707" s="10"/>
       <c r="P707" s="10"/>
     </row>
-    <row r="708">
+    <row r="708" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G708" s="12"/>
       <c r="H708" s="10"/>
       <c r="I708" s="12"/>
@@ -8340,7 +8309,7 @@
       <c r="O708" s="10"/>
       <c r="P708" s="10"/>
     </row>
-    <row r="709">
+    <row r="709" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G709" s="12"/>
       <c r="H709" s="10"/>
       <c r="I709" s="12"/>
@@ -8351,7 +8320,7 @@
       <c r="O709" s="10"/>
       <c r="P709" s="10"/>
     </row>
-    <row r="710">
+    <row r="710" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G710" s="12"/>
       <c r="H710" s="10"/>
       <c r="I710" s="12"/>
@@ -8362,7 +8331,7 @@
       <c r="O710" s="10"/>
       <c r="P710" s="10"/>
     </row>
-    <row r="711">
+    <row r="711" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G711" s="12"/>
       <c r="H711" s="10"/>
       <c r="I711" s="12"/>
@@ -8373,7 +8342,7 @@
       <c r="O711" s="10"/>
       <c r="P711" s="10"/>
     </row>
-    <row r="712">
+    <row r="712" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G712" s="12"/>
       <c r="H712" s="10"/>
       <c r="I712" s="12"/>
@@ -8384,7 +8353,7 @@
       <c r="O712" s="10"/>
       <c r="P712" s="10"/>
     </row>
-    <row r="713">
+    <row r="713" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G713" s="12"/>
       <c r="H713" s="10"/>
       <c r="I713" s="12"/>
@@ -8395,7 +8364,7 @@
       <c r="O713" s="10"/>
       <c r="P713" s="10"/>
     </row>
-    <row r="714">
+    <row r="714" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G714" s="12"/>
       <c r="H714" s="10"/>
       <c r="I714" s="12"/>
@@ -8406,7 +8375,7 @@
       <c r="O714" s="10"/>
       <c r="P714" s="10"/>
     </row>
-    <row r="715">
+    <row r="715" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G715" s="12"/>
       <c r="H715" s="10"/>
       <c r="I715" s="12"/>
@@ -8417,7 +8386,7 @@
       <c r="O715" s="10"/>
       <c r="P715" s="10"/>
     </row>
-    <row r="716">
+    <row r="716" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G716" s="12"/>
       <c r="H716" s="10"/>
       <c r="I716" s="12"/>
@@ -8428,7 +8397,7 @@
       <c r="O716" s="10"/>
       <c r="P716" s="10"/>
     </row>
-    <row r="717">
+    <row r="717" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G717" s="12"/>
       <c r="H717" s="10"/>
       <c r="I717" s="12"/>
@@ -8439,7 +8408,7 @@
       <c r="O717" s="10"/>
       <c r="P717" s="10"/>
     </row>
-    <row r="718">
+    <row r="718" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G718" s="12"/>
       <c r="H718" s="10"/>
       <c r="I718" s="12"/>
@@ -8450,7 +8419,7 @@
       <c r="O718" s="10"/>
       <c r="P718" s="10"/>
     </row>
-    <row r="719">
+    <row r="719" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G719" s="12"/>
       <c r="H719" s="10"/>
       <c r="I719" s="12"/>
@@ -8461,7 +8430,7 @@
       <c r="O719" s="10"/>
       <c r="P719" s="10"/>
     </row>
-    <row r="720">
+    <row r="720" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G720" s="12"/>
       <c r="H720" s="10"/>
       <c r="I720" s="12"/>
@@ -8472,7 +8441,7 @@
       <c r="O720" s="10"/>
       <c r="P720" s="10"/>
     </row>
-    <row r="721">
+    <row r="721" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G721" s="12"/>
       <c r="H721" s="10"/>
       <c r="I721" s="12"/>
@@ -8483,7 +8452,7 @@
       <c r="O721" s="10"/>
       <c r="P721" s="10"/>
     </row>
-    <row r="722">
+    <row r="722" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G722" s="12"/>
       <c r="H722" s="10"/>
       <c r="I722" s="12"/>
@@ -8494,7 +8463,7 @@
       <c r="O722" s="10"/>
       <c r="P722" s="10"/>
     </row>
-    <row r="723">
+    <row r="723" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G723" s="12"/>
       <c r="H723" s="10"/>
       <c r="I723" s="12"/>
@@ -8505,7 +8474,7 @@
       <c r="O723" s="10"/>
       <c r="P723" s="10"/>
     </row>
-    <row r="724">
+    <row r="724" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G724" s="12"/>
       <c r="H724" s="10"/>
       <c r="I724" s="12"/>
@@ -8516,7 +8485,7 @@
       <c r="O724" s="10"/>
       <c r="P724" s="10"/>
     </row>
-    <row r="725">
+    <row r="725" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G725" s="12"/>
       <c r="H725" s="10"/>
       <c r="I725" s="12"/>
@@ -8527,7 +8496,7 @@
       <c r="O725" s="10"/>
       <c r="P725" s="10"/>
     </row>
-    <row r="726">
+    <row r="726" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G726" s="12"/>
       <c r="H726" s="10"/>
       <c r="I726" s="12"/>
@@ -8538,7 +8507,7 @@
       <c r="O726" s="10"/>
       <c r="P726" s="10"/>
     </row>
-    <row r="727">
+    <row r="727" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G727" s="12"/>
       <c r="H727" s="10"/>
       <c r="I727" s="12"/>
@@ -8549,7 +8518,7 @@
       <c r="O727" s="10"/>
       <c r="P727" s="10"/>
     </row>
-    <row r="728">
+    <row r="728" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G728" s="12"/>
       <c r="H728" s="10"/>
       <c r="I728" s="12"/>
@@ -8560,7 +8529,7 @@
       <c r="O728" s="10"/>
       <c r="P728" s="10"/>
     </row>
-    <row r="729">
+    <row r="729" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G729" s="12"/>
       <c r="H729" s="10"/>
       <c r="I729" s="12"/>
@@ -8571,7 +8540,7 @@
       <c r="O729" s="10"/>
       <c r="P729" s="10"/>
     </row>
-    <row r="730">
+    <row r="730" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G730" s="12"/>
       <c r="H730" s="10"/>
       <c r="I730" s="12"/>
@@ -8582,7 +8551,7 @@
       <c r="O730" s="10"/>
       <c r="P730" s="10"/>
     </row>
-    <row r="731">
+    <row r="731" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G731" s="12"/>
       <c r="H731" s="10"/>
       <c r="I731" s="12"/>
@@ -8593,7 +8562,7 @@
       <c r="O731" s="10"/>
       <c r="P731" s="10"/>
     </row>
-    <row r="732">
+    <row r="732" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G732" s="12"/>
       <c r="H732" s="10"/>
       <c r="I732" s="12"/>
@@ -8604,7 +8573,7 @@
       <c r="O732" s="10"/>
       <c r="P732" s="10"/>
     </row>
-    <row r="733">
+    <row r="733" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G733" s="12"/>
       <c r="H733" s="10"/>
       <c r="I733" s="12"/>
@@ -8615,7 +8584,7 @@
       <c r="O733" s="10"/>
       <c r="P733" s="10"/>
     </row>
-    <row r="734">
+    <row r="734" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G734" s="12"/>
       <c r="H734" s="10"/>
       <c r="I734" s="12"/>
@@ -8626,7 +8595,7 @@
       <c r="O734" s="10"/>
       <c r="P734" s="10"/>
     </row>
-    <row r="735">
+    <row r="735" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G735" s="12"/>
       <c r="H735" s="10"/>
       <c r="I735" s="12"/>
@@ -8637,7 +8606,7 @@
       <c r="O735" s="10"/>
       <c r="P735" s="10"/>
     </row>
-    <row r="736">
+    <row r="736" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G736" s="12"/>
       <c r="H736" s="10"/>
       <c r="I736" s="12"/>
@@ -8648,7 +8617,7 @@
       <c r="O736" s="10"/>
       <c r="P736" s="10"/>
     </row>
-    <row r="737">
+    <row r="737" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G737" s="12"/>
       <c r="H737" s="10"/>
       <c r="I737" s="12"/>
@@ -8659,7 +8628,7 @@
       <c r="O737" s="10"/>
       <c r="P737" s="10"/>
     </row>
-    <row r="738">
+    <row r="738" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G738" s="12"/>
       <c r="H738" s="10"/>
       <c r="I738" s="12"/>
@@ -8670,7 +8639,7 @@
       <c r="O738" s="10"/>
       <c r="P738" s="10"/>
     </row>
-    <row r="739">
+    <row r="739" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G739" s="12"/>
       <c r="H739" s="10"/>
       <c r="I739" s="12"/>
@@ -8681,7 +8650,7 @@
       <c r="O739" s="10"/>
       <c r="P739" s="10"/>
     </row>
-    <row r="740">
+    <row r="740" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G740" s="12"/>
       <c r="H740" s="10"/>
       <c r="I740" s="12"/>
@@ -8692,7 +8661,7 @@
       <c r="O740" s="10"/>
       <c r="P740" s="10"/>
     </row>
-    <row r="741">
+    <row r="741" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G741" s="12"/>
       <c r="H741" s="10"/>
       <c r="I741" s="12"/>
@@ -8703,7 +8672,7 @@
       <c r="O741" s="10"/>
       <c r="P741" s="10"/>
     </row>
-    <row r="742">
+    <row r="742" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G742" s="12"/>
       <c r="H742" s="10"/>
       <c r="I742" s="12"/>
@@ -8714,7 +8683,7 @@
       <c r="O742" s="10"/>
       <c r="P742" s="10"/>
     </row>
-    <row r="743">
+    <row r="743" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G743" s="12"/>
       <c r="H743" s="10"/>
       <c r="I743" s="12"/>
@@ -8725,7 +8694,7 @@
       <c r="O743" s="10"/>
       <c r="P743" s="10"/>
     </row>
-    <row r="744">
+    <row r="744" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G744" s="12"/>
       <c r="H744" s="10"/>
       <c r="I744" s="12"/>
@@ -8736,7 +8705,7 @@
       <c r="O744" s="10"/>
       <c r="P744" s="10"/>
     </row>
-    <row r="745">
+    <row r="745" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G745" s="12"/>
       <c r="H745" s="10"/>
       <c r="I745" s="12"/>
@@ -8747,7 +8716,7 @@
       <c r="O745" s="10"/>
       <c r="P745" s="10"/>
     </row>
-    <row r="746">
+    <row r="746" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G746" s="12"/>
       <c r="H746" s="10"/>
       <c r="I746" s="12"/>
@@ -8758,7 +8727,7 @@
       <c r="O746" s="10"/>
       <c r="P746" s="10"/>
     </row>
-    <row r="747">
+    <row r="747" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G747" s="12"/>
       <c r="H747" s="10"/>
       <c r="I747" s="12"/>
@@ -8769,7 +8738,7 @@
       <c r="O747" s="10"/>
       <c r="P747" s="10"/>
     </row>
-    <row r="748">
+    <row r="748" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G748" s="12"/>
       <c r="H748" s="10"/>
       <c r="I748" s="12"/>
@@ -8780,7 +8749,7 @@
       <c r="O748" s="10"/>
       <c r="P748" s="10"/>
     </row>
-    <row r="749">
+    <row r="749" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G749" s="12"/>
       <c r="H749" s="10"/>
       <c r="I749" s="12"/>
@@ -8791,7 +8760,7 @@
       <c r="O749" s="10"/>
       <c r="P749" s="10"/>
     </row>
-    <row r="750">
+    <row r="750" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G750" s="12"/>
       <c r="H750" s="10"/>
       <c r="I750" s="12"/>
@@ -8802,7 +8771,7 @@
       <c r="O750" s="10"/>
       <c r="P750" s="10"/>
     </row>
-    <row r="751">
+    <row r="751" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G751" s="12"/>
       <c r="H751" s="10"/>
       <c r="I751" s="12"/>
@@ -8813,7 +8782,7 @@
       <c r="O751" s="10"/>
       <c r="P751" s="10"/>
     </row>
-    <row r="752">
+    <row r="752" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G752" s="12"/>
       <c r="H752" s="10"/>
       <c r="I752" s="12"/>
@@ -8824,7 +8793,7 @@
       <c r="O752" s="10"/>
       <c r="P752" s="10"/>
     </row>
-    <row r="753">
+    <row r="753" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G753" s="12"/>
       <c r="H753" s="10"/>
       <c r="I753" s="12"/>
@@ -8835,7 +8804,7 @@
       <c r="O753" s="10"/>
       <c r="P753" s="10"/>
     </row>
-    <row r="754">
+    <row r="754" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G754" s="12"/>
       <c r="H754" s="10"/>
       <c r="I754" s="12"/>
@@ -8846,7 +8815,7 @@
       <c r="O754" s="10"/>
       <c r="P754" s="10"/>
     </row>
-    <row r="755">
+    <row r="755" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G755" s="12"/>
       <c r="H755" s="10"/>
       <c r="I755" s="12"/>
@@ -8857,7 +8826,7 @@
       <c r="O755" s="10"/>
       <c r="P755" s="10"/>
     </row>
-    <row r="756">
+    <row r="756" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G756" s="12"/>
       <c r="H756" s="10"/>
       <c r="I756" s="12"/>
@@ -8868,7 +8837,7 @@
       <c r="O756" s="10"/>
       <c r="P756" s="10"/>
     </row>
-    <row r="757">
+    <row r="757" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G757" s="12"/>
       <c r="H757" s="10"/>
       <c r="I757" s="12"/>
@@ -8879,7 +8848,7 @@
       <c r="O757" s="10"/>
       <c r="P757" s="10"/>
     </row>
-    <row r="758">
+    <row r="758" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G758" s="12"/>
       <c r="H758" s="10"/>
       <c r="I758" s="12"/>
@@ -8890,7 +8859,7 @@
       <c r="O758" s="10"/>
       <c r="P758" s="10"/>
     </row>
-    <row r="759">
+    <row r="759" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G759" s="12"/>
       <c r="H759" s="10"/>
       <c r="I759" s="12"/>
@@ -8901,7 +8870,7 @@
       <c r="O759" s="10"/>
       <c r="P759" s="10"/>
     </row>
-    <row r="760">
+    <row r="760" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G760" s="12"/>
       <c r="H760" s="10"/>
       <c r="I760" s="12"/>
@@ -8912,7 +8881,7 @@
       <c r="O760" s="10"/>
       <c r="P760" s="10"/>
     </row>
-    <row r="761">
+    <row r="761" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G761" s="12"/>
       <c r="H761" s="10"/>
       <c r="I761" s="12"/>
@@ -8923,7 +8892,7 @@
       <c r="O761" s="10"/>
       <c r="P761" s="10"/>
     </row>
-    <row r="762">
+    <row r="762" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G762" s="12"/>
       <c r="H762" s="10"/>
       <c r="I762" s="12"/>
@@ -8934,7 +8903,7 @@
       <c r="O762" s="10"/>
       <c r="P762" s="10"/>
     </row>
-    <row r="763">
+    <row r="763" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G763" s="12"/>
       <c r="H763" s="10"/>
       <c r="I763" s="12"/>
@@ -8945,7 +8914,7 @@
       <c r="O763" s="10"/>
       <c r="P763" s="10"/>
     </row>
-    <row r="764">
+    <row r="764" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G764" s="12"/>
       <c r="H764" s="10"/>
       <c r="I764" s="12"/>
@@ -8956,7 +8925,7 @@
       <c r="O764" s="10"/>
       <c r="P764" s="10"/>
     </row>
-    <row r="765">
+    <row r="765" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G765" s="12"/>
       <c r="H765" s="10"/>
       <c r="I765" s="12"/>
@@ -8967,7 +8936,7 @@
       <c r="O765" s="10"/>
       <c r="P765" s="10"/>
     </row>
-    <row r="766">
+    <row r="766" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G766" s="12"/>
       <c r="H766" s="10"/>
       <c r="I766" s="12"/>
@@ -8978,7 +8947,7 @@
       <c r="O766" s="10"/>
       <c r="P766" s="10"/>
     </row>
-    <row r="767">
+    <row r="767" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G767" s="12"/>
       <c r="H767" s="10"/>
       <c r="I767" s="12"/>
@@ -8989,7 +8958,7 @@
       <c r="O767" s="10"/>
       <c r="P767" s="10"/>
     </row>
-    <row r="768">
+    <row r="768" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G768" s="12"/>
       <c r="H768" s="10"/>
       <c r="I768" s="12"/>
@@ -9000,7 +8969,7 @@
       <c r="O768" s="10"/>
       <c r="P768" s="10"/>
     </row>
-    <row r="769">
+    <row r="769" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G769" s="12"/>
       <c r="H769" s="10"/>
       <c r="I769" s="12"/>
@@ -9011,7 +8980,7 @@
       <c r="O769" s="10"/>
       <c r="P769" s="10"/>
     </row>
-    <row r="770">
+    <row r="770" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G770" s="12"/>
       <c r="H770" s="10"/>
       <c r="I770" s="12"/>
@@ -9022,7 +8991,7 @@
       <c r="O770" s="10"/>
       <c r="P770" s="10"/>
     </row>
-    <row r="771">
+    <row r="771" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G771" s="12"/>
       <c r="H771" s="10"/>
       <c r="I771" s="12"/>
@@ -9033,7 +9002,7 @@
       <c r="O771" s="10"/>
       <c r="P771" s="10"/>
     </row>
-    <row r="772">
+    <row r="772" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G772" s="12"/>
       <c r="H772" s="10"/>
       <c r="I772" s="12"/>
@@ -9044,7 +9013,7 @@
       <c r="O772" s="10"/>
       <c r="P772" s="10"/>
     </row>
-    <row r="773">
+    <row r="773" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G773" s="12"/>
       <c r="H773" s="10"/>
       <c r="I773" s="12"/>
@@ -9055,7 +9024,7 @@
       <c r="O773" s="10"/>
       <c r="P773" s="10"/>
     </row>
-    <row r="774">
+    <row r="774" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G774" s="12"/>
       <c r="H774" s="10"/>
       <c r="I774" s="12"/>
@@ -9066,7 +9035,7 @@
       <c r="O774" s="10"/>
       <c r="P774" s="10"/>
     </row>
-    <row r="775">
+    <row r="775" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G775" s="12"/>
       <c r="H775" s="10"/>
       <c r="I775" s="12"/>
@@ -9077,7 +9046,7 @@
       <c r="O775" s="10"/>
       <c r="P775" s="10"/>
     </row>
-    <row r="776">
+    <row r="776" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G776" s="12"/>
       <c r="H776" s="10"/>
       <c r="I776" s="12"/>
@@ -9088,7 +9057,7 @@
       <c r="O776" s="10"/>
       <c r="P776" s="10"/>
     </row>
-    <row r="777">
+    <row r="777" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G777" s="12"/>
       <c r="H777" s="10"/>
       <c r="I777" s="12"/>
@@ -9099,7 +9068,7 @@
       <c r="O777" s="10"/>
       <c r="P777" s="10"/>
     </row>
-    <row r="778">
+    <row r="778" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G778" s="12"/>
       <c r="H778" s="10"/>
       <c r="I778" s="12"/>
@@ -9110,7 +9079,7 @@
       <c r="O778" s="10"/>
       <c r="P778" s="10"/>
     </row>
-    <row r="779">
+    <row r="779" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G779" s="12"/>
       <c r="H779" s="10"/>
       <c r="I779" s="12"/>
@@ -9121,7 +9090,7 @@
       <c r="O779" s="10"/>
       <c r="P779" s="10"/>
     </row>
-    <row r="780">
+    <row r="780" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G780" s="12"/>
       <c r="H780" s="10"/>
       <c r="I780" s="12"/>
@@ -9132,7 +9101,7 @@
       <c r="O780" s="10"/>
       <c r="P780" s="10"/>
     </row>
-    <row r="781">
+    <row r="781" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G781" s="12"/>
       <c r="H781" s="10"/>
       <c r="I781" s="12"/>
@@ -9143,7 +9112,7 @@
       <c r="O781" s="10"/>
       <c r="P781" s="10"/>
     </row>
-    <row r="782">
+    <row r="782" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G782" s="12"/>
       <c r="H782" s="10"/>
       <c r="I782" s="12"/>
@@ -9154,7 +9123,7 @@
       <c r="O782" s="10"/>
       <c r="P782" s="10"/>
     </row>
-    <row r="783">
+    <row r="783" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G783" s="12"/>
       <c r="H783" s="10"/>
       <c r="I783" s="12"/>
@@ -9165,7 +9134,7 @@
       <c r="O783" s="10"/>
       <c r="P783" s="10"/>
     </row>
-    <row r="784">
+    <row r="784" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G784" s="12"/>
       <c r="H784" s="10"/>
       <c r="I784" s="12"/>
@@ -9176,7 +9145,7 @@
       <c r="O784" s="10"/>
       <c r="P784" s="10"/>
     </row>
-    <row r="785">
+    <row r="785" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G785" s="12"/>
       <c r="H785" s="10"/>
       <c r="I785" s="12"/>
@@ -9187,7 +9156,7 @@
       <c r="O785" s="10"/>
       <c r="P785" s="10"/>
     </row>
-    <row r="786">
+    <row r="786" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G786" s="12"/>
       <c r="H786" s="10"/>
       <c r="I786" s="12"/>
@@ -9198,7 +9167,7 @@
       <c r="O786" s="10"/>
       <c r="P786" s="10"/>
     </row>
-    <row r="787">
+    <row r="787" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G787" s="12"/>
       <c r="H787" s="10"/>
       <c r="I787" s="12"/>
@@ -9209,7 +9178,7 @@
       <c r="O787" s="10"/>
       <c r="P787" s="10"/>
     </row>
-    <row r="788">
+    <row r="788" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G788" s="12"/>
       <c r="H788" s="10"/>
       <c r="I788" s="12"/>
@@ -9220,7 +9189,7 @@
       <c r="O788" s="10"/>
       <c r="P788" s="10"/>
     </row>
-    <row r="789">
+    <row r="789" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G789" s="12"/>
       <c r="H789" s="10"/>
       <c r="I789" s="12"/>
@@ -9231,7 +9200,7 @@
       <c r="O789" s="10"/>
       <c r="P789" s="10"/>
     </row>
-    <row r="790">
+    <row r="790" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G790" s="12"/>
       <c r="H790" s="10"/>
       <c r="I790" s="12"/>
@@ -9242,7 +9211,7 @@
       <c r="O790" s="10"/>
       <c r="P790" s="10"/>
     </row>
-    <row r="791">
+    <row r="791" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G791" s="12"/>
       <c r="H791" s="10"/>
       <c r="I791" s="12"/>
@@ -9253,7 +9222,7 @@
       <c r="O791" s="10"/>
       <c r="P791" s="10"/>
     </row>
-    <row r="792">
+    <row r="792" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G792" s="12"/>
       <c r="H792" s="10"/>
       <c r="I792" s="12"/>
@@ -9264,7 +9233,7 @@
       <c r="O792" s="10"/>
       <c r="P792" s="10"/>
     </row>
-    <row r="793">
+    <row r="793" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G793" s="12"/>
       <c r="H793" s="10"/>
       <c r="I793" s="12"/>
@@ -9275,7 +9244,7 @@
       <c r="O793" s="10"/>
       <c r="P793" s="10"/>
     </row>
-    <row r="794">
+    <row r="794" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G794" s="12"/>
       <c r="H794" s="10"/>
       <c r="I794" s="12"/>
@@ -9286,7 +9255,7 @@
       <c r="O794" s="10"/>
       <c r="P794" s="10"/>
     </row>
-    <row r="795">
+    <row r="795" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G795" s="12"/>
       <c r="H795" s="10"/>
       <c r="I795" s="12"/>
@@ -9297,7 +9266,7 @@
       <c r="O795" s="10"/>
       <c r="P795" s="10"/>
     </row>
-    <row r="796">
+    <row r="796" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G796" s="12"/>
       <c r="H796" s="10"/>
       <c r="I796" s="12"/>
@@ -9308,7 +9277,7 @@
       <c r="O796" s="10"/>
       <c r="P796" s="10"/>
     </row>
-    <row r="797">
+    <row r="797" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G797" s="12"/>
       <c r="H797" s="10"/>
       <c r="I797" s="12"/>
@@ -9319,7 +9288,7 @@
       <c r="O797" s="10"/>
       <c r="P797" s="10"/>
     </row>
-    <row r="798">
+    <row r="798" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G798" s="12"/>
       <c r="H798" s="10"/>
       <c r="I798" s="12"/>
@@ -9330,7 +9299,7 @@
       <c r="O798" s="10"/>
       <c r="P798" s="10"/>
     </row>
-    <row r="799">
+    <row r="799" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G799" s="12"/>
       <c r="H799" s="10"/>
       <c r="I799" s="12"/>
@@ -9341,7 +9310,7 @@
       <c r="O799" s="10"/>
       <c r="P799" s="10"/>
     </row>
-    <row r="800">
+    <row r="800" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G800" s="12"/>
       <c r="H800" s="10"/>
       <c r="I800" s="12"/>
@@ -9352,7 +9321,7 @@
       <c r="O800" s="10"/>
       <c r="P800" s="10"/>
     </row>
-    <row r="801">
+    <row r="801" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G801" s="12"/>
       <c r="H801" s="10"/>
       <c r="I801" s="12"/>
@@ -9363,7 +9332,7 @@
       <c r="O801" s="10"/>
       <c r="P801" s="10"/>
     </row>
-    <row r="802">
+    <row r="802" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G802" s="12"/>
       <c r="H802" s="10"/>
       <c r="I802" s="12"/>
@@ -9374,7 +9343,7 @@
       <c r="O802" s="10"/>
       <c r="P802" s="10"/>
     </row>
-    <row r="803">
+    <row r="803" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G803" s="12"/>
       <c r="H803" s="10"/>
       <c r="I803" s="12"/>
@@ -9385,7 +9354,7 @@
       <c r="O803" s="10"/>
       <c r="P803" s="10"/>
     </row>
-    <row r="804">
+    <row r="804" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G804" s="12"/>
       <c r="H804" s="10"/>
       <c r="I804" s="12"/>
@@ -9396,7 +9365,7 @@
       <c r="O804" s="10"/>
       <c r="P804" s="10"/>
     </row>
-    <row r="805">
+    <row r="805" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G805" s="12"/>
       <c r="H805" s="10"/>
       <c r="I805" s="12"/>
@@ -9407,7 +9376,7 @@
       <c r="O805" s="10"/>
       <c r="P805" s="10"/>
     </row>
-    <row r="806">
+    <row r="806" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G806" s="12"/>
       <c r="H806" s="10"/>
       <c r="I806" s="12"/>
@@ -9418,7 +9387,7 @@
       <c r="O806" s="10"/>
       <c r="P806" s="10"/>
     </row>
-    <row r="807">
+    <row r="807" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G807" s="12"/>
       <c r="H807" s="10"/>
       <c r="I807" s="12"/>
@@ -9429,7 +9398,7 @@
       <c r="O807" s="10"/>
       <c r="P807" s="10"/>
     </row>
-    <row r="808">
+    <row r="808" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G808" s="12"/>
       <c r="H808" s="10"/>
       <c r="I808" s="12"/>
@@ -9440,7 +9409,7 @@
       <c r="O808" s="10"/>
       <c r="P808" s="10"/>
     </row>
-    <row r="809">
+    <row r="809" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G809" s="12"/>
       <c r="H809" s="10"/>
       <c r="I809" s="12"/>
@@ -9451,7 +9420,7 @@
       <c r="O809" s="10"/>
       <c r="P809" s="10"/>
     </row>
-    <row r="810">
+    <row r="810" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G810" s="12"/>
       <c r="H810" s="10"/>
       <c r="I810" s="12"/>
@@ -9462,7 +9431,7 @@
       <c r="O810" s="10"/>
       <c r="P810" s="10"/>
     </row>
-    <row r="811">
+    <row r="811" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G811" s="12"/>
       <c r="H811" s="10"/>
       <c r="I811" s="12"/>
@@ -9473,7 +9442,7 @@
       <c r="O811" s="10"/>
       <c r="P811" s="10"/>
     </row>
-    <row r="812">
+    <row r="812" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G812" s="12"/>
       <c r="H812" s="10"/>
       <c r="I812" s="12"/>
@@ -9484,7 +9453,7 @@
       <c r="O812" s="10"/>
       <c r="P812" s="10"/>
     </row>
-    <row r="813">
+    <row r="813" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G813" s="12"/>
       <c r="H813" s="10"/>
       <c r="I813" s="12"/>
@@ -9495,7 +9464,7 @@
       <c r="O813" s="10"/>
       <c r="P813" s="10"/>
     </row>
-    <row r="814">
+    <row r="814" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G814" s="12"/>
       <c r="H814" s="10"/>
       <c r="I814" s="12"/>
@@ -9506,7 +9475,7 @@
       <c r="O814" s="10"/>
       <c r="P814" s="10"/>
     </row>
-    <row r="815">
+    <row r="815" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G815" s="12"/>
       <c r="H815" s="10"/>
       <c r="I815" s="12"/>
@@ -9517,7 +9486,7 @@
       <c r="O815" s="10"/>
       <c r="P815" s="10"/>
     </row>
-    <row r="816">
+    <row r="816" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G816" s="12"/>
       <c r="H816" s="10"/>
       <c r="I816" s="12"/>
@@ -9528,7 +9497,7 @@
       <c r="O816" s="10"/>
       <c r="P816" s="10"/>
     </row>
-    <row r="817">
+    <row r="817" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G817" s="12"/>
       <c r="H817" s="10"/>
       <c r="I817" s="12"/>
@@ -9539,7 +9508,7 @@
       <c r="O817" s="10"/>
       <c r="P817" s="10"/>
     </row>
-    <row r="818">
+    <row r="818" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G818" s="12"/>
       <c r="H818" s="10"/>
       <c r="I818" s="12"/>
@@ -9550,7 +9519,7 @@
       <c r="O818" s="10"/>
       <c r="P818" s="10"/>
     </row>
-    <row r="819">
+    <row r="819" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G819" s="12"/>
       <c r="H819" s="10"/>
       <c r="I819" s="12"/>
@@ -9561,7 +9530,7 @@
       <c r="O819" s="10"/>
       <c r="P819" s="10"/>
     </row>
-    <row r="820">
+    <row r="820" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G820" s="12"/>
       <c r="H820" s="10"/>
       <c r="I820" s="12"/>
@@ -9572,7 +9541,7 @@
       <c r="O820" s="10"/>
       <c r="P820" s="10"/>
     </row>
-    <row r="821">
+    <row r="821" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G821" s="12"/>
       <c r="H821" s="10"/>
       <c r="I821" s="12"/>
@@ -9583,7 +9552,7 @@
       <c r="O821" s="10"/>
       <c r="P821" s="10"/>
     </row>
-    <row r="822">
+    <row r="822" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G822" s="12"/>
       <c r="H822" s="10"/>
       <c r="I822" s="12"/>
@@ -9594,7 +9563,7 @@
       <c r="O822" s="10"/>
       <c r="P822" s="10"/>
     </row>
-    <row r="823">
+    <row r="823" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G823" s="12"/>
       <c r="H823" s="10"/>
       <c r="I823" s="12"/>
@@ -9605,7 +9574,7 @@
       <c r="O823" s="10"/>
       <c r="P823" s="10"/>
     </row>
-    <row r="824">
+    <row r="824" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G824" s="12"/>
       <c r="H824" s="10"/>
       <c r="I824" s="12"/>
@@ -9616,7 +9585,7 @@
       <c r="O824" s="10"/>
       <c r="P824" s="10"/>
     </row>
-    <row r="825">
+    <row r="825" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G825" s="12"/>
       <c r="H825" s="10"/>
       <c r="I825" s="12"/>
@@ -9627,7 +9596,7 @@
       <c r="O825" s="10"/>
       <c r="P825" s="10"/>
     </row>
-    <row r="826">
+    <row r="826" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G826" s="12"/>
       <c r="H826" s="10"/>
       <c r="I826" s="12"/>
@@ -9638,7 +9607,7 @@
       <c r="O826" s="10"/>
       <c r="P826" s="10"/>
     </row>
-    <row r="827">
+    <row r="827" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G827" s="12"/>
       <c r="H827" s="10"/>
       <c r="I827" s="12"/>
@@ -9649,7 +9618,7 @@
       <c r="O827" s="10"/>
       <c r="P827" s="10"/>
     </row>
-    <row r="828">
+    <row r="828" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G828" s="12"/>
       <c r="H828" s="10"/>
       <c r="I828" s="12"/>
@@ -9660,7 +9629,7 @@
       <c r="O828" s="10"/>
       <c r="P828" s="10"/>
     </row>
-    <row r="829">
+    <row r="829" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G829" s="12"/>
       <c r="H829" s="10"/>
       <c r="I829" s="12"/>
@@ -9671,7 +9640,7 @@
       <c r="O829" s="10"/>
       <c r="P829" s="10"/>
     </row>
-    <row r="830">
+    <row r="830" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G830" s="12"/>
       <c r="H830" s="10"/>
       <c r="I830" s="12"/>
@@ -9682,7 +9651,7 @@
       <c r="O830" s="10"/>
       <c r="P830" s="10"/>
     </row>
-    <row r="831">
+    <row r="831" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G831" s="12"/>
       <c r="H831" s="10"/>
       <c r="I831" s="12"/>
@@ -9693,7 +9662,7 @@
       <c r="O831" s="10"/>
       <c r="P831" s="10"/>
     </row>
-    <row r="832">
+    <row r="832" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G832" s="12"/>
       <c r="H832" s="10"/>
       <c r="I832" s="12"/>
@@ -9704,7 +9673,7 @@
       <c r="O832" s="10"/>
       <c r="P832" s="10"/>
     </row>
-    <row r="833">
+    <row r="833" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G833" s="12"/>
       <c r="H833" s="10"/>
       <c r="I833" s="12"/>
@@ -9715,7 +9684,7 @@
       <c r="O833" s="10"/>
       <c r="P833" s="10"/>
     </row>
-    <row r="834">
+    <row r="834" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G834" s="12"/>
       <c r="H834" s="10"/>
       <c r="I834" s="12"/>
@@ -9726,7 +9695,7 @@
       <c r="O834" s="10"/>
       <c r="P834" s="10"/>
     </row>
-    <row r="835">
+    <row r="835" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G835" s="12"/>
       <c r="H835" s="10"/>
       <c r="I835" s="12"/>
@@ -9737,7 +9706,7 @@
       <c r="O835" s="10"/>
       <c r="P835" s="10"/>
     </row>
-    <row r="836">
+    <row r="836" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G836" s="12"/>
       <c r="H836" s="10"/>
       <c r="I836" s="12"/>
@@ -9748,7 +9717,7 @@
       <c r="O836" s="10"/>
       <c r="P836" s="10"/>
     </row>
-    <row r="837">
+    <row r="837" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G837" s="12"/>
       <c r="H837" s="10"/>
       <c r="I837" s="12"/>
@@ -9759,7 +9728,7 @@
       <c r="O837" s="10"/>
       <c r="P837" s="10"/>
     </row>
-    <row r="838">
+    <row r="838" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G838" s="12"/>
       <c r="H838" s="10"/>
       <c r="I838" s="12"/>
@@ -9770,7 +9739,7 @@
       <c r="O838" s="10"/>
       <c r="P838" s="10"/>
     </row>
-    <row r="839">
+    <row r="839" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G839" s="12"/>
       <c r="H839" s="10"/>
       <c r="I839" s="12"/>
@@ -9781,7 +9750,7 @@
       <c r="O839" s="10"/>
       <c r="P839" s="10"/>
     </row>
-    <row r="840">
+    <row r="840" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G840" s="12"/>
       <c r="H840" s="10"/>
       <c r="I840" s="12"/>
@@ -9792,7 +9761,7 @@
       <c r="O840" s="10"/>
       <c r="P840" s="10"/>
     </row>
-    <row r="841">
+    <row r="841" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G841" s="12"/>
       <c r="H841" s="10"/>
       <c r="I841" s="12"/>
@@ -9803,7 +9772,7 @@
       <c r="O841" s="10"/>
       <c r="P841" s="10"/>
     </row>
-    <row r="842">
+    <row r="842" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G842" s="12"/>
       <c r="H842" s="10"/>
       <c r="I842" s="12"/>
@@ -9814,7 +9783,7 @@
       <c r="O842" s="10"/>
       <c r="P842" s="10"/>
     </row>
-    <row r="843">
+    <row r="843" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G843" s="12"/>
       <c r="H843" s="10"/>
       <c r="I843" s="12"/>
@@ -9825,7 +9794,7 @@
       <c r="O843" s="10"/>
       <c r="P843" s="10"/>
     </row>
-    <row r="844">
+    <row r="844" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G844" s="12"/>
       <c r="H844" s="10"/>
       <c r="I844" s="12"/>
@@ -9836,7 +9805,7 @@
       <c r="O844" s="10"/>
       <c r="P844" s="10"/>
     </row>
-    <row r="845">
+    <row r="845" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G845" s="12"/>
       <c r="H845" s="10"/>
       <c r="I845" s="12"/>
@@ -9847,7 +9816,7 @@
       <c r="O845" s="10"/>
       <c r="P845" s="10"/>
     </row>
-    <row r="846">
+    <row r="846" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G846" s="12"/>
       <c r="H846" s="10"/>
       <c r="I846" s="12"/>
@@ -9858,7 +9827,7 @@
       <c r="O846" s="10"/>
       <c r="P846" s="10"/>
     </row>
-    <row r="847">
+    <row r="847" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G847" s="12"/>
       <c r="H847" s="10"/>
       <c r="I847" s="12"/>
@@ -9869,7 +9838,7 @@
       <c r="O847" s="10"/>
       <c r="P847" s="10"/>
     </row>
-    <row r="848">
+    <row r="848" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G848" s="12"/>
       <c r="H848" s="10"/>
       <c r="I848" s="12"/>
@@ -9880,7 +9849,7 @@
       <c r="O848" s="10"/>
       <c r="P848" s="10"/>
     </row>
-    <row r="849">
+    <row r="849" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G849" s="12"/>
       <c r="H849" s="10"/>
       <c r="I849" s="12"/>
@@ -9891,7 +9860,7 @@
       <c r="O849" s="10"/>
       <c r="P849" s="10"/>
     </row>
-    <row r="850">
+    <row r="850" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G850" s="12"/>
       <c r="H850" s="10"/>
       <c r="I850" s="12"/>
@@ -9902,7 +9871,7 @@
       <c r="O850" s="10"/>
       <c r="P850" s="10"/>
     </row>
-    <row r="851">
+    <row r="851" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G851" s="12"/>
       <c r="H851" s="10"/>
       <c r="I851" s="12"/>
@@ -9913,7 +9882,7 @@
       <c r="O851" s="10"/>
       <c r="P851" s="10"/>
     </row>
-    <row r="852">
+    <row r="852" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G852" s="12"/>
       <c r="H852" s="10"/>
       <c r="I852" s="12"/>
@@ -9924,7 +9893,7 @@
       <c r="O852" s="10"/>
       <c r="P852" s="10"/>
     </row>
-    <row r="853">
+    <row r="853" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G853" s="12"/>
       <c r="H853" s="10"/>
       <c r="I853" s="12"/>
@@ -9935,7 +9904,7 @@
       <c r="O853" s="10"/>
       <c r="P853" s="10"/>
     </row>
-    <row r="854">
+    <row r="854" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G854" s="12"/>
       <c r="H854" s="10"/>
       <c r="I854" s="12"/>
@@ -9946,7 +9915,7 @@
       <c r="O854" s="10"/>
       <c r="P854" s="10"/>
     </row>
-    <row r="855">
+    <row r="855" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G855" s="12"/>
       <c r="H855" s="10"/>
       <c r="I855" s="12"/>
@@ -9957,7 +9926,7 @@
       <c r="O855" s="10"/>
       <c r="P855" s="10"/>
     </row>
-    <row r="856">
+    <row r="856" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G856" s="12"/>
       <c r="H856" s="10"/>
       <c r="I856" s="12"/>
@@ -9968,7 +9937,7 @@
       <c r="O856" s="10"/>
       <c r="P856" s="10"/>
     </row>
-    <row r="857">
+    <row r="857" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G857" s="12"/>
       <c r="H857" s="10"/>
       <c r="I857" s="12"/>
@@ -9979,7 +9948,7 @@
       <c r="O857" s="10"/>
       <c r="P857" s="10"/>
     </row>
-    <row r="858">
+    <row r="858" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G858" s="12"/>
       <c r="H858" s="10"/>
       <c r="I858" s="12"/>
@@ -9990,7 +9959,7 @@
       <c r="O858" s="10"/>
       <c r="P858" s="10"/>
     </row>
-    <row r="859">
+    <row r="859" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G859" s="12"/>
       <c r="H859" s="10"/>
       <c r="I859" s="12"/>
@@ -10001,7 +9970,7 @@
       <c r="O859" s="10"/>
       <c r="P859" s="10"/>
     </row>
-    <row r="860">
+    <row r="860" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G860" s="12"/>
       <c r="H860" s="10"/>
       <c r="I860" s="12"/>
@@ -10012,7 +9981,7 @@
       <c r="O860" s="10"/>
       <c r="P860" s="10"/>
     </row>
-    <row r="861">
+    <row r="861" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G861" s="12"/>
       <c r="H861" s="10"/>
       <c r="I861" s="12"/>
@@ -10023,7 +9992,7 @@
       <c r="O861" s="10"/>
       <c r="P861" s="10"/>
     </row>
-    <row r="862">
+    <row r="862" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G862" s="12"/>
       <c r="H862" s="10"/>
       <c r="I862" s="12"/>
@@ -10034,7 +10003,7 @@
       <c r="O862" s="10"/>
       <c r="P862" s="10"/>
     </row>
-    <row r="863">
+    <row r="863" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G863" s="12"/>
       <c r="H863" s="10"/>
       <c r="I863" s="12"/>
@@ -10045,7 +10014,7 @@
       <c r="O863" s="10"/>
       <c r="P863" s="10"/>
     </row>
-    <row r="864">
+    <row r="864" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G864" s="12"/>
       <c r="H864" s="10"/>
       <c r="I864" s="12"/>
@@ -10056,7 +10025,7 @@
       <c r="O864" s="10"/>
       <c r="P864" s="10"/>
     </row>
-    <row r="865">
+    <row r="865" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G865" s="12"/>
       <c r="H865" s="10"/>
       <c r="I865" s="12"/>
@@ -10067,7 +10036,7 @@
       <c r="O865" s="10"/>
       <c r="P865" s="10"/>
     </row>
-    <row r="866">
+    <row r="866" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G866" s="12"/>
       <c r="H866" s="10"/>
       <c r="I866" s="12"/>
@@ -10078,7 +10047,7 @@
       <c r="O866" s="10"/>
       <c r="P866" s="10"/>
     </row>
-    <row r="867">
+    <row r="867" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G867" s="12"/>
       <c r="H867" s="10"/>
       <c r="I867" s="12"/>
@@ -10089,7 +10058,7 @@
       <c r="O867" s="10"/>
       <c r="P867" s="10"/>
     </row>
-    <row r="868">
+    <row r="868" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G868" s="12"/>
       <c r="H868" s="10"/>
       <c r="I868" s="12"/>
@@ -10100,7 +10069,7 @@
       <c r="O868" s="10"/>
       <c r="P868" s="10"/>
     </row>
-    <row r="869">
+    <row r="869" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G869" s="12"/>
       <c r="H869" s="10"/>
       <c r="I869" s="12"/>
@@ -10111,7 +10080,7 @@
       <c r="O869" s="10"/>
       <c r="P869" s="10"/>
     </row>
-    <row r="870">
+    <row r="870" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G870" s="12"/>
       <c r="H870" s="10"/>
       <c r="I870" s="12"/>
@@ -10122,7 +10091,7 @@
       <c r="O870" s="10"/>
       <c r="P870" s="10"/>
     </row>
-    <row r="871">
+    <row r="871" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G871" s="12"/>
       <c r="H871" s="10"/>
       <c r="I871" s="12"/>
@@ -10133,7 +10102,7 @@
       <c r="O871" s="10"/>
       <c r="P871" s="10"/>
     </row>
-    <row r="872">
+    <row r="872" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G872" s="12"/>
       <c r="H872" s="10"/>
       <c r="I872" s="12"/>
@@ -10144,7 +10113,7 @@
       <c r="O872" s="10"/>
       <c r="P872" s="10"/>
     </row>
-    <row r="873">
+    <row r="873" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G873" s="12"/>
       <c r="H873" s="10"/>
       <c r="I873" s="12"/>
@@ -10155,7 +10124,7 @@
       <c r="O873" s="10"/>
       <c r="P873" s="10"/>
     </row>
-    <row r="874">
+    <row r="874" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G874" s="12"/>
       <c r="H874" s="10"/>
       <c r="I874" s="12"/>
@@ -10166,7 +10135,7 @@
       <c r="O874" s="10"/>
       <c r="P874" s="10"/>
     </row>
-    <row r="875">
+    <row r="875" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G875" s="12"/>
       <c r="H875" s="10"/>
       <c r="I875" s="12"/>
@@ -10177,7 +10146,7 @@
       <c r="O875" s="10"/>
       <c r="P875" s="10"/>
     </row>
-    <row r="876">
+    <row r="876" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G876" s="12"/>
       <c r="H876" s="10"/>
       <c r="I876" s="12"/>
@@ -10188,7 +10157,7 @@
       <c r="O876" s="10"/>
       <c r="P876" s="10"/>
     </row>
-    <row r="877">
+    <row r="877" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G877" s="12"/>
       <c r="H877" s="10"/>
       <c r="I877" s="12"/>
@@ -10199,7 +10168,7 @@
       <c r="O877" s="10"/>
       <c r="P877" s="10"/>
     </row>
-    <row r="878">
+    <row r="878" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G878" s="12"/>
       <c r="H878" s="10"/>
       <c r="I878" s="12"/>
@@ -10210,7 +10179,7 @@
       <c r="O878" s="10"/>
       <c r="P878" s="10"/>
     </row>
-    <row r="879">
+    <row r="879" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G879" s="12"/>
       <c r="H879" s="10"/>
       <c r="I879" s="12"/>
@@ -10221,7 +10190,7 @@
       <c r="O879" s="10"/>
       <c r="P879" s="10"/>
     </row>
-    <row r="880">
+    <row r="880" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G880" s="12"/>
       <c r="H880" s="10"/>
       <c r="I880" s="12"/>
@@ -10232,7 +10201,7 @@
       <c r="O880" s="10"/>
       <c r="P880" s="10"/>
     </row>
-    <row r="881">
+    <row r="881" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G881" s="12"/>
       <c r="H881" s="10"/>
       <c r="I881" s="12"/>
@@ -10243,7 +10212,7 @@
       <c r="O881" s="10"/>
       <c r="P881" s="10"/>
     </row>
-    <row r="882">
+    <row r="882" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G882" s="12"/>
       <c r="H882" s="10"/>
       <c r="I882" s="12"/>
@@ -10254,7 +10223,7 @@
       <c r="O882" s="10"/>
       <c r="P882" s="10"/>
     </row>
-    <row r="883">
+    <row r="883" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G883" s="12"/>
       <c r="H883" s="10"/>
       <c r="I883" s="12"/>
@@ -10265,7 +10234,7 @@
       <c r="O883" s="10"/>
       <c r="P883" s="10"/>
     </row>
-    <row r="884">
+    <row r="884" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G884" s="12"/>
       <c r="H884" s="10"/>
       <c r="I884" s="12"/>
@@ -10276,7 +10245,7 @@
       <c r="O884" s="10"/>
       <c r="P884" s="10"/>
     </row>
-    <row r="885">
+    <row r="885" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G885" s="12"/>
       <c r="H885" s="10"/>
       <c r="I885" s="12"/>
@@ -10287,7 +10256,7 @@
       <c r="O885" s="10"/>
       <c r="P885" s="10"/>
     </row>
-    <row r="886">
+    <row r="886" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G886" s="12"/>
       <c r="H886" s="10"/>
       <c r="I886" s="12"/>
@@ -10298,7 +10267,7 @@
       <c r="O886" s="10"/>
       <c r="P886" s="10"/>
     </row>
-    <row r="887">
+    <row r="887" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G887" s="12"/>
       <c r="H887" s="10"/>
       <c r="I887" s="12"/>
@@ -10309,7 +10278,7 @@
       <c r="O887" s="10"/>
       <c r="P887" s="10"/>
     </row>
-    <row r="888">
+    <row r="888" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G888" s="12"/>
       <c r="H888" s="10"/>
       <c r="I888" s="12"/>
@@ -10320,7 +10289,7 @@
       <c r="O888" s="10"/>
       <c r="P888" s="10"/>
     </row>
-    <row r="889">
+    <row r="889" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G889" s="12"/>
       <c r="H889" s="10"/>
       <c r="I889" s="12"/>
@@ -10331,7 +10300,7 @@
       <c r="O889" s="10"/>
       <c r="P889" s="10"/>
     </row>
-    <row r="890">
+    <row r="890" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G890" s="12"/>
       <c r="H890" s="10"/>
       <c r="I890" s="12"/>
@@ -10342,7 +10311,7 @@
       <c r="O890" s="10"/>
       <c r="P890" s="10"/>
     </row>
-    <row r="891">
+    <row r="891" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G891" s="12"/>
       <c r="H891" s="10"/>
       <c r="I891" s="12"/>
@@ -10353,7 +10322,7 @@
       <c r="O891" s="10"/>
       <c r="P891" s="10"/>
     </row>
-    <row r="892">
+    <row r="892" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G892" s="12"/>
       <c r="H892" s="10"/>
       <c r="I892" s="12"/>
@@ -10364,7 +10333,7 @@
       <c r="O892" s="10"/>
       <c r="P892" s="10"/>
     </row>
-    <row r="893">
+    <row r="893" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G893" s="12"/>
       <c r="H893" s="10"/>
       <c r="I893" s="12"/>
@@ -10375,7 +10344,7 @@
       <c r="O893" s="10"/>
       <c r="P893" s="10"/>
     </row>
-    <row r="894">
+    <row r="894" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G894" s="12"/>
       <c r="H894" s="10"/>
       <c r="I894" s="12"/>
@@ -10386,7 +10355,7 @@
       <c r="O894" s="10"/>
       <c r="P894" s="10"/>
     </row>
-    <row r="895">
+    <row r="895" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G895" s="12"/>
       <c r="H895" s="10"/>
       <c r="I895" s="12"/>
@@ -10397,7 +10366,7 @@
       <c r="O895" s="10"/>
       <c r="P895" s="10"/>
     </row>
-    <row r="896">
+    <row r="896" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G896" s="12"/>
       <c r="H896" s="10"/>
       <c r="I896" s="12"/>
@@ -10408,7 +10377,7 @@
       <c r="O896" s="10"/>
       <c r="P896" s="10"/>
     </row>
-    <row r="897">
+    <row r="897" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G897" s="12"/>
       <c r="H897" s="10"/>
       <c r="I897" s="12"/>
@@ -10419,7 +10388,7 @@
       <c r="O897" s="10"/>
       <c r="P897" s="10"/>
     </row>
-    <row r="898">
+    <row r="898" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G898" s="12"/>
       <c r="H898" s="10"/>
       <c r="I898" s="12"/>
@@ -10430,7 +10399,7 @@
       <c r="O898" s="10"/>
       <c r="P898" s="10"/>
     </row>
-    <row r="899">
+    <row r="899" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G899" s="12"/>
       <c r="H899" s="10"/>
       <c r="I899" s="12"/>
@@ -10441,7 +10410,7 @@
       <c r="O899" s="10"/>
       <c r="P899" s="10"/>
     </row>
-    <row r="900">
+    <row r="900" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G900" s="12"/>
       <c r="H900" s="10"/>
       <c r="I900" s="12"/>
@@ -10452,7 +10421,7 @@
       <c r="O900" s="10"/>
       <c r="P900" s="10"/>
     </row>
-    <row r="901">
+    <row r="901" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G901" s="12"/>
       <c r="H901" s="10"/>
       <c r="I901" s="12"/>
@@ -10463,7 +10432,7 @@
       <c r="O901" s="10"/>
       <c r="P901" s="10"/>
     </row>
-    <row r="902">
+    <row r="902" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G902" s="12"/>
       <c r="H902" s="10"/>
       <c r="I902" s="12"/>
@@ -10474,7 +10443,7 @@
       <c r="O902" s="10"/>
       <c r="P902" s="10"/>
     </row>
-    <row r="903">
+    <row r="903" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G903" s="12"/>
       <c r="H903" s="10"/>
       <c r="I903" s="12"/>
@@ -10485,7 +10454,7 @@
       <c r="O903" s="10"/>
       <c r="P903" s="10"/>
     </row>
-    <row r="904">
+    <row r="904" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G904" s="12"/>
       <c r="H904" s="10"/>
       <c r="I904" s="12"/>
@@ -10496,7 +10465,7 @@
       <c r="O904" s="10"/>
       <c r="P904" s="10"/>
     </row>
-    <row r="905">
+    <row r="905" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G905" s="12"/>
       <c r="H905" s="10"/>
       <c r="I905" s="12"/>
@@ -10507,7 +10476,7 @@
       <c r="O905" s="10"/>
       <c r="P905" s="10"/>
     </row>
-    <row r="906">
+    <row r="906" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G906" s="12"/>
       <c r="H906" s="10"/>
       <c r="I906" s="12"/>
@@ -10518,7 +10487,7 @@
       <c r="O906" s="10"/>
       <c r="P906" s="10"/>
     </row>
-    <row r="907">
+    <row r="907" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G907" s="12"/>
       <c r="H907" s="10"/>
       <c r="I907" s="12"/>
@@ -10529,7 +10498,7 @@
       <c r="O907" s="10"/>
       <c r="P907" s="10"/>
     </row>
-    <row r="908">
+    <row r="908" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G908" s="12"/>
       <c r="H908" s="10"/>
       <c r="I908" s="12"/>
@@ -10540,7 +10509,7 @@
       <c r="O908" s="10"/>
       <c r="P908" s="10"/>
     </row>
-    <row r="909">
+    <row r="909" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G909" s="12"/>
       <c r="H909" s="10"/>
       <c r="I909" s="12"/>
@@ -10551,7 +10520,7 @@
       <c r="O909" s="10"/>
       <c r="P909" s="10"/>
     </row>
-    <row r="910">
+    <row r="910" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G910" s="12"/>
       <c r="H910" s="10"/>
       <c r="I910" s="12"/>
@@ -10562,7 +10531,7 @@
       <c r="O910" s="10"/>
       <c r="P910" s="10"/>
     </row>
-    <row r="911">
+    <row r="911" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G911" s="12"/>
       <c r="H911" s="10"/>
       <c r="I911" s="12"/>
@@ -10573,7 +10542,7 @@
       <c r="O911" s="10"/>
       <c r="P911" s="10"/>
     </row>
-    <row r="912">
+    <row r="912" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G912" s="12"/>
       <c r="H912" s="10"/>
       <c r="I912" s="12"/>
@@ -10584,7 +10553,7 @@
       <c r="O912" s="10"/>
       <c r="P912" s="10"/>
     </row>
-    <row r="913">
+    <row r="913" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G913" s="12"/>
       <c r="H913" s="10"/>
       <c r="I913" s="12"/>
@@ -10595,7 +10564,7 @@
       <c r="O913" s="10"/>
       <c r="P913" s="10"/>
     </row>
-    <row r="914">
+    <row r="914" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G914" s="12"/>
       <c r="H914" s="10"/>
       <c r="I914" s="12"/>
@@ -10606,7 +10575,7 @@
       <c r="O914" s="10"/>
       <c r="P914" s="10"/>
     </row>
-    <row r="915">
+    <row r="915" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G915" s="12"/>
       <c r="H915" s="10"/>
       <c r="I915" s="12"/>
@@ -10617,7 +10586,7 @@
       <c r="O915" s="10"/>
       <c r="P915" s="10"/>
     </row>
-    <row r="916">
+    <row r="916" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G916" s="12"/>
       <c r="H916" s="10"/>
       <c r="I916" s="12"/>
@@ -10628,7 +10597,7 @@
       <c r="O916" s="10"/>
       <c r="P916" s="10"/>
     </row>
-    <row r="917">
+    <row r="917" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G917" s="12"/>
       <c r="H917" s="10"/>
       <c r="I917" s="12"/>
@@ -10639,7 +10608,7 @@
       <c r="O917" s="10"/>
       <c r="P917" s="10"/>
     </row>
-    <row r="918">
+    <row r="918" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G918" s="12"/>
       <c r="H918" s="10"/>
       <c r="I918" s="12"/>
@@ -10650,7 +10619,7 @@
       <c r="O918" s="10"/>
       <c r="P918" s="10"/>
     </row>
-    <row r="919">
+    <row r="919" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G919" s="12"/>
       <c r="H919" s="10"/>
       <c r="I919" s="12"/>
@@ -10661,7 +10630,7 @@
       <c r="O919" s="10"/>
       <c r="P919" s="10"/>
     </row>
-    <row r="920">
+    <row r="920" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G920" s="12"/>
       <c r="H920" s="10"/>
       <c r="I920" s="12"/>
@@ -10672,7 +10641,7 @@
       <c r="O920" s="10"/>
       <c r="P920" s="10"/>
     </row>
-    <row r="921">
+    <row r="921" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G921" s="12"/>
       <c r="H921" s="10"/>
       <c r="I921" s="12"/>
@@ -10683,7 +10652,7 @@
       <c r="O921" s="10"/>
       <c r="P921" s="10"/>
     </row>
-    <row r="922">
+    <row r="922" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G922" s="12"/>
       <c r="H922" s="10"/>
       <c r="I922" s="12"/>
@@ -10694,7 +10663,7 @@
       <c r="O922" s="10"/>
       <c r="P922" s="10"/>
     </row>
-    <row r="923">
+    <row r="923" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G923" s="12"/>
       <c r="H923" s="10"/>
       <c r="I923" s="12"/>
@@ -10705,7 +10674,7 @@
       <c r="O923" s="10"/>
       <c r="P923" s="10"/>
     </row>
-    <row r="924">
+    <row r="924" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G924" s="12"/>
       <c r="H924" s="10"/>
       <c r="I924" s="12"/>
@@ -10716,7 +10685,7 @@
       <c r="O924" s="10"/>
       <c r="P924" s="10"/>
     </row>
-    <row r="925">
+    <row r="925" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G925" s="12"/>
       <c r="H925" s="10"/>
       <c r="I925" s="12"/>
@@ -10727,7 +10696,7 @@
       <c r="O925" s="10"/>
       <c r="P925" s="10"/>
     </row>
-    <row r="926">
+    <row r="926" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G926" s="12"/>
       <c r="H926" s="10"/>
       <c r="I926" s="12"/>
@@ -10738,7 +10707,7 @@
       <c r="O926" s="10"/>
       <c r="P926" s="10"/>
     </row>
-    <row r="927">
+    <row r="927" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G927" s="12"/>
       <c r="H927" s="10"/>
       <c r="I927" s="12"/>
@@ -10749,7 +10718,7 @@
       <c r="O927" s="10"/>
       <c r="P927" s="10"/>
     </row>
-    <row r="928">
+    <row r="928" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G928" s="12"/>
       <c r="H928" s="10"/>
       <c r="I928" s="12"/>
@@ -10760,7 +10729,7 @@
       <c r="O928" s="10"/>
       <c r="P928" s="10"/>
     </row>
-    <row r="929">
+    <row r="929" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G929" s="12"/>
       <c r="H929" s="10"/>
       <c r="I929" s="12"/>
@@ -10771,7 +10740,7 @@
       <c r="O929" s="10"/>
       <c r="P929" s="10"/>
     </row>
-    <row r="930">
+    <row r="930" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G930" s="12"/>
       <c r="H930" s="10"/>
       <c r="I930" s="12"/>
@@ -10782,7 +10751,7 @@
       <c r="O930" s="10"/>
       <c r="P930" s="10"/>
     </row>
-    <row r="931">
+    <row r="931" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G931" s="12"/>
       <c r="H931" s="10"/>
       <c r="I931" s="12"/>
@@ -10793,7 +10762,7 @@
       <c r="O931" s="10"/>
       <c r="P931" s="10"/>
     </row>
-    <row r="932">
+    <row r="932" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G932" s="12"/>
       <c r="H932" s="10"/>
       <c r="I932" s="12"/>
@@ -10804,7 +10773,7 @@
       <c r="O932" s="10"/>
       <c r="P932" s="10"/>
     </row>
-    <row r="933">
+    <row r="933" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G933" s="12"/>
       <c r="H933" s="10"/>
       <c r="I933" s="12"/>
@@ -10815,7 +10784,7 @@
       <c r="O933" s="10"/>
       <c r="P933" s="10"/>
     </row>
-    <row r="934">
+    <row r="934" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G934" s="12"/>
       <c r="H934" s="10"/>
       <c r="I934" s="12"/>
@@ -10826,7 +10795,7 @@
       <c r="O934" s="10"/>
       <c r="P934" s="10"/>
     </row>
-    <row r="935">
+    <row r="935" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G935" s="12"/>
       <c r="H935" s="10"/>
       <c r="I935" s="12"/>
@@ -10837,7 +10806,7 @@
       <c r="O935" s="10"/>
       <c r="P935" s="10"/>
     </row>
-    <row r="936">
+    <row r="936" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G936" s="12"/>
       <c r="H936" s="10"/>
       <c r="I936" s="12"/>
@@ -10848,7 +10817,7 @@
       <c r="O936" s="10"/>
       <c r="P936" s="10"/>
     </row>
-    <row r="937">
+    <row r="937" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G937" s="12"/>
       <c r="H937" s="10"/>
       <c r="I937" s="12"/>
@@ -10859,7 +10828,7 @@
       <c r="O937" s="10"/>
       <c r="P937" s="10"/>
     </row>
-    <row r="938">
+    <row r="938" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G938" s="12"/>
       <c r="H938" s="10"/>
       <c r="I938" s="12"/>
@@ -10870,7 +10839,7 @@
       <c r="O938" s="10"/>
       <c r="P938" s="10"/>
     </row>
-    <row r="939">
+    <row r="939" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G939" s="12"/>
       <c r="H939" s="10"/>
       <c r="I939" s="12"/>
@@ -10881,7 +10850,7 @@
       <c r="O939" s="10"/>
       <c r="P939" s="10"/>
     </row>
-    <row r="940">
+    <row r="940" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G940" s="12"/>
       <c r="H940" s="10"/>
       <c r="I940" s="12"/>
@@ -10892,7 +10861,7 @@
       <c r="O940" s="10"/>
       <c r="P940" s="10"/>
     </row>
-    <row r="941">
+    <row r="941" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G941" s="12"/>
       <c r="H941" s="10"/>
       <c r="I941" s="12"/>
@@ -10903,7 +10872,7 @@
       <c r="O941" s="10"/>
       <c r="P941" s="10"/>
     </row>
-    <row r="942">
+    <row r="942" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G942" s="12"/>
       <c r="H942" s="10"/>
       <c r="I942" s="12"/>
@@ -10914,7 +10883,7 @@
       <c r="O942" s="10"/>
       <c r="P942" s="10"/>
     </row>
-    <row r="943">
+    <row r="943" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G943" s="12"/>
       <c r="H943" s="10"/>
       <c r="I943" s="12"/>
@@ -10925,7 +10894,7 @@
       <c r="O943" s="10"/>
       <c r="P943" s="10"/>
     </row>
-    <row r="944">
+    <row r="944" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G944" s="12"/>
       <c r="H944" s="10"/>
       <c r="I944" s="12"/>
@@ -10936,7 +10905,7 @@
       <c r="O944" s="10"/>
       <c r="P944" s="10"/>
     </row>
-    <row r="945">
+    <row r="945" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G945" s="12"/>
       <c r="H945" s="10"/>
       <c r="I945" s="12"/>
@@ -10947,7 +10916,7 @@
       <c r="O945" s="10"/>
       <c r="P945" s="10"/>
     </row>
-    <row r="946">
+    <row r="946" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G946" s="12"/>
       <c r="H946" s="10"/>
       <c r="I946" s="12"/>
@@ -10958,7 +10927,7 @@
       <c r="O946" s="10"/>
       <c r="P946" s="10"/>
     </row>
-    <row r="947">
+    <row r="947" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G947" s="12"/>
       <c r="H947" s="10"/>
       <c r="I947" s="12"/>
@@ -10969,7 +10938,7 @@
       <c r="O947" s="10"/>
       <c r="P947" s="10"/>
     </row>
-    <row r="948">
+    <row r="948" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G948" s="12"/>
       <c r="H948" s="10"/>
       <c r="I948" s="12"/>
@@ -10980,7 +10949,7 @@
       <c r="O948" s="10"/>
       <c r="P948" s="10"/>
     </row>
-    <row r="949">
+    <row r="949" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G949" s="12"/>
       <c r="H949" s="10"/>
       <c r="I949" s="12"/>
@@ -10991,7 +10960,7 @@
       <c r="O949" s="10"/>
       <c r="P949" s="10"/>
     </row>
-    <row r="950">
+    <row r="950" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G950" s="12"/>
       <c r="H950" s="10"/>
       <c r="I950" s="12"/>
@@ -11002,7 +10971,7 @@
       <c r="O950" s="10"/>
       <c r="P950" s="10"/>
     </row>
-    <row r="951">
+    <row r="951" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G951" s="12"/>
       <c r="H951" s="10"/>
       <c r="I951" s="12"/>
@@ -11013,7 +10982,7 @@
       <c r="O951" s="10"/>
       <c r="P951" s="10"/>
     </row>
-    <row r="952">
+    <row r="952" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G952" s="12"/>
       <c r="H952" s="10"/>
       <c r="I952" s="12"/>
@@ -11024,7 +10993,7 @@
       <c r="O952" s="10"/>
       <c r="P952" s="10"/>
     </row>
-    <row r="953">
+    <row r="953" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G953" s="12"/>
       <c r="H953" s="10"/>
       <c r="I953" s="12"/>
@@ -11035,7 +11004,7 @@
       <c r="O953" s="10"/>
       <c r="P953" s="10"/>
     </row>
-    <row r="954">
+    <row r="954" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G954" s="12"/>
       <c r="H954" s="10"/>
       <c r="I954" s="12"/>
@@ -11046,7 +11015,7 @@
       <c r="O954" s="10"/>
       <c r="P954" s="10"/>
     </row>
-    <row r="955">
+    <row r="955" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G955" s="12"/>
       <c r="H955" s="10"/>
       <c r="I955" s="12"/>
@@ -11057,7 +11026,7 @@
       <c r="O955" s="10"/>
       <c r="P955" s="10"/>
     </row>
-    <row r="956">
+    <row r="956" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G956" s="12"/>
       <c r="H956" s="10"/>
       <c r="I956" s="12"/>
@@ -11068,7 +11037,7 @@
       <c r="O956" s="10"/>
       <c r="P956" s="10"/>
     </row>
-    <row r="957">
+    <row r="957" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G957" s="12"/>
       <c r="H957" s="10"/>
       <c r="I957" s="12"/>
@@ -11079,7 +11048,7 @@
       <c r="O957" s="10"/>
       <c r="P957" s="10"/>
     </row>
-    <row r="958">
+    <row r="958" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G958" s="12"/>
       <c r="H958" s="10"/>
       <c r="I958" s="12"/>
@@ -11090,7 +11059,7 @@
       <c r="O958" s="10"/>
       <c r="P958" s="10"/>
     </row>
-    <row r="959">
+    <row r="959" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G959" s="12"/>
       <c r="H959" s="10"/>
       <c r="I959" s="12"/>
@@ -11101,7 +11070,7 @@
       <c r="O959" s="10"/>
       <c r="P959" s="10"/>
     </row>
-    <row r="960">
+    <row r="960" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G960" s="12"/>
       <c r="H960" s="10"/>
       <c r="I960" s="12"/>
@@ -11112,7 +11081,7 @@
       <c r="O960" s="10"/>
       <c r="P960" s="10"/>
     </row>
-    <row r="961">
+    <row r="961" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G961" s="12"/>
       <c r="H961" s="10"/>
       <c r="I961" s="12"/>
@@ -11123,7 +11092,7 @@
       <c r="O961" s="10"/>
       <c r="P961" s="10"/>
     </row>
-    <row r="962">
+    <row r="962" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G962" s="12"/>
       <c r="H962" s="10"/>
       <c r="I962" s="12"/>
@@ -11134,7 +11103,7 @@
       <c r="O962" s="10"/>
       <c r="P962" s="10"/>
     </row>
-    <row r="963">
+    <row r="963" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G963" s="12"/>
       <c r="H963" s="10"/>
       <c r="I963" s="12"/>
@@ -11145,7 +11114,7 @@
       <c r="O963" s="10"/>
       <c r="P963" s="10"/>
     </row>
-    <row r="964">
+    <row r="964" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G964" s="12"/>
       <c r="H964" s="10"/>
       <c r="I964" s="12"/>
@@ -11156,7 +11125,7 @@
       <c r="O964" s="10"/>
       <c r="P964" s="10"/>
     </row>
-    <row r="965">
+    <row r="965" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G965" s="12"/>
       <c r="H965" s="10"/>
       <c r="I965" s="12"/>
@@ -11167,7 +11136,7 @@
       <c r="O965" s="10"/>
       <c r="P965" s="10"/>
     </row>
-    <row r="966">
+    <row r="966" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G966" s="12"/>
       <c r="H966" s="10"/>
       <c r="I966" s="12"/>
@@ -11178,7 +11147,7 @@
       <c r="O966" s="10"/>
       <c r="P966" s="10"/>
     </row>
-    <row r="967">
+    <row r="967" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G967" s="12"/>
       <c r="H967" s="10"/>
       <c r="I967" s="12"/>
@@ -11189,7 +11158,7 @@
       <c r="O967" s="10"/>
       <c r="P967" s="10"/>
     </row>
-    <row r="968">
+    <row r="968" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G968" s="12"/>
       <c r="H968" s="10"/>
       <c r="I968" s="12"/>
@@ -11200,7 +11169,7 @@
       <c r="O968" s="10"/>
       <c r="P968" s="10"/>
     </row>
-    <row r="969">
+    <row r="969" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G969" s="12"/>
       <c r="H969" s="10"/>
       <c r="I969" s="12"/>
@@ -11211,7 +11180,7 @@
       <c r="O969" s="10"/>
       <c r="P969" s="10"/>
     </row>
-    <row r="970">
+    <row r="970" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G970" s="12"/>
       <c r="H970" s="10"/>
       <c r="I970" s="12"/>
@@ -11222,7 +11191,7 @@
       <c r="O970" s="10"/>
       <c r="P970" s="10"/>
     </row>
-    <row r="971">
+    <row r="971" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G971" s="12"/>
       <c r="H971" s="10"/>
       <c r="I971" s="12"/>
@@ -11233,7 +11202,7 @@
       <c r="O971" s="10"/>
       <c r="P971" s="10"/>
     </row>
-    <row r="972">
+    <row r="972" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G972" s="12"/>
       <c r="H972" s="10"/>
       <c r="I972" s="12"/>
@@ -11244,7 +11213,7 @@
       <c r="O972" s="10"/>
       <c r="P972" s="10"/>
     </row>
-    <row r="973">
+    <row r="973" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G973" s="12"/>
       <c r="H973" s="10"/>
       <c r="I973" s="12"/>
@@ -11255,7 +11224,7 @@
       <c r="O973" s="10"/>
       <c r="P973" s="10"/>
     </row>
-    <row r="974">
+    <row r="974" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G974" s="12"/>
       <c r="H974" s="10"/>
       <c r="I974" s="12"/>
@@ -11266,7 +11235,7 @@
       <c r="O974" s="10"/>
       <c r="P974" s="10"/>
     </row>
-    <row r="975">
+    <row r="975" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G975" s="12"/>
       <c r="H975" s="10"/>
       <c r="I975" s="12"/>
@@ -11277,7 +11246,7 @@
       <c r="O975" s="10"/>
       <c r="P975" s="10"/>
     </row>
-    <row r="976">
+    <row r="976" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G976" s="12"/>
       <c r="H976" s="10"/>
       <c r="I976" s="12"/>
@@ -11288,7 +11257,7 @@
       <c r="O976" s="10"/>
       <c r="P976" s="10"/>
     </row>
-    <row r="977">
+    <row r="977" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G977" s="12"/>
       <c r="H977" s="10"/>
       <c r="I977" s="12"/>
@@ -11299,7 +11268,7 @@
       <c r="O977" s="10"/>
       <c r="P977" s="10"/>
     </row>
-    <row r="978">
+    <row r="978" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G978" s="12"/>
       <c r="H978" s="10"/>
       <c r="I978" s="12"/>
@@ -11310,7 +11279,7 @@
       <c r="O978" s="10"/>
       <c r="P978" s="10"/>
     </row>
-    <row r="979">
+    <row r="979" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G979" s="12"/>
       <c r="H979" s="10"/>
       <c r="I979" s="12"/>
@@ -11321,7 +11290,7 @@
       <c r="O979" s="10"/>
       <c r="P979" s="10"/>
     </row>
-    <row r="980">
+    <row r="980" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G980" s="12"/>
       <c r="H980" s="10"/>
       <c r="I980" s="12"/>
@@ -11332,7 +11301,7 @@
       <c r="O980" s="10"/>
       <c r="P980" s="10"/>
     </row>
-    <row r="981">
+    <row r="981" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G981" s="12"/>
       <c r="H981" s="10"/>
       <c r="I981" s="12"/>
@@ -11343,7 +11312,7 @@
       <c r="O981" s="10"/>
       <c r="P981" s="10"/>
     </row>
-    <row r="982">
+    <row r="982" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G982" s="12"/>
       <c r="H982" s="10"/>
       <c r="I982" s="12"/>
@@ -11354,7 +11323,7 @@
       <c r="O982" s="10"/>
       <c r="P982" s="10"/>
     </row>
-    <row r="983">
+    <row r="983" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G983" s="12"/>
       <c r="H983" s="10"/>
       <c r="I983" s="12"/>
@@ -11365,7 +11334,7 @@
       <c r="O983" s="10"/>
       <c r="P983" s="10"/>
     </row>
-    <row r="984">
+    <row r="984" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G984" s="12"/>
       <c r="H984" s="10"/>
       <c r="I984" s="12"/>
@@ -11376,7 +11345,7 @@
       <c r="O984" s="10"/>
       <c r="P984" s="10"/>
     </row>
-    <row r="985">
+    <row r="985" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G985" s="12"/>
       <c r="H985" s="10"/>
       <c r="I985" s="12"/>
@@ -11387,7 +11356,7 @@
       <c r="O985" s="10"/>
       <c r="P985" s="10"/>
     </row>
-    <row r="986">
+    <row r="986" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G986" s="12"/>
       <c r="H986" s="10"/>
       <c r="I986" s="12"/>
@@ -11398,7 +11367,7 @@
       <c r="O986" s="10"/>
       <c r="P986" s="10"/>
     </row>
-    <row r="987">
+    <row r="987" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G987" s="12"/>
       <c r="H987" s="10"/>
       <c r="I987" s="12"/>
@@ -11409,7 +11378,7 @@
       <c r="O987" s="10"/>
       <c r="P987" s="10"/>
     </row>
-    <row r="988">
+    <row r="988" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G988" s="12"/>
       <c r="H988" s="10"/>
       <c r="I988" s="12"/>
@@ -11420,7 +11389,7 @@
       <c r="O988" s="10"/>
       <c r="P988" s="10"/>
     </row>
-    <row r="989">
+    <row r="989" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G989" s="12"/>
       <c r="H989" s="10"/>
       <c r="I989" s="12"/>
@@ -11431,7 +11400,7 @@
       <c r="O989" s="10"/>
       <c r="P989" s="10"/>
     </row>
-    <row r="990">
+    <row r="990" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G990" s="12"/>
       <c r="H990" s="10"/>
       <c r="I990" s="12"/>
@@ -11442,7 +11411,7 @@
       <c r="O990" s="10"/>
       <c r="P990" s="10"/>
     </row>
-    <row r="991">
+    <row r="991" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G991" s="12"/>
       <c r="H991" s="10"/>
       <c r="I991" s="12"/>
@@ -11453,7 +11422,7 @@
       <c r="O991" s="10"/>
       <c r="P991" s="10"/>
     </row>
-    <row r="992">
+    <row r="992" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G992" s="12"/>
       <c r="H992" s="10"/>
       <c r="I992" s="12"/>
@@ -11464,7 +11433,7 @@
       <c r="O992" s="10"/>
       <c r="P992" s="10"/>
     </row>
-    <row r="993">
+    <row r="993" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G993" s="12"/>
       <c r="H993" s="10"/>
       <c r="I993" s="12"/>
@@ -11475,7 +11444,7 @@
       <c r="O993" s="10"/>
       <c r="P993" s="10"/>
     </row>
-    <row r="994">
+    <row r="994" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G994" s="12"/>
       <c r="H994" s="10"/>
       <c r="I994" s="12"/>
@@ -11486,7 +11455,7 @@
       <c r="O994" s="10"/>
       <c r="P994" s="10"/>
     </row>
-    <row r="995">
+    <row r="995" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G995" s="12"/>
       <c r="H995" s="10"/>
       <c r="I995" s="12"/>
@@ -11497,7 +11466,7 @@
       <c r="O995" s="10"/>
       <c r="P995" s="10"/>
     </row>
-    <row r="996">
+    <row r="996" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G996" s="12"/>
       <c r="H996" s="10"/>
       <c r="I996" s="12"/>
@@ -11508,7 +11477,7 @@
       <c r="O996" s="10"/>
       <c r="P996" s="10"/>
     </row>
-    <row r="997">
+    <row r="997" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G997" s="12"/>
       <c r="H997" s="10"/>
       <c r="I997" s="12"/>
@@ -11519,7 +11488,7 @@
       <c r="O997" s="10"/>
       <c r="P997" s="10"/>
     </row>
-    <row r="998">
+    <row r="998" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G998" s="12"/>
       <c r="H998" s="10"/>
       <c r="I998" s="12"/>
@@ -11530,7 +11499,7 @@
       <c r="O998" s="10"/>
       <c r="P998" s="10"/>
     </row>
-    <row r="999">
+    <row r="999" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G999" s="12"/>
       <c r="H999" s="10"/>
       <c r="I999" s="12"/>
@@ -11541,7 +11510,7 @@
       <c r="O999" s="10"/>
       <c r="P999" s="10"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G1000" s="12"/>
       <c r="H1000" s="10"/>
       <c r="I1000" s="12"/>
@@ -11553,7 +11522,7 @@
       <c r="P1000" s="10"/>
     </row>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K4 K6:K1000">
       <formula1>"EMAIL,SMS,BOTH"</formula1>
     </dataValidation>
@@ -11566,7 +11535,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2:M4 M6:M1000">
       <formula1>"MARRIED,SINGLE,DIVORCED,WIDOWED,OTHER"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="L2:L4 O2:O4 L6:L1000 O6:O1000">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="L2:L4 O6:O1000 L6:L1000 O2:O4">
       <formula1>OR(NOT(ISERROR(DATEVALUE(L2))), AND(ISNUMBER(L2), LEFT(CELL("format", L2))="D"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J4 J6:J1000">
@@ -11576,6 +11545,6 @@
       <formula1>"NID,PASSPORT,ARMY_CARD,POLICE_CARD,NISS_CARD,RCS_CARD,OTHERS"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/documents/Importuserselms.xlsx
+++ b/public/documents/Importuserselms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\project\elms\frontend\frontend-service\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>RDF-123</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -397,9 +400,9 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -413,7 +416,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -519,7 +522,9 @@
       <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
